--- a/result.xlsx
+++ b/result.xlsx
@@ -80,14 +80,14 @@
     <t>Videotapes with bright colors and pleasant sounds, g roup games, or an object of special interest.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Arrange a group activity, show a videotape, or identify a favorite object or toy
+    <t>1. Arrange a group activity, show a videotape, or identify a favorite object or toy
 . 2. Engage the student and encourage interaction with the activity
 . 3. Use gentle physical prompting to point the studen t toward the activity
 . 4. If the student is nonresponsive, try another activity and/or change the training setting
 . 5. If response and focus occur for 1 minute, reward the student with verbal praise and tactile feedback (assuming he or she is not tactilely defensive)
 . 6. Repeat Step 5 for a 2 - minute threshold
 . 7. Repeat Step 5 for a 3 - minute threshold
-. 8. Repeat Step 5 for a 5 - minute threshold. Continue until the objective </t>
+. 8. Repeat Step 5 for a 5 - minute threshold. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson ADT 3</t>
@@ -110,7 +110,7 @@
 . 3. Use gentle physical prompting, if needed, to prompt the grasping of the object. If unsuccessful, try another item
 . 4. If grasping action occurs for 1 minute, reward the student with verbal praise and tactile feedback (assuming he or she is not ta ctilely defensive)
 . 5. Repeat Step 4 for a 2 - minute threshold
-. 6. Repeat Step 4 for a 3 - minute threshold. Continue until the objective is me</t>
+. 6. Repeat Step 4 for a 3 - minute threshold. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson ADT 4</t>
@@ -134,7 +134,7 @@
     <t>1. In an interactive manner, place an object or p erson off to the left or right side of the student but within the visual field. If the child is blind or visually im paired, substitute sounds for objects presented. Tell the student the name of the object or person and encourage interaction
 . 2. Introduce th e object, to the left or right side of the student, that was involved in Step 1. Ask the student to "point to" or "show me" the "name of the object/ person." Encourage pointing through physical prompting, but any form of physical indication is acceptable. Reinforce the student socially and tactilely (unless he or she is tactilely defensive) on a continuous basis
 . 3. Continue prompting as necessary (physical then gestural) and fade the use of prompting
-. 4. Fade the use of reinforcement, other than periodic social praise, t</t>
+. 4. Fade the use of reinforcement, other than periodic social praise, to zero.</t>
   </si>
   <si>
     <t>Lesson ADT 5</t>
@@ -162,7 +162,7 @@
 . 5. Replace physical guidance with a gestural prompting of the student. Fade the intensity of the prompt until only the v erbal request is needed
 . 6. Provide positive feedback only when the answer is correct
 . 7. If, after a 10 - trial example, an 80% success rate is reached, start providing reinforcement only for every other successful response
-. 8. Systematically reduce reinforcement down to only one time for 20 trials and continue until the objective is met (80% for 20 trials)</t>
+. 8. Systematically reduce reinforcement down to only one time for 20 trials and continue until the objective is met (80% for 20 trials).</t>
   </si>
   <si>
     <t>Lesson ADT 6</t>
@@ -187,7 +187,7 @@
 . 5. Continue on with Step 4, using only gestural prompting
 . 6. Continue with Step 4, using no prompting
 . 7. Provide continuous social reinforcement for each successful identification of items that go together until an 80% or greater level of accuracy is noted for 20 trials
-. 8. Systematically reduce reinforcement to only one time for 20 trials and con tinue until the objective is met (80% for 20 t</t>
+. 8. Systematically reduce reinforcement to only one time for 20 trials and con tinue until the objective is met (80% for 20 trials).</t>
   </si>
   <si>
     <t>Lesson ADT 7</t>
@@ -234,7 +234,7 @@
 . 2. Escort the student toward the water fountain but keep it out of sight. Ask the student to find the water fountain. If he or she is unsuccessful, physically guide the student to the fountain and try again. After initial success, start the student farther and farther away until he or she can go from a classroom, or other starting point, to the fountain. Assist the student in getting a drink, if he or she desires
 . 3. Attempt to teach the student how to use the button or handle to make the fountain work. If difficulties are encountered here, adaptive equipment such as switches or different handles can be used
 . 4. Carefully, with physical guidance, assist the student in lowering his or her head to the water stream. Reduce physical guidance as you are able to do so
-. 5. Encourage drinking behavior. If problems such as choking occur, contact appropriate professional staff for assi</t>
+. 5. Encourage drinking behavior. If problems such as choking occur, contact appropriate professional staff for assistance.</t>
   </si>
   <si>
     <t>Lesson ADT 9</t>
@@ -260,7 +260,7 @@
 . 3. Continue with Step 2, attempting to reduce the grasp from two hands to one hand. If this cannot reasonably be accomplished, proceed with the program using a two - handed grasp; otherwise, continue to attempt to achieve a one handed grasp
 . 4. With liquid in the cup, have the student bring the cup to his or her mouth, parallel to the face
 . 5. With the completion of Step 4, physically assist the student in slowly tilting the cup to introduce liquid into the mouth. If any choking activity is noted, stop the training immediately and seek professional assistance or guidance before continuing the le sson
-. 6. Slowly reduce both physical guidance and social reinforcement to the student until the objective is me</t>
+. 6. Slowly reduce both physical guidance and social reinforcement to the student until the objective is met.</t>
   </si>
   <si>
     <t>Lesson ADT 1O</t>
@@ -284,7 +284,7 @@
     <t>1. Present a finger food that is perceived to be desired by the student. Provide the verbal cue "(Name), please pick up a piece of (food item)." Assist, where needed, in the process of grasping the object in a manner that would expose as much of the food item, as reasonable, to easy placement in the mouth. Physical guidance may be needed and should b e faded out prior to proceed ing to the next step. If physical guidance is not needed, proceed to Step 4. Continuous social reinforcement should be provided in this step as well as Steps 2 and 3
 . 2. Have the student practice opening and closing mouth as the teacher brings the food toward it. This could also be done in the form of a game
 . 3. Couple the skill learned in Step 2 with prompting the student to bring the food item to his or her mouth without assistance
-. 4. Encourage thorough chewing and swallowing by verb al prompts. If difficul ties are noted here, get assistance from an occupational therapist or another profes</t>
+. 4. Encourage thorough chewing and swallowing by verb al prompts. If difficul ties are noted here, get assistance from an occupational therapist or another professional.</t>
   </si>
   <si>
     <t>Lesson ADT 11</t>
@@ -310,7 +310,7 @@
 . 3. Practice scooping food and bringing it toward the mouth. Physical guidance may be needed. If so, gradually reduce gu idance until only verbal prompts are needed
 . 4. Carefully, with physical guidance, assist the student in placing food into his or her mouth and closing the lips around the spoon. Reduce guidance as oppo tunities allow
 . 5. Assist the student in removing spoon from his or her mouth. Reduce guidance as opportunities allow
-. 6. Verbally prompt the student to chew and swallow as needed. If problems such as choking occur, contact appropriate professional staff for assistanc</t>
+. 6. Verbally prompt the student to chew and swallow as needed. If problems such as choking occur, contact appropriate professional staff for assistance. 4</t>
   </si>
   <si>
     <t>Lesson ADT 12</t>
@@ -335,7 +335,7 @@
 . 2. Assist the student in making balls of clay about 2 inches in diameter. Place two or three of these balls in a bowl and assist the student in piercing a ball with a fork, moving the ball to another bowl, and scraping off (using the edge of the rece iving bowl) the ball. Gradually reduce the ball size to about ½ inch and reduce the physical prompting. (Note. If the bowl slips too much, attempt to place it on a nonskid mat.) 3. Replace the clay in Step 1 with food items of approximately½ inch in size
 . 4. Car efully, with physical guidance, assist the student in placing food into his or her mouth and closing lips around the fork. Reduce guidance as opportunities allow
 . 5. Assist the student in removing the fork from his or her mouth. Reduce guid ance as opportuni ties allow
-. 6. Verbally prompt the student to chew and swallow as needed. If problems such as choking occur, contact appropriate professional or medical staff for assi</t>
+. 6. Verbally prompt the student to chew and swallow as needed. If problems such as choking occur, contact appropriate professional or medical staff for assistance.</t>
   </si>
   <si>
     <t>Lesson ADT 13</t>
@@ -359,7 +359,7 @@
 . 4. Repeat Step 3, modifying the action to guiding the student toward holding the toast in the nondominant hand. Physical guidance should be reduced to a gestural level. Some step - by - step verbal prompting may be ne eded and should be gradually reduced until only the total request is necessary
 . 5. Modify Step 4, using softened butter
 . 6. Modify Step 4, using jelly. (Note. This may prove too difficult based on the consistency of both the bread and the jelly. If so, just continue with butter.) 7. Physically guide the student's dominant hand, holding the knife, to the jelly or butter and with a lateral (sideways) motion tilted slightly downward. Scoop a small quantity of jelly or butter and transfer it to the toast, using the knife
-. 8. Combine Steps 6 and</t>
+. 8. Combine Steps 6 and 7.</t>
   </si>
   <si>
     <t>Lesson ADT 14</t>
@@ -386,7 +386,7 @@
 . 4. Using the skills from Step 3, assist the student in making a back - and - forth motion across the cake or similar substance. Guide the student to make a pen etrating motion through the item, and then encourage drawing the knife back toward the student in a back - and - forth manner
 . 5. Modify Step 4, using items of harder consistency, such as brownies
 . 6. Modify Step 5, using meat (such as cooked, boneless chicken breasts)
-. 7. After the meat has been cut to bite - size pieces (½ - inch square), use the skills from ADT 12 to allow the student to eat the results if he or she d</t>
+. 7. After the meat has been cut to bite - size pieces (½ - inch square), use the skills from ADT 12 to allow the student to eat the results if he or she desires.</t>
   </si>
   <si>
     <t>Lesson ADT 15</t>
@@ -412,7 +412,7 @@
 . 3. Repeat Step 2, adding a knife to the other two utensils
 . 4. Physically assist the student in placing the utensils near a plate on a table and encourage him or her to place the napkin in his or her lap
 . 5. Combine the concept s of Steps 3 and 4 into one complete action
-. 6. Reduce reinforcement and guidance until only one verbal prompt is needed for the student to complete the entire tas</t>
+. 6. Reduce reinforcement and guidance until only one verbal prompt is needed for the student to complete the entire task.</t>
   </si>
   <si>
     <t>Lesson ADT 16</t>
@@ -433,12 +433,12 @@
     <t>Napkins (paper or linen), mirror, and catsup or similar substance.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Ensure that the student can pick up a napkin and bring it to his or her mouth using grasping skills (see prerequ isite ADT 3)
+    <t>1. Ensure that the student can pick up a napkin and bring it to his or her mouth using grasping skills (see prerequ isite ADT 3)
 . 2. Get the student to look at him - or herself in a mirror. Place catsup or a simi lar substance by a corner of the mouth on the student's reflection. Ask, or guide as necessary, the student to wipe off the catsup. Repeat this concept, perhaps using game - like activities, until complete mastery is achieved without any physical guidance
 . 3. Repeat the task from Step 2, modifying it by asking the student to close his or her eyes just before attempting to wipe the mouth. Continue with this task until the student can be shown the catsup and close his or her eyes just before attempting to wipe the catsup off
 . 4. Place the catsup near a corner of the student's mouth or on the chin while his or her eyes are closed, then ask the student to indicate placement
 . 5. Continue Step 4, adding the actual use of the napkin
-. 6. Using the skills obtained in Step 5, verbally prompt, if needed, during an actual mealtime. Reduce prompts until none are </t>
+. 6. Using the skills obtained in Step 5, verbally prompt, if needed, during an actual mealtime. Reduce prompts until none are needed.</t>
   </si>
   <si>
     <t>Lesson ADT 17</t>
@@ -480,11 +480,11 @@
     <t>Glass or cup, cupboard or standard location for storing these materials, and an accessible faucet. (Note. Some adaptations to equipment may be needed to promote independence.)</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Have the student locate various cupboards and similar places in a kitchen. Teach the student to consistently identify which cupboard contains the glasses or cups
+    <t>1. Have the student locate various cupboards and similar places in a kitchen. Teach the student to consistently identify which cupboard contains the glasses or cups
 . 2. Guide the student toward selecting a glass or cup and taking it to the faucet. Reduce guidance given until this can be performed with only a verbal request
 . 3. Have the student identify the hot - water tap and the cold - water tap. Color coding the taps may be necessary. Verify that the student can properly and safely use a faucet by both turning it on and off (see prerequisite ADT 17). Cold - water use is the focus of this activity
 . 4. Have the student hold the glass or cup under a faucet, turn on the water, and fill the cup approximately half way
-. 5. Combi ne Steps 1 through 4 into a single </t>
+. 5. Combi ne Steps 1 through 4 into a single action.</t>
   </si>
   <si>
     <t>Lesson ADT 19</t>
@@ -502,10 +502,10 @@
     <t>Plastic pitchers and clear plastic cups.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Present a pitcher half filled with water to the student. Assist the student in lifting the pitcher off the table, raising it at least 1 foot, and placing it back down without spillage. Physical guidance may be needed. If so, continue the exercise, reducing assistance until only verbal prompts are needed
+    <t>1. Present a pitcher half filled with water to the student. Assist the student in lifting the pitcher off the table, raising it at least 1 foot, and placing it back down without spillage. Physical guidance may be needed. If so, continue the exercise, reducing assistance until only verbal prompts are needed
 . 2. Repeat Step 1, adding movement parallel to the table without spillage
 . 3. Using another pitcher to receive the water, physically guide the student through the process of pouring water from one pitcher to another. Physical guidance should be reduced and eventually replaced with gestural and verbal guidance. Finally, reduce prompting to just a total - task request
-. 4. Repeat the exercise in Step 3, replacing the receiving pitcher with a cup. 57 </t>
+. 4. Repeat the exercise in Step 3, replacing the receiving pitcher with a cup.</t>
   </si>
   <si>
     <t>Lesson ADT 20</t>
@@ -530,7 +530,7 @@
 . 2. During mealtime, remain in proximity to the student. Very gent ly provide some physical guidance and capitalize on previously learned skills (see the prerequisites list). Use verbal praise for any successful 1 - minute example of the agreed - upon behavior
 . 3. Continue with Step 2, modifying the prompt level to gestural and verbal corrections. Extend praise to every 2 minutes of successful activity
 . 4. Modify Step 3 to only verbal prompts and a 3 - minute praise rate
-. 5. Reduce prompting to zero and praise to once pe</t>
+. 5. Reduce prompting to zero and praise to once per meal.</t>
   </si>
   <si>
     <t>Lesson ADT 21</t>
@@ -545,10 +545,10 @@
     <t>The student will, upon verbal request, pick up a requested food item and pass it to the person next to him or her to a 90% accuracy level for 20 trials.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Present three different food items in bowls to student. Have the student iden tify each of the different items. Ask the student to g rasp and lift the bowl containing the item that you request
+    <t>1. Present three different food items in bowls to student. Have the student iden tify each of the different items. Ask the student to g rasp and lift the bowl containing the item that you request
 . 2. Have the student pass you a selected bowl that contains the specific food item. Physical prompting may be needed. If so, reduce prompting to only a verbal level
 . 3. During a mealtime, verbally promp t the student to pass a specific food item to a person sitting next to him or her. Provide verbal praise for every successful action of the target objective
-. 4. Reduce verbal praise incrementally until the rate is only once per meal experi ence and the reques t to "please pass (the food item)" is the only verbal prompt needed. 59 </t>
+. 4. Reduce verbal praise incrementally until the rate is only once per meal experi ence and the reques t to "please pass (the food item)" is the only verbal prompt needed.</t>
   </si>
   <si>
     <t>Lesson ADT 22</t>
@@ -566,10 +566,10 @@
     <t>Upon verbal request, the st udent will pick up the requested food item and serve that item to the person next to him or her to a 90% success rate over 20 trials.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Present three different food items in bowls to the student in a classroom set ting. Have the student identify each of the different items. Ask the student to grasp and lift the bowl that you request
+    <t>1. Present three different food items in bowls to the student in a classroom set ting. Have the student identify each of the different items. Ask the student to grasp and lift the bowl that you request
 . 2. Have the student use a spoon to scoop the item from the selected bowl into another bowl. Physical prompting may be needed. If so, reduce prompting to a verbal level only
 . 3. During a mealtime, verbally prompt the student to serve a specific food item onto a plate. Have the student then "pass food [the served item ] family style" (see prerequisite ADT 21) to another person. Provide verbal praise for every successful action of the target objective
-. 4. Reduce verbal praise incrementally until the rate is only once per meal experi ence and the only prompt needed is the t otal - task request: "Please serve the (name of the food </t>
+. 4. Reduce verbal praise incrementally until the rate is only once per meal experi ence and the only prompt needed is the t otal - task request: "Please serve the (name of the food item)."</t>
   </si>
   <si>
     <t>Lesson ADT 23</t>
@@ -593,7 +593,7 @@
     <t>1. Create a poster - like template that outlines the different items used for a place setting. Physically assist the student in placin g each item for the place setting in the proper location (spoon and knife on right, fork[s] on left, and a napkin under the knife and spoon), coupled with verbal prompting
 . 2. Continue Step 1, with a modification of using only half of the template
 . 3. Continue S tep 2, with no template and only verbal prompting at an actual table setting
-. 4. Reduce the verbal praise incrementally until the rate is only once per situation where the student has set the tab</t>
+. 4. Reduce the verbal praise incrementally until the rate is only once per situation where the student has set the table.</t>
   </si>
   <si>
     <t>Lesson ADT 24</t>
@@ -614,11 +614,11 @@
     <t>Normal mealtime items such as plates, cups, bowls, napkins, and various utensils.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Practice with the student, and physically assist if needed, with taking an empty clean plate from the table and placing it in the sink in a safe manner. Demonstrate the concept of scraping food from a plate into a trash can
+    <t>1. Practice with the student, and physically assist if needed, with taking an empty clean plate from the table and placing it in the sink in a safe manner. Demonstrate the concept of scraping food from a plate into a trash can
 . 2. Continue Step 1, with the modification of using cups, utensils, and bowls
 . 3. In an actual after - meal setting, demonstrate to the student the actual process of clearing the table
 . 4. Providing physical, gestural, and verbal prompting as needed, guiding the student through the entire process. Fade the use of g estural and physical prompting
-. 5. Repeat Step 4, providing only the total - task verbal prompt: "(Name), please clear the table." Use lots of verbal reinforcement for any </t>
+. 5. Repeat Step 4, providing only the total - task verbal prompt: "(Name), please clear the table." Use lots of verbal reinforcement for any effort.</t>
   </si>
   <si>
     <t>Lesson ADT 25</t>
@@ -643,7 +643,7 @@
 . 2. Using a poster board with lines drawn into four equal quadrants, write the food group name and make a simple drawing that represents each of the groups in each section. Have the student point to randomly named groups
 . 3. Take a food item and physically assist, if needed, in helping the student to place the item on the poster board in the correct section of the various groups. Reduce prompting to just verbal requests
 . 4. Remove the poster board, hold up the item, and ask the student to verbally id entify the item and its food group. Use only one item per food group at this time. This activity also works well in a group setting in a game format
-. 5. Repeat Step 4 using multiple items from all groups and the following verbal prompt: "(Name), can you tell me what this is and what food group it goes with?" Use lots of verbal reinforcement for any effort by the stude</t>
+. 5. Repeat Step 4 using multiple items from all groups and the following verbal prompt: "(Name), can you tell me what this is and what food group it goes with?" Use lots of verbal reinforcement for any effort by the student.</t>
   </si>
   <si>
     <t>Lesson ADT 26</t>
@@ -667,7 +667,7 @@
     <t>1. Follow up on the information gained in "group items by food group" (ADT 25). Present samples of at least two items from each of the four food groups that are familiar to the student
 . 2. Ask student to sample or "take a bite" of each item. Physically assist only where needed to perform the action of eating. Do not force consumption. Provide lots of verbal praise for successful efforts
 . 3. Modify the process in Step 2 to introduce items that are not familiar to the student
-. 4. Continue the process only for each food group area where resistance to sampling is perceived. Use various choices within eac h</t>
+. 4. Continue the process only for each food group area where resistance to sampling is perceived. Use various choices within eac h group.</t>
   </si>
   <si>
     <t>Lesson ADT 27</t>
@@ -715,12 +715,12 @@
     <t>Cup, spoon, powdered drink or coffee, water (heated, if necessary, by the instructor). (Note. Adaptive changes may need to be made to the spoon handle to ensure successful gripping, scooping, and stirring actions.)</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Determine through discussion or observed reaction which types and brands of powdered drink or coffee are preferred. If a choice is possible, focus on a cold - water prepared item to avoid the potential problems of burns from hot water
+    <t>1. Determine through discussion or observed reaction which types and brands of powdered drink or coffee are preferred. If a choice is possible, focus on a cold - water prepared item to avoid the potential problems of burns from hot water
 . 2. Assist the student in holding the spoon and using it to scoop the beverage mix. Initially use a cereal bowl as a target. The instructor should then finish the task for the student. Emp hasis should also be given to the amount needed for a cup. Actual ounces are not important, but effort should be made to get approximately the correct amount
 . 3. Modify Step 2 by making the actual cup the target
 . 4. Assist the student in pouring water into the c up, stopping between 1 inch to ½ inch from the top. Reduce the physical guidance to a level of verbal prompts. You should complete the task and give the student the end result, which, if truly desired by the student, should serve as a reinforcement
 . 5. Assist the student in the process of placing the spoon in the cup and stirring the product until it is completely dissolved
-. 6. Combine all the skills learned into a single act. Use verbal guidance where needed but fade verbal cues to just a request to make the drink itself. Use verbal praise not only from the perspective of doing the task successfully but also to enhance self - </t>
+. 6. Combine all the skills learned into a single act. Use verbal guidance where needed but fade verbal cues to just a request to make the drink itself. Use verbal praise not only from the perspective of doing the task successfully but also to enhance self - esteem.</t>
   </si>
   <si>
     <t>Lesson ADT 29</t>
@@ -745,7 +745,7 @@
 . 5. Present to the student a pitcher of milk that contains only enough milk for the bowl being used
 . 6. Modify Step 5 by progressively adding more milk to the pitcher until the student can pour enough but not overflow the bowl, with as much as twice the needed milk being in the pitcher
 . 7. Physically guide the student through the use of the spoon to scoop the cereal, reinforcing the skills learned in prerequisi te task ADT 11. Reduce guidance until independence is obtained
-. 8. Assist the student in putting away the items used after the cereal is eat</t>
+. 8. Assist the student in putting away the items used after the cereal is eaten.</t>
   </si>
   <si>
     <t>Lesson ADT 30</t>
@@ -766,12 +766,12 @@
     <t>Bread and a toaster or toaster oven. (Note. Adaptive changes may need to be made to the equipment to make use easier.)</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Demonstrate to the student the entire process. After the correct process is comprehended, demonstrate incorrect examples such as overcooking and undercooking
+    <t>1. Demonstrate to the student the entire process. After the correct process is comprehended, demonstrate incorrect examples such as overcooking and undercooking
 . 2. Assist the student in taking bread from a container or package. Physically guide where necessary and reduce guidance as able
 . 3. Guide the student in placing the bread in the toaster or toas ter oven
 . 4. Assist the student in activating the appliance
 . 5. Demonstrate to the student how to modify the process of cooking if the automatic features do not work properly (i.e., toast burns or needs additional time)
-. 6. Combine Steps 2 through 5 into one activi ty, with full physical prompting if needed. Reduce prompting as allowable until only a total - task verbal prompt </t>
+. 6. Combine Steps 2 through 5 into one activi ty, with full physical prompting if needed. Reduce prompting as allowable until only a total - task verbal prompt remams.</t>
   </si>
   <si>
     <t>Lesson ADT 31</t>
@@ -797,7 +797,7 @@
 . 3. Guide the student - physically, if needed - through the process of collecting all the necessary materials and placing one slice of bread on a plate
 . 4. Continue Step 3, reducing physical guidance and replacing it with gestural and verbal prompting. Reduce gestural cues until only verbal prompts are needed
 . 5. Guide the student with prompts as needed to placing or spreading onto the bread the items selected for the agreed - upon sandwic h (see prerequisite ADT 13) and top with another piece of bread
-. 6. Use the skills learned in "cut with a knife" (ADT 14) to cut the sandwich in ha</t>
+. 6. Use the skills learned in "cut with a knife" (ADT 14) to cut the sandwich in half.</t>
   </si>
   <si>
     <t>Lesson ADT 32</t>
@@ -825,7 +825,7 @@
 . 5. Press the necessary sequence of buttons
 . 6. Remove the bag
 . 7. Open the bag. (Note. Be cautious, as the product may be very hot.) 8. Pour the contents into a bowl
-. 9. Place the packaging in the tra</t>
+. 9. Place the packaging in the trash can.</t>
   </si>
   <si>
     <t>-- Lesson ADT 33</t>
@@ -853,7 +853,7 @@
 . 5. Teach the student to verbally or gesturally identify a desired item
 . 6. Receive the item from the cafeteria employee or pick up the item and place it on the tray
 . 7. Pick up a glass and place it under the ice machine
-. 8. Activate the ice machine and obtain ice. (Note. The amount of ice obtained may need regulating.) 9. Place the glass under the desired drink dispenser and fill the glass. (Note. The amount may need regulating.) 10. Stop at the cashier and receive the bil l, or you may make the payment. (Note. The actual purchasing skills come at a later time [see COG 1</t>
+. 8. Activate the ice machine and obtain ice. (Note. The amount of ice obtained may need regulating.) 9. Place the glass under the desired drink dispenser and fill the glass. (Note. The amount may need regulating.) 10. Stop at the cashier and receive the bil l, or you may make the payment. (Note. The actual purchasing skills come at a later time [see COG 15].)</t>
   </si>
   <si>
     <t>Lesson ADT 34</t>
@@ -879,7 +879,7 @@
 . 3. Show the student one item and assist him or her in locating that item on the menu. Menu modification or the use of pictures may be necessary at this point
 . 4. Reduce the assistance provided in Step 3 to a v erbal cue (hold up the item and ask, "Show me where this is on the menu")
 . 5. Modify the process in Step 4 by displaying four food items and asking the student to point to the item on the menu that corresponds to the one at which you are pointing
-. 6. Continue Step 5, modifying the presentation of the actual item by using it</t>
+. 6. Continue Step 5, modifying the presentation of the actual item by using its name.</t>
   </si>
   <si>
     <t>Lesson ADT 35</t>
@@ -902,7 +902,7 @@
   <si>
     <t>1. Repeat the aspects of"identify menu items" (ADT 34) related to the menus to be used in this exercise in a classroom setting
 . 2. In a classroom setting, role - play a restaurant setting using one student to give an order and one to pretend to receive it. Use physical prompting and verbal or gestural imitation to assist the student. Fade the use of prompting
-. 3. Prior t o a mealtime, discuss with the student the items for that meal that might be desired. Go to a restaurant that has the items discussed and point out on the menu the items that have been mentioned by the student. Order for the student and join the stude nt in the mealtime experience. (Note. Many other skills such as "eat neatly and slowly" [ADT 20], "season food" [ADT 39], and others can be worked on during these training sessions.) 4. Repeat the exercise in Step 3, progressively reducing the prompting until the student independently requests or indicates the desired ite</t>
+. 3. Prior t o a mealtime, discuss with the student the items for that meal that might be desired. Go to a restaurant that has the items discussed and point out on the menu the items that have been mentioned by the student. Order for the student and join the stude nt in the mealtime experience. (Note. Many other skills such as "eat neatly and slowly" [ADT 20], "season food" [ADT 39], and others can be worked on during these training sessions.) 4. Repeat the exercise in Step 3, progressively reducing the prompting until the student independently requests or indicates the desired items.</t>
   </si>
   <si>
     <t>Lesson ADT 36</t>
@@ -927,7 +927,7 @@
 . 2. Present to the student actual examples of the choices that are available fr om the machine that was located in Step 1
 . 3. Based on the price for the items in the machine, assist the student in identify ing the different coin combinations needed to achieve that value. Pennies obviously are not an option. A dollar bill may also be an option on some machines
 . 4. Teach and prompt the placing of coins or a dollar bill in the slot
-. 5. Teach and prompt the pressing of the button for the desired selection. (Ind cator lights such as those that show that a selection is not available are also pects to be taught in this step.) 6. Teach and prompt the receiving of the selected item. Let the student drink the selected item at the end of the tr</t>
+. 5. Teach and prompt the pressing of the button for the desired selection. (Ind cator lights such as those that show that a selection is not available are also pects to be taught in this step.) 6. Teach and prompt the receiving of the selected item. Let the student drink the selected item at the end of the training.</t>
   </si>
   <si>
     <t>Lesson ADT 37</t>
@@ -950,7 +950,7 @@
 . 3. Demonstrate to the student the action that i s needed to open the tab on the can
 . 4. Physically prompt the actual opening of the can. Assistive devices may be necessary if the student has difficulties
 . 5. Combine the tasks of Steps 2 and 4 into one action
-. 6. Reduce all prompting until the student can independently open the c</t>
+. 6. Reduce all prompting until the student can independently open the can.</t>
   </si>
   <si>
     <t>Lesson ADT 38</t>
@@ -975,7 +975,7 @@
 . 2. From settings near a vending machine but where the machine is not within the student's visual field, assist the student in locating the vending machine. Reduce assistance until the student can independently locate the vending machine with only the verbal request to "show" it to you
 . 3. Assist the student in pointing to a desired item. Reduce assistance until the student can independently perform the task
 . 4. Determine the amount of change needed to acquire the identified item. Assist the student until he or she can independently select the amount needed
-. 5. Assist the student in depositing into the proper slot the necessary amount of money for the desired purchase and pressing the appropriate buttons to re ceive the item. (Note. Also te ach and discuss the concepts of change and how to handle machine malfunc</t>
+. 5. Assist the student in depositing into the proper slot the necessary amount of money for the desired purchase and pressing the appropriate buttons to re ceive the item. (Note. Also te ach and discuss the concepts of change and how to handle machine malfunctions.)</t>
   </si>
   <si>
     <t>Lesson ADT 39</t>
@@ -999,7 +999,7 @@
     <t>1. Present to the student samples of the chosen seasonings by placing them on the moistened end of the student's finger. Observe his or her reaction and/or discuss his or her perception of the flavor. Note which items received a posi tive response and use those seasonings for the remainder of this program
 . 2. From a field of four choices, have the student choose (by pointing t o or by sampling) a requested condiment. Color - coded or different - shaped shakers can be used to help with this discrimination exercise
 . 3. Assist the student in grasping the shaker and turning it over to distribute some of the shaker's contents onto a piece o f paper. Use the amount placed on the paper to provide feedback as to adequate amounts. (Note. Contrasting colored paper such as black for salt or white for pepper can be useful.) 4. Assist and prompt the student in placing the seasoning on his or her actual meal
-. 5. Reduce prompting from physical guidance to gestural guidance to verbal guidance until a level of independence is achiev</t>
+. 5. Reduce prompting from physical guidance to gestural guidance to verbal guidance until a level of independence is achieved.</t>
   </si>
   <si>
     <t>Lesson ADT 40</t>
@@ -1025,7 +1025,7 @@
 . 3. The student should be prompted to imitate or model your example
 . 4. Reduce all prompting until the student can role - play the outcomes independently
 . 5. Transition the mock setting to a real mealtime setting
-. 6. Use the respondent's observation to verify that objective(s) have be</t>
+. 6. Use the respondent's observation to verify that objective(s) have been met.</t>
   </si>
   <si>
     <t>Lesson ADT 41</t>
@@ -1050,7 +1050,7 @@
 . 2. With the student wearing oversized elastic - waist pants over his or her actual clothes, assist the student in lowering them to the knee level
 . 3. Starting with the pants at knee level, as in Step 2, and with the student sitting in a chair, prompt the student to lower the pants to ankle level
 . 4. Combine Steps 2 and 3 into one action
-. 5. Continue Step 4, and have the student remove the pants legs from both ankles so that the pants are taken completely of£ 6. Reduce any physical or gestural guidance that may have been necessary during training sessio</t>
+. 5. Continue Step 4, and have the student remove the pants legs from both ankles so that the pants are taken completely of£ 6. Reduce any physical or gestural guidance that may have been necessary during training sessions.</t>
   </si>
   <si>
     <t>Lesson ADT 42</t>
@@ -1072,7 +1072,7 @@
 . 3. Perform Step 2 but stop when both arms have been withdrawn from the gar ment and assist the student in raising the garment to n eck level
 . 4. Perform Step 3 but get student involvement to begin after only one arm has been removed
 . 5. Guide the student through the entire process
-. 6. Reduce any physical or gestural guidance that may have been necessary for any part of the p</t>
+. 6. Reduce any physical or gestural guidance that may have been necessary for any part of the process.</t>
   </si>
   <si>
     <t>Lesson ADT 43</t>
@@ -1098,7 +1098,7 @@
 . 3. Perform Step 2, but use the student's own sh oes on his or her own feet
 . 4. Teach the student to grasp the back or heel end of the shoe and pull down until the heel section has been freed from the foot, doing this for both feet
 . 5. Teach the student to pull his or her foot back and move the shoe forward until the shoe comes of£ This can be broken down into two steps if problems anse
-. 6. Perform the entire process for both shoes and reduce any physical or gestural guidance that may have been necessar</t>
+. 6. Perform the entire process for both shoes and reduce any physical or gestural guidance that may have been necessary. 8</t>
   </si>
   <si>
     <t>Lesson ADT 44</t>
@@ -1124,7 +1124,7 @@
 . 6. Slide the thumbs back to the original position and slide the sock toward the toes at least half way down the foot
 . 7. Grab the front of the sock and pull it off
 . 8. Repeat for the other foot
-. 9. Combine the concepts of Steps 2 through 8 into one action, providing verbal praise for successful a</t>
+. 9. Combine the concepts of Steps 2 through 8 into one action, providing verbal praise for successful actions.</t>
   </si>
   <si>
     <t>Lesson ADT 45</t>
@@ -1145,10 +1145,10 @@
     <t>Oversized shirt or blouse, later to be own shirt or blouse, and various but tons. (Note. Although a mirror is not identified in this lesson as a material, in some cases it may be helpful.)</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Place on yourself an oversized shirt or blouse and then demonstrate and explain to the student the activity that will be taught
+    <t>1. Place on yourself an oversized shirt or blouse and then demonstrate and explain to the student the activity that will be taught
 . 2. Practice grasping and picking up loose buttons. If difficulties are observed, use larger buttons at first and gradually reduce the size until the button is similar to the ones on the shirt or blouse to be used. After picking up is mastered, guide the student to hold the button by the sides
 . 3. Using motor - imitation abilities (COG 11) create a game of"shoot ing buttons" into a bowl by holding a button between the thumb and fingertip, squeezing and releasing the finger in a way that causes the button to shoot toward a target such as a bowl. Continue this concept with the student's eyes closed. If problems occur in this exercise, move the placement of the button to between the first and second knuckles, as this may be easier
-. 4. Using the skill from Step 3, have the student grasp the button on an ove sized shirt that has been buttoned on him or her. Guide to perform un buttoning, starting at the top button. Reduce physical and/or gestural prompts to just a total - task verbal request. 83 </t>
+. 4. Using the skill from Step 3, have the student grasp the button on an ove sized shirt that has been buttoned on him or her. Guide to perform un buttoning, starting at the top button. Reduce physical and/or gestural prompts to just a total - task verbal request.</t>
   </si>
   <si>
     <t>Lesson ADT 46</t>
@@ -1170,7 +1170,7 @@
 . 2. Without putting the pants on, but laying the pants on a table in front of the student with the upper zipper end toward the student, physically guide the student in lowering the zipper that star ts in the closed position
 . 3. Perform Step 2, but use oversized pants on the student over his or her clothes
 . 4. Perform Step 3, but use the student's actual pants in a setting that ensures privacy
-. 5. Reduce all physical and/or gestural prompting to only verbal re</t>
+. 5. Reduce all physical and/or gestural prompting to only verbal requests.</t>
   </si>
   <si>
     <t>Lesson ADT 47</t>
@@ -1195,7 +1195,7 @@
 . 2. Guide the student, or train the primary caregiver on the concept of physically guiding the student, through the process described, using continuous verbal reinforcement (praise)
 . 3. Perform Step 2, but use, or tra in on the use of, gestural prompting and pro viding continuous verbal reinforcement
 . 4. Perform Step 3, but substitute verbal prompting for gestural prompting
-. 5. Reduce verbal prompting to verbal single - task requests (i.e., "[Name], please take off your [item being trained upon]"). Reduce verbal reinforcement to once per training session. 85</t>
+. 5. Reduce verbal prompting to verbal single - task requests (i.e., "[Name], please take off your [item being trained upon]"). Reduce verbal reinforcement to once per training session.</t>
   </si>
   <si>
     <t>Lesson ADT 48</t>
@@ -1222,7 +1222,7 @@
 . 7. Move the right hand down to the right and continue to pull the belt through the loops on the right side of the pants
 . 8. Grasp the buckle with the right hand and use the left hand to continue to pull the belt through the belt loops
 . 9. Continue to hold the buclde with the right hand and pull the belt through the remaining loops
-. 10. Combine Steps 3 through 9 into one action, reducing prompting to a total task request: "(Name), please take off your belt," and reducing reinforcement to once per training s</t>
+. 10. Combine Steps 3 through 9 into one action, reducing prompting to a total task request: "(Name), please take off your belt," and reducing reinforcement to once per training session.</t>
   </si>
   <si>
     <t>Lesson ADT 49</t>
@@ -1247,7 +1247,7 @@
 . 2. Place oversized shirt or blouse, pants, and socks on the student and verbally guide him or her to take off these clothes
 . 3. Continue Step 2, adding any remaining clothing or items that would con stitute a complete outfit
 . 4. Modify Step 3 to using the student's actual clothes in a private setting. Use a robe or assist the student in getting redressed to ensure privacy in this step and in Step 5
-. 5. Encourage the student to independently take the clothes that have been re moved and place them in a single pile or in a hamper. Assist where needed, then reduce assistan ce until independence is achiev</t>
+. 5. Encourage the student to independently take the clothes that have been re moved and place them in a single pile or in a hamper. Assist where needed, then reduce assistan ce until independence is achieved. B</t>
   </si>
   <si>
     <t>Lesson ADT 50</t>
@@ -1270,7 +1270,7 @@
 . 3. Perform Step 2, replacing the lunch bag with the plastic cup
 . 4. Perform Step 3, replacing the plastic cup with oversized mittens or gloves
 . 5. Perform Step 4, replacing the oversized mittens or gloves with those that would normally fit the student
-. 6. Reduce reinforcement to once per session. Eliminate the need for physical guidance. Reduce verbal prompting to a total - task request: "(Name), please take off your g</t>
+. 6. Reduce reinforcement to once per session. Eliminate the need for physical guidance. Reduce verbal prompting to a total - task request: "(Name), please take off your gloves."</t>
   </si>
   <si>
     <t>Lesson ADT 51</t>
@@ -1290,7 +1290,7 @@
 . 3. Perform Step 2 and add standing, then bending over to grasp the top of the pants with each hand on the sides of the pants. Assist through the rest of the process
 . 4. Perform Steps 2 and 3, then have student pull up the pants to waist level
 . 5. Perform Steps 2, 3, and 4, using the student's own pants in a private setting
-. 6. Reduce any physical or gestural guidance that may have been necessary during the training sessio</t>
+. 6. Reduce any physical or gestural guidance that may have been necessary during the training sessions.</t>
   </si>
   <si>
     <t>Lesson ADT 52</t>
@@ -1311,13 +1311,13 @@
     <t>Student's pullover shirt or blouse and an oversized pullover shirt or blouse.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Demonstrate to the student the task to be performed
+    <t>1. Demonstrate to the student the task to be performed
 . 2. Assist the student and teach the process of"bunching together" the garment so that it can be prepared to be placed over the head
 . 3. Physically guide the student to place the garment over the head past the eyes and to rest it on the neck
 . 4. Teach the student to grasp the sleeve on the dominant hand side with the nondominant hand, pull outward, and guide the dominant hand through the sleeve opening
 . 5. Repeat Step 4, performing the task for the opposite arm
 . 6. Physically guide the student to lower the garment down to the level where the garment has been successfully put on
-. 7. Reduce prompting to the level of a total - task request: "(Name), please put on this shirt or </t>
+. 7. Reduce prompting to the level of a total - task request: "(Name), please put on this shirt or dress."</t>
   </si>
   <si>
     <t>Lesson ADT 53</t>
@@ -1335,7 +1335,7 @@
     <t>Student's shirt or blouse or oversized shirt or blouse.</t>
   </si>
   <si>
-    <t xml:space="preserve">Teach each skill separately, then combine into one act
+    <t>Teach each skill separately, then combine into one act
 . 1. Pick up the shirt or blouse
 . 2. Hold the shirt in an upright position
 . 3. Turn the shirt to have the inside facing the student
@@ -1345,7 +1345,7 @@
 . 7. Button the top button or second - to - top button if an open neck is preferred
 . 8. Fasten all the remaining buttons on the front of the shirt
 . 9. Fasten the buttons on the cuffs, if applicable
-. 10. Tuck the shirttail under a belt or skirt. </t>
+. 10. Tuck the shirttail under a belt or skirt. 9</t>
   </si>
   <si>
     <t>Lesson ADT 54</t>
@@ -1366,11 +1366,11 @@
     <t>A pair of the student's pants that have a front zipper and a zipper mounted to a board or other stable object.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Review and verify mastery of the ability to put on elastic - waist pants (ADT 51) with the student
+    <t>1. Review and verify mastery of the ability to put on elastic - waist pants (ADT 51) with the student
 . 2. Purchase a replacement zipper from a fabric store and staple the material sides to a board, leaving enough play in the zipper to make it easy to use. Place this teaching tool in front of the student with the open end of the zipper pointed toward the student. Physical ly guide the student in closing the zipper. Reduce physical guidance until only gestural prompting is needed
 . 3. Assist the student in putting on his or her pants and have him or her grasp the sides of the pants and pull upward to straighten the front zipper area. Teach the holding of the pants together using the nondominant hand. Privacy should be ensured. If this i s difficult, use oversized pants for training purposes; how ever, eventually the student will need to practice with his or her own pants
 . 4. Continue Step 3, adding the use of the skills from Step 2, and guide the stu dent through the zipping process
-. 5. Reduc e all guidance to the level of a total - task verbal request: "(Name), please put on these </t>
+. 5. Reduc e all guidance to the level of a total - task verbal request: "(Name), please put on these pants."</t>
   </si>
   <si>
     <t>Lesson ADT 55</t>
@@ -1393,7 +1393,7 @@
 . 6. Have the student cross over the laces to form a single knot and pull the ends tight
 . 7. Form two loops from the free ends
 . 8. Using the process taught in Step 6, tie the loops created in Step 7 into an other single knot
-. 9. Reduce the physical guidance used until the student needs only a total - task verbal prompt: "(Name), put on your shoe</t>
+. 9. Reduce the physical guidance used until the student needs only a total - task verbal prompt: "(Name), put on your shoes."</t>
   </si>
   <si>
     <t>Lesson ADT 56</t>
@@ -1419,7 +1419,7 @@
 . 3. Physically guide the student through the entire process of putting the under - wear on the body
 . 4. Repeat Step 3, using only gestural and verbal prompting
 . 5. Repeat Step 3, using only verbal prompting
-. 6. Repeat Step 3, using no prompting other than a total - task verbal request: "(Name), please put this (thes</t>
+. 6. Repeat Step 3, using no prompting other than a total - task verbal request: "(Name), please put this (these) on."</t>
   </si>
   <si>
     <t>Lesson ADT 57</t>
@@ -1440,13 +1440,13 @@
     <t>The student's socks and a variety of other socks for training purposes, and a chair.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Interact with the student by placing socks on both the student's and teacher's hands. Reduce physical assistance in this process until the student can inde pendently place the sock on his or her own hand with just verbal cues
+    <t>1. Interact with the student by placing socks on both the student's and teacher's hands. Reduce physical assistance in this process until the student can inde pendently place the sock on his or her own hand with just verbal cues
 . 2. Guide the student to position the socks by holding onto either side of the sock and preparing an opening to receive the foot
 . 3. Physically practice the ability to place the hands on the feet. A sitting position in a chair is the preferred method, but other techniques can also be used
 . 4. Combine the ski lls of Steps 2 and 3, ending with placing the end of the sock over the toes
 . 5. Using the skills from Step 4, continue to move the sock down the foot until it is past the heel
 . 6. Using the skills from Step 5, continue to pull the socks up to the finished heigh t
-. 7. Reduce physical assistance that has been needed throughout this program. Reduce guidance down to a total - task verbal request: "(Name), please put on these socks." 9 5 </t>
+. 7. Reduce physical assistance that has been needed throughout this program. Reduce guidance down to a total - task verbal request: "(Name), please put on these socks." 9</t>
   </si>
   <si>
     <t>Lesson ADT 58</t>
@@ -1476,7 +1476,7 @@
 . 10. With the nondominant hand, hold the belt slightly past the buckle on the buclde side of the belt. With the dominant hand, guide the belt end through any securing loops that are on the belt
 . 11. Reduce physical guidance for the total task to gestural prompting
 . 12. Reduce gestural prompting to verbal step commands
-. 13. Reduce verbal step commands to a total - task request: "(Name), please put on this</t>
+. 13. Reduce verbal step commands to a total - task request: "(Name), please put on this belt."</t>
   </si>
   <si>
     <t>Lesson ADT 59</t>
@@ -1502,7 +1502,7 @@
 . 3. Along with one pair of pants, show two shirts, one matching and o ne not, and ask the student to show which shirt goes with the pants
 . 4. Expand Step 3 to choosing from three shirts (one matching and two not matching)
 . 5. Reduce physical prompts to verbal requests
-. 6. Although not part of the behavioral objective, expand the conc ept of this training, if desired, to include other items such as socks, shoes, and bel</t>
+. 6. Although not part of the behavioral objective, expand the conc ept of this training, if desired, to include other items such as socks, shoes, and belts.</t>
   </si>
   <si>
     <t>Lesson ADT 60</t>
@@ -1523,9 +1523,9 @@
     <t>A complete outfit of the student's clothing. Oversized si milar items can also be used for training purposes.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Review with the student each of the training exercises for tasks ADT 51 through ADT 58. If problems are observed, go back and reteach the tasks that present problems
+    <t>1. Review with the student each of the training exercises for tasks ADT 51 through ADT 58. If problems are observed, go back and reteach the tasks that present problems
 . 2. Verbally guide the stu dent through each step of the dressing process. If diffi culties are encountered, provide physical assistance. Do not proceed to Step 3 until the total task can be performed with only verbal prompts. Provide verbal praise for each successful subtask, such as putting on pants
-. 3. Reduce verbal guidance to a total - task verbal request: "(Name), please put on these clothes." 4. Reduce verbal praise from once for each subtask to once for putting on a com plete </t>
+. 3. Reduce verbal guidance to a total - task verbal request: "(Name), please put on these clothes." 4. Reduce verbal praise from once for each subtask to once for putting on a com plete outfit.</t>
   </si>
   <si>
     <t>Lesson ADT 61</t>
@@ -1550,7 +1550,7 @@
 . 2. While the student is wearing elastic - waisted pants, pull out the end of the shirt the student is wearing and physically guide the student through the process of correcting the problem
 . 3. Repeat Step 2, using regular belted pants. This part of the program may need modification if the belt needs to be loosened
 . 4. Reduce physical prompting until only verbal or gestural step - by - step instruc tions are needed
-. 5. Reduce verbal or gestural p rompting until only total - task verbal or gestural prompting is needed: "(Name), please tuck in your shir</t>
+. 5. Reduce verbal or gestural p rompting until only total - task verbal or gestural prompting is needed: "(Name), please tuck in your shirt."</t>
   </si>
   <si>
     <t>Lesson ADT 62</t>
@@ -1572,7 +1572,7 @@
 . 2. Using various hats, place them one at a time on the student's head and role play or discuss what type of person would use that particular type of hat
 . 3. If the student has verbal skills, discuss with him or her the rules regarding appropriate hat use. If the student is noncommunicative, use mime - like role playing techniques to demonstrate the desired outcome
 . 4. Physically guide the student through the physical acts of putting on and re moving a hat. Reduce guidance as possible until the task can be performed by verbal request
-. 5. Go to real settings or situations to practice the skills that have been lea</t>
+. 5. Go to real settings or situations to practice the skills that have been learn ed.</t>
   </si>
   <si>
     <t>Lesson ADT 63</t>
@@ -1595,7 +1595,7 @@
 . 2. Using oversized gloves with the fingers cut off, physically guide the student through the process of placing the gloves on his or her hands. (Note. It is sometimes easier if the nondominant hand is the first to receive the glove.) 3. Reduce physical guidance to a level of step - by - step verbal instruction
 . 4. Replace the gloves with cut - off fingers with oversized gloves with fingers
 . 5. Replace the oversized gloves with those appropriately sized for the student
-. 6. Modify step - by - step verbal prompts to a total - task request: "(Name), please put on these gloves." 10 1</t>
+. 6. Modify step - by - step verbal prompts to a total - task request: "(Name), please put on these gloves." 10</t>
   </si>
   <si>
     <t>Lesson ADT 64</t>
@@ -1621,7 +1621,7 @@
 . 3. Physically guide the student through the process of using the faucet and regulating the water temperature between warm and cool
 . 4. Continue Step 3, reducing the physical prompting to a level of gestural and step - by - step verbal prompting
 . 5. Continue Step 4, red ucing gestural and verbal prompting to step - by - step verbal prompting
-. 6. Reduce all prompting until supervised independence is ach</t>
+. 6. Reduce all prompting until supervised independence is achieved.</t>
   </si>
   <si>
     <t>Lesson ADT 65</t>
@@ -1642,7 +1642,7 @@
     <t>1. Take the student to the actual area where showering takes place. If this is not reasonable, set up a shower curtain on a rod for practice purposes. Demonstrate the concept of open and closed positions. (Note. This can lay the foundation for lear ning the task "know opposites" [COG 73).) 2. Physically assist student in grasping and moving the curtain into the open and closed positions
 . 3. Continue Step 2, modifying the assistance provided to gestural and verbal prompting
 . 4. Modify Step 3 to use only verbal step - by - step prompting
-. 5. Modify Step 4 to single - task verbal requests: "(Name), show me how the shower curtain should be when you take a shower." "(Name), show me how the shower curtain should be when you are through showering." 6. Advise the primary caregiver about the program you are performing and ask him or her to monitor the level of independent performance. Verbal cueing may need to be provided initially, but it should be faded until the objective is achieve</t>
+. 5. Modify Step 4 to single - task verbal requests: "(Name), show me how the shower curtain should be when you take a shower." "(Name), show me how the shower curtain should be when you are through showering." 6. Advise the primary caregiver about the program you are performing and ask him or her to monitor the level of independent performance. Verbal cueing may need to be provided initially, but it should be faded until the objective is achieved.</t>
   </si>
   <si>
     <t>Lesson ADT 66</t>
@@ -1664,7 +1664,7 @@
 . 2. Physically guide the student through the entire activity until it is mastered with this assistance
 . 3. Continue Step 2, reducin g the physical guidance to a level of gestural and verbal prompting
 . 4. Continue Step 3, reducing guidance to step - by - step verbal prompting
-. 5. Continue Step 4, fading all guidance and ending with single - task requests: "(Name), please close the drain to the tub or sink." "(Name), please let the water</t>
+. 5. Continue Step 4, fading all guidance and ending with single - task requests: "(Name), please close the drain to the tub or sink." "(Name), please let the water out."</t>
   </si>
   <si>
     <t>Lesson ADT 67</t>
@@ -1706,7 +1706,7 @@
     <t>Upon verbal request, the student will wash his or her face, using warm water, soap, and a wa shcloth, to a 90% accuracy level for 20 trials.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Verify that the skills for using a faucet (ADT 17) and regulating water tem perature (ADT 64) are present
+    <t>1. Verify that the skills for using a faucet (ADT 17) and regulating water tem perature (ADT 64) are present
 . 2. Have the student identify (by pointing or using words) the various items involved in this activity
 . 3. Physically guide the student through the process of turning on the water, adjusting it until warm, and thoroughly wetting a washcloth
 . 4. Physically guide the student through grasping the soap and rubbing it on the washcloth
@@ -1714,7 +1714,7 @@
 . 6. Physically guide the student through the process of moving the cloth around his or her face
 . 7. Physically guide the student through the process of rinsing the washcloth and applying it back to the face. Repeat, if necessary, to completely remove the soap from the face
 . 8. Reduce all guidance to a level of verbal step - by - step directions for each step in the total task
-. 9. Reduce all guidance to the total - task verbal request: "(Name), please wash your </t>
+. 9. Reduce all guidance to the total - task verbal request: "(Name), please wash your face."</t>
   </si>
   <si>
     <t>Lesson ADT 69 107d</t>
@@ -1733,7 +1733,7 @@
 . 2. Have the student identify (by pointing or using words) the towel that will be used in thi s task. If a paper towel dispenser is used, the task may need to be broken down into smaller parts
 . 3. Repeat Step 1, reducing physical guidance to step - by - step gestural and ver bal cues
 . 4. Repeat Step 3, reducing gestural cues to verbal step - by - step requests only
-. 5. Repeat Step 4, using only a total - task verbal request: "(Name), please dry your hands." 6. Depending on the specific item used (cloth or paper towel), guide the student through the process of hanging up the towel or throwing away the paper towel. Reduce the guidance needed until this aspect can be independently perform</t>
+. 5. Repeat Step 4, using only a total - task verbal request: "(Name), please dry your hands."</t>
   </si>
   <si>
     <t>Lesson ADT 70</t>
@@ -1753,7 +1753,7 @@
 . 3. Repeat Step 1, reduc ing physical guidance to step - by - step gestural and verbal cues for touching the towel to the sides of the face
 . 4. After success in Step 3, proceed to full - face drying to include covering the eyes. If difficulties are encountered, a game involving covering the eyes could make this easier
 . 5. Repeat Step 3, reducing gestural cues to just verbal step - by - step requests
-. 6. Repeat Step 4, using only a total - task verbal request: "(Name), please dry your face." 7. Depending on the specific item used (cloth or paper towel), guide the stu dent through the process of hanging up the towel or throwing away the pa per towel. Reduce guidance needed until this aspect can be independently perf</t>
+. 6. Repeat Step 4, using only a total - task verbal request: "(Name), please dry your face." 7. Depending on the specific item used (cloth or paper towel), guide the stu dent through the process of hanging up the towel or throwing away the pa per towel. Reduce guidance needed until this aspect can be independently performed.</t>
   </si>
   <si>
     <t>Lesson ADT 71</t>
@@ -1768,7 +1768,7 @@
 . 7. Using the washcloth and soap, repeat Step 6, adding the cleaning of body parts that are naturally exposed by the bathing suit
 . 8. Continuing with Step 7, reduce the physical prompting on the drying part of the task to step - by - step verbal requests
 . 9. Using verbal requests , repeat Step 6 without the use of the bathing suit. In many situations, the primary caregiver should be taught and asked to per form this step so that privacy issues are respected
-. 10. Fade all prompting to a total - task verbal request: "(Name), please go tak e a shower.</t>
+. 10. Fade all prompting to a total - task verbal request: "(Name), please go tak e a shower."</t>
   </si>
   <si>
     <t>Lesson ADT 72</t>
@@ -1789,7 +1789,7 @@
     <t>A bathtub, soap, washcloth, shampoo, plastic pitcher, and towels.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Review and practice with the student each of the prerequisite sk ills listed above. Faucet use and water temperature regulation should be performed with the bathtub. Some additional training may be needed if the equipment used for faucet training was a sink. In these cases, start by reteaching "use a faucet" (ADT 17) an d "regulate water temperature" (ADT 64) using the bathtub
+    <t>1. Review and practice with the student each of the prerequisite sk ills listed above. Faucet use and water temperature regulation should be performed with the bathtub. Some additional training may be needed if the equipment used for faucet training was a sink. In these cases, start by reteaching "use a faucet" (ADT 17) an d "regulate water temperature" (ADT 64) using the bathtub
 . 2. Verify that the student can identify each of the items listed in the materials section. Role - playing the use of each item in a mime - type activity can be helpful. (Note. The pitcher is used for rinsing hair and involves skills similar to the prerequisite of"get a glass or cup of water from a faucet" (ADT 18)
 . 3. Continuing with the mime concept, have the student, while fully clothed, pretend to use each item from the materials list without using wat er
 . 4. Using the bathtub, have the student, while fully clothed, demonstrate that he or she can turn on the water, regulate the temperature, and turn off the water well before the tub is overflowing. Placing a crayon mark or sticker on the tub to identify the level at which to turn off the water can be helpful
@@ -1798,7 +1798,7 @@
 . 7. Using the washcloth and soap, repeat Step 6, adding the cleaning of body parts that are naturally exposed by the bathing suit
 . 8. Continuing with Step 7, reduce the physical prompting on the drying part of the task to step - by - step verbal requests
 . 9. Using verbal requests, repeat Step 6 without the use of the bathing suit. In many situations, the primary caregiver should be taught and asked to pe form this step so that privacy issues are respected
-. 10. Fade all prompting to a total - task verbal request: "(Name), please go take a </t>
+. 10. Fade all prompting to a total - task verbal request: "(Name), please go take a bath."</t>
   </si>
   <si>
     <t>Lesson ADT 73</t>
@@ -1824,7 +1824,7 @@
 . 3. Physically guide the student through the process of thoroughly wetting his or her hair. Reduce gu idance until this can be performed through a single - task request: "(Name), I want you to get your hair wet so we can shampoo it." 4. Guide the student through the process of dispensing shampoo into his or her hand
 . 5. Combine Steps 3 and 4 into one activity and physically guide the student through the activity of actually working the shampoo into the hair
 . 6. Using the skills learned in the prerequisite "dry hands" (ADT 69) or "dry the face" (ADT 70), guide the student through the process of rubbing a towel on the h air until it is reasonably dry
-. 7. Combine all steps, reducing prompt levels until student can perform the task with a total - task verbal request: "(Name), please wash your hair</t>
+. 7. Combine all steps, reducing prompt levels until student can perform the task with a total - task verbal request: "(Name), please wash your hair."</t>
   </si>
   <si>
     <t>Lesson ADT 74</t>
@@ -1845,12 +1845,12 @@
     <t>Various brushes, preferably with soft bristles. (Note. You may need to mod ify handles to assist students who have a limited grip.) Also need colored paper and a mirror.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Practice, and physically guide if necessary, the grasping of the brush handle. Modifications to the handle may be necessary to ensure better control
+    <t>1. Practice, and physically guide if necessary, the grasping of the brush handle. Modifications to the handle may be necessary to ensure better control
 . 2. Physically assist the student in moving the brush back and forth over a table surface. To improve accuracy, use a piece of paper as a target until placement control is similar to that needed to place the brush on the hair
 . 3. Physically guide the student to place the brush gently on his or her head and place it back on the table
 . 4. Guide the student through the process of brushing the hair while looking in a mirror
 . 5. Reduce physical guidance to gestural and verbal step - by - step prompting for the total task
-. 6. Reduce prompting to a total - task verbal request: "(Name), please brush your </t>
+. 6. Reduce prompting to a total - task verbal request: "(Name), please brush your hair."</t>
   </si>
   <si>
     <t>Lesson ADT 75</t>
@@ -1876,7 +1876,7 @@
 . 3. Physically guide the student to place the comb gently on his or her head and place it back on the table
 . 4. Guide the student through the process of combing the hair while looking in a mirror
 . 5. Reduce physical guidance to gestural and verbal step - by - step prompting for the total task
-. 6. Reduce prompting to a total - task verbal request: "(Name), please comb your hair.</t>
+. 6. Reduce prompting to a total - task verbal request: "(Name), please comb your hair."</t>
   </si>
   <si>
     <t>Lesson ADT 77</t>
@@ -1897,11 +1897,11 @@
     <t>A toilet and a variety of toys, items, or activities that are enjoyed by the student.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. While the student is fully clothed, escort the student to a toilet and demon strate to him or her the concept of li fting the lid and sitting on the toilet. Talk to the student in a positive way throughout the session
+    <t>1. While the student is fully clothed, escort the student to a toilet and demon strate to him or her the concept of li fting the lid and sitting on the toilet. Talk to the student in a positive way throughout the session
 . 2. Continue Step 1, modifying the task to guiding, but do not force, the student through the process of sitting. Provide reinforcement that is known to be p leasurable, such as a toy or music. If reasonable, only use this type of reward for this specific activity so that a known pleasure becomes associated with this task. A good beginning target would be 1 minute. If difficulties occur, shorten the time to 30 seconds
 . 3. With respect for privacy, begin to practice Step 2 with clothing undone as needed. Gradually extend the time period to 5 minutes
 . 4. Reduce physical prompting to verbal prompting
-. 5. Reduce prompting to a total - task verbal request: "(Name), please sit on this toilet." 11 </t>
+. 5. Reduce prompting to a total - task verbal request: "(Name), please sit on this toilet." 11</t>
   </si>
   <si>
     <t>Lesson ADT 78</t>
@@ -1922,10 +1922,10 @@
     <t>Washcloths and warm water.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Using a wet washcloth and a dry one, assist the student in identifying by head nods or words which example is wet and which is dry. Assistance should begin with physical guidance, proceed to gestural prompting, and, finally, verbal imitation
+    <t>1. Using a wet washcloth and a dry one, assist the student in identifying by head nods or words which example is wet and which is dry. Assistance should begin with physical guidance, proceed to gestural prompting, and, finally, verbal imitation
 . 2. Continue Step 1, reducing all prompting until the student can respond without assistance
 . 3. Using the concept of Step 2, randomly ask the student and check, if approp ate, if he or she is "wet or dry." If student indicates that he or she is dry and this is accurate, reinforce with verbal praise. If the student indi cates that he or she is wet and this is accurate, acknowledge that the student is right, without judgment, and take immediate steps to correct the situation. If the student's response is incorrect for either situation, offer the correct response and take a ction to correct the situation, if necessary
-. 4. Reduce the physical verification of the student's condition as the accuracy rate of the skills in Step 3 increases to a 90% </t>
+. 4. Reduce the physical verification of the student's condition as the accuracy rate of the skills in Step 3 increases to a 90% level.</t>
   </si>
   <si>
     <t>Lesson ADT 79</t>
@@ -1972,7 +1972,7 @@
 . 3. Reduce physical guidance to gestural and verbal prompting
 . 4. Guide the student using only step - by - step verbal commands
 . 5. Reduce step - by - step guidance to a total - task verbal request: "(Name), please flush the toilet." 6. At the completion of any toileting activity, ask the student, "What should you do now?" If a positive response occurs, reinforce with verbal praise. If a positive response does not occur, perform Step 5
-. 7. Attempt to reduce all prompting and reinforce independent behavior until the objective i</t>
+. 7. Attempt to reduce all prompting and reinforce independent behavior until the objective is met.</t>
   </si>
   <si>
     <t>Lesson ADT 81 119d</t>
@@ -1997,8 +1997,7 @@
 . 2. Physically assist the student in performing the actual action
 . 3. Reduce physical guidance to gestural and verbal prompting
 . 4. Guide the student using only step - by - step verbal commands
-. 5. Reduce step - by - step guidance to a total - task verbal request: "(Name), please close the door." 6. At the beginning of a toileting activity, ask the student, "What should you do now?" If a positive response occurs, reinforce with verbal praise. If a positive response does not occur, perform Step 5
-. 7. Attempt to reduce all prompting and reinforce independent behavior until the objective is me</t>
+. 5. Reduce step - by - step guidance to a total - task verbal request: "(Name), please close the door." 6. At the beginning of a toileting activity, ask the student, "What should you do now?" If a positive response occurs, reinforce with verbal praise. If a positive response does not occur, perform Step 5.</t>
   </si>
   <si>
     <t>Lesson ADT 82</t>
@@ -2023,7 +2022,7 @@
 . 2. Develop a schedule for going to the bathroom for these time periods
 . 3. During one of th e identified times on the schedule, physically guide the stu dent to the toilet and assist him or her in sitting on the toilet (see prerequi site). Provide lots of praise and interaction while the student is sitting. If discomfort is noted, stop the trai ning session and note how much time was successfully spent. Attempt to increase time to 5 minutes. If successful void ing does take place, provide a lot of social reinforcement
 . 4. Increase use of the schedule until all identified periods on the schedule are being done. Reduce prompting to step - by - step verbal requests. Continue positive praise when success occurs
-. 5. Reduce prompting to a total - task verbal request: "(Name), let's go to the bath</t>
+. 5. Reduce prompting to a total - task verbal request: "(Name), let's go to the bathroom."</t>
   </si>
   <si>
     <t>d Lesson ADT 83</t>
@@ -2047,7 +2046,7 @@
     <t>1. Using the schedule system of ADT 82, discuss with the student the events that are taking place when the schedule is being used. For example, a period right after lunch or before a class may coincide with the schedule being used
 . 2. Just prior to one of the scheduled times that the student uses the toilet, re place the verbal request "(Name), let's go to the bathroom" with the following question: "What are we getting ready to do?" (The answer is the upcoming event or class). Speech is not required because pointing to the area o f the event or a picture can serve to communicate the response. Prompt a response if the student does not respond, then ask, "What do we do before we go to (the identified event)?"The desired answer is "go to the bathroom." Proceed with the schedule
 . 3. Conti nue Step 2, expanding the process to all of the awake moments in the schedule. Reinforce all positive efforts. Do not criticize mistakes
-. 4. Reduce prompting to the following question: "(Name), what should we do now?" 5. Slowly reduce prompting and reward acts o f independenc</t>
+. 4. Reduce prompting to the following question: "(Name), what should we do now?" 5. Slowly reduce prompting and reward acts o f independence. .</t>
   </si>
   <si>
     <t>Lesson ADT 84</t>
@@ -2071,7 +2070,7 @@
     <t>1. Verify that the student is performing or can perform each of the prerequisite skills listed above
 . 2. Around the time periods where scheduling previously occurred, ask the stu dent if he or she needs to go to the bathroom. If this reminder doe s not work, revert back to the exercises in ADT 83 ("use toilet while awake") until the reminder alone is sufficient to produce the intended outcome
 . 3. Minimize liquid intake prior to bedtime and avoid any diuretic types ofliq uids (e.g., coffee, tea) after the evening meal. Upon the student's waking, personally - or using the primary caregiver - give positive feedback to the student for successful sleep time results. Do not offer criticism if he or she was unsuccessful
-. 4. Maintain a chart of successful days witho ut accidents and provide a signifi cant reward such as a special movie or toy if 20 days are realized with no more than one acciden</t>
+. 4. Maintain a chart of successful days witho ut accidents and provide a signifi cant reward such as a special movie or toy if 20 days are realized with no more than one accident. : \</t>
   </si>
   <si>
     <t>t } Lesson ADT 85</t>
@@ -2097,7 +2096,7 @@
 . 3. You may add a small amount of food coloring (to mimic the color of the product to be used) to the water and repeat Step 2 with the student
 . 4. Modify Step 3 to replace the colored water with actual mouthwash
 . 5. Demonstrate to the student how to move the mouthwa sh around in the mouth. Remember to begin with inhalation through the nose and hold the breath through the process. Use verbal prompting as needed
-. 6. Reduce prompting to a total - task verbal request: "(Name), please use some mouthwash." 1</t>
+. 6. Reduce prompting to a total - task verbal request: "(Name), please use some mouthwash." 12</t>
   </si>
   <si>
     <t>Lesson ADT 86</t>
@@ -2118,7 +2117,7 @@
     <t>1. Interact with the student with the brightly colored objects, attempting to obtain visual focus for at least 3 seconds on the items
 . 2. Place the objects behind some cover (a book or piece of cardboard) and angle the mirror so that the st udent can only see the items through the mirror. Ask the student to "Look at the (name of the item)" to establish the practice of looking through the mirror to see something
 . 3. Modify Step 2 to having the student look at his or her own face. Reinforce any "l ooking" behavior. Another strategy would be to ask, "Where is (Name)?" and encourage the student to point to the mirror
-. 4. Continue with Step 3 and encourage continued looking until the time frame minimum is met for at least 18 out of 20 consecutive t</t>
+. 4. Continue with Step 3 and encourage continued looking until the time frame minimum is met for at least 18 out of 20 consecutive trials.</t>
   </si>
   <si>
     <t>Lesson ADT 87</t>
@@ -2144,7 +2143,7 @@
 . 3. Guide the student through the process of the up - and - down motion that would be needed to apply the deodorant
 . 4. Combine Steps 1 through 3 and reduce physical prompting to a total - task verbal request
 . 5. With the teacher having opened and adjusted the deodorant, and the student having removed the necessary clothing while still respecting privacy issues, replace the prop with actual deodorant
-. 6. When a 90% skill level is met for Step 5, the terminal objective has technically been met. Interaction and guided efforts to assist the student toward taking off the top and adjusting the deodorant can also be addressed, however. 1</t>
+. 6. When a 90% skill level is met for Step 5, the terminal objective has technically been met. Interaction and guided efforts to assist the student toward taking off the top and adjusting the deodorant can also be addressed, however. 12</t>
   </si>
   <si>
     <t>Lesson ADT 88</t>
@@ -2170,7 +2169,7 @@
 . 3. Tape the target to the stomach area, to continue visual cue abilities, and guide the student to hit the target using both the dominant and nondominant hands
 . 4. Remove necessary clothing, but maintain privacy issues, and modify Step 3 to using the underarms and replacing the air freshener with deodorant
 . 5. Reduce all prompting to step - by - step verbal commands
-. 6. Reduce all prompting to a total - task verbal request: "(Name), please use this deodo</t>
+. 6. Reduce all prompting to a total - task verbal request: "(Name), please use this deodorant."</t>
   </si>
   <si>
     <t>Lesson ADT 89</t>
@@ -2197,7 +2196,7 @@
 . 4. Using the skills from Steps 1 through 3, verbally guide the student through the action of blowing and or wiping the nose, even if the action is not needed at that time
 . 5. Modify Step 4 to only requesting performance of the act when necessary
 . 6. Modify the request action of Step 5 to "What do you need to do now?" while gesturing toward the nose. Add the concept of disposing of the tissue
-. 7. Although Step 6 will technically meet the objective, delay prompting to at tempt to get independent behavior; when successful, reward intensely with verba l praise. ,21</t>
+. 7. Although Step 6 will technically meet the objective, delay prompting to at tempt to get independent behavior; when successful, reward intensely with verba l praise. ,</t>
   </si>
   <si>
     <t>Lesson ADT 90</t>
@@ -2219,7 +2218,7 @@
 . 2. Wet a toothbrush, apply a small amount of toothpaste, and ge ntly attempt to rub it on the front teeth. The student may need gentle support on the back of the neck or head during this exercise. Observe for negative reactions and con tinue this process until no negative reactions occur
 . 3. Continue Step 2, adding tooth brush interaction with all teeth surfaces
 . 4. Assist the student in taking a small amount of water into the mouth and spitting it out in order to rinse
-. 5. Combine Steps 3 and 4 and reduce prompting until the objective i</t>
+. 5. Combine Steps 3 and 4 and reduce prompting until the objective is met.</t>
   </si>
   <si>
     <t>Lesson ADT 91</t>
@@ -2240,12 +2239,12 @@
     <t>Toothbrush and toothpaste.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Review "use a faucet" (ADT 17) to verify the student's ability to turn on and off the water
+    <t>1. Review "use a faucet" (ADT 17) to verify the student's ability to turn on and off the water
 . 2. Add to the process of Step 1 the action of removing the brush from its holder and briefly wetting the brush
 . 3. Guide the student through the process of removing the toothpaste cap and placing a small amount (pea size is recommended) of toothpaste on the brush
 . 4. After the toothbrushing activity, guide the student through the process of rinsing the brush, shaking or tapping out excess water, and returning the brush to its proper location
 . 5. Reduce all physical guidance needed to step - by - step verbal commands
-. 6. Reduce step - by - step verbal commands to total - task verbal requests: "(Name), please get your toothbrush ready to use" and "(Name), please clean up your toothbrush and put it away." l2 9 </t>
+. 6. Reduce step - by - step verbal commands to total - task verbal requests: "(Name), please get your toothbrush ready to use" and "(Name), please clean up your toothbrush and put it away." l2</t>
   </si>
   <si>
     <t>Lesson ADT 92</t>
@@ -2274,7 +2273,7 @@
 . 6. Verify that the student can prepare the toothbrush for brushing (see prereq uisite ADT 91) and physically gui de the student to placing the toothbrush in his or her mouth and begin some back - and - forth motions
 . 7. Using the skills from Step 6, physically guide the student through the pro cess of brushing all teeth and gum surfaces. Continue until the student can exce ed 2 minutes with minimal physical prompting
 . 8. Reduce prompting to step - by - step verbal commands
-. 9. Reduce step - by - step verbal commands to a total - task verbal request: "(Name), please brush your teeth." 10. Clean up skills should already be in place (see prerequisite ADT 91) but should be encouraged and rew</t>
+. 9. Reduce step - by - step verbal commands to a total - task verbal request: "(Name), please brush your teeth." 10. Clean up skills should already be in place (see prerequisite ADT 91) but should be encouraged and rewarded.</t>
   </si>
   <si>
     <t>Lesson ADT 93</t>
@@ -2328,7 +2327,7 @@
 . 9. Modify Step 8 to having the student hold the razor and guiding the stu dent's hand
 . 10. Continue Step 9, reducing guidance until physical assistance is no longer needed
 . 11. Guide the student through the process of using a towel to wipe off the excess shaving cream. Reduce guidan ce until this can be done without physical assistance
-. 12. Combine the skills learned in Steps 2, 4, 10, and 11 into one verbally prompted action. Reduce verbal prompts until only the total - task verbal request is needed and the objective i</t>
+. 12. Combine the skills learned in Steps 2, 4, 10, and 11 into one verbally prompted action. Reduce verbal prompts until only the total - task verbal request is needed and the objective is met.</t>
   </si>
   <si>
     <t>Lesson ADT 95</t>
@@ -2352,7 +2351,7 @@
     <t>1. One at a time, present to the student all of the items related to only A.M. activities. With each picture or object, ask the student to name it (prompt as needed) and then to identify if it is an A.M. or P.M. item. The student will soon learn that all of the examples in this task are A.M. related
 . 2. Modify Step 1 to address P.M. concepts
 . 3. Combine Steps 1 and 2 so that a random presentation of A.M. and P.M. items occurs. If no response or an inaccurate response is provided, immediately give the student the correct answer. Continue this task until a 95% accuracy level is achieved. If verbal difficulties are noted, modify the required outcome to pointing to different A.M. and P.M. choices, otherwise continue with verbal responses
-. 4. Although the objective is met in Step 3, during the day ask the student to tell you if it is A.M. or P.M . and provide feedback as to response correctnes</t>
+. 4. Although the objective is met in Step 3, during the day ask the student to tell you if it is A.M. or P.M . and provide feedback as to response correctness.</t>
   </si>
   <si>
     <t>Lesson ADT 96</t>
@@ -2377,7 +2376,7 @@
 . 2. Repeat Step 1, modifying the task to not using the paper cover but you point ing to each number
 . 3. Guide the student through the discriminatory process of differentiating between the "hour hand" and the "minute hand." 4. Always keeping the minute hand set to 12, vary the clock to different hour settings and prompt verbal imitation of the hour number represented
 . 5. Modify the prompting from number imitation to response to the question, "What time is this?" 6. Continue Step 5, prompting the addition of the word "o'clock'' after the number response
-. 7. Modify the teaching materials to actual clocks in the student's normal envi ronments or have student let you know when a certain hour period has occ</t>
+. 7. Modify the teaching materials to actual clocks in the student's normal envi ronments or have student let you know when a certain hour period has occurred.</t>
   </si>
   <si>
     <t>Lesson ADT 97</t>
@@ -2403,7 +2402,7 @@
 . 3. Combine the skills of Steps 1 and 2, setting at least three clocks to different times that include half - hour settings and asking the student to point to or verbally identify a specific time
 . 4. Determine a small reward that the student might desire (in some cases, verbal praise is all that is needed). In a classroom or natural environment and select ing a time that will naturally occur in 10 minutes or fewer, ask the student to raise his or her hand when that time occurs, on a clock in that environment that is easily visible. If the student identifies the time within a 3 - minute accu racy level, reward the student. If not , provide the student with the correct an swer and show on another clock the setting that was being requested
 . 5. Continue with Step 4, expanding time before the example occurs to as much as 1 hour
-. 6. At the beginning of the school day or a class, give the stu dent two different randomly selected times (one "on the hour" and one "on the half hour") and ask the student to let you know when that time occurs. Provide immediate reinforcement when correct and offer a gentle reminder when the time has passed. Continue until the objective has been met</t>
+. 6. At the beginning of the school day or a class, give the stu dent two different randomly selected times (one "on the hour" and one "on the half hour") and ask the student to let you know when that time occurs. Provide immediate reinforcement when correct and offer a gentle reminder when the time has passed. Continue until the objective has been met. 13</t>
   </si>
   <si>
     <t>Lesson ADT 98</t>
@@ -2427,7 +2426,7 @@
     <t>1. Using an actual clock, demonstrate to the student the concept of"15, 30, 45, and o'clock." Modifications to these terms may be necessary for the individual student. The key is for you and the student to agree on a single term or word to describe each of the four positions of the clock to be taught
 . 2. On four pieces of paper, draw a circle with the minute hand reflecting each of the four terms used in Step 1. In a flash card - type of manner, show the student a card and give him or her verbal cues to "Show me (one of the four terms)." Prompt the student to move his or her arms into the position that looks like the minute hand for each of the four positions
 . 3. Continue Step 2, no longer using the flash cards but instead using verbal cues: "(Name), point to the clock that shows (a random time in a 15 - minute incre ment)" and two clocks (one with the correct answer)
-. 4. Combine the concept of Step 1 with identifying a random hour and then one of the fou r terms to denote a quarter - hour pos</t>
+. 4. Combine the concept of Step 1 with identifying a random hour and then one of the fou r terms to denote a quarter - hour position.</t>
   </si>
   <si>
     <t>Lesson ADT 99</t>
@@ -2473,7 +2472,7 @@
 . 2. Using the clock face, practice counting up from all 5 - minute points using random selection. At this level, provide the answer and ask the student to repeat it. Manually move the clock mi nute hand to make these examples
 . 3. Repeat the task in Step 2, modifying it to not providing the last number in the counting series but asking the student to provide the answer. If the stu dent does not respond or is inaccurate, provide the answer to the st udent and repeat the exact sequence again until he or she can answer correctly
 . 4. Continue Step 3, gradually increasing the size of the counting response required by the student
-. 5. Randomly set the clock and have student respond to the question, "What time is this?" 6. At a random time during class, ask the student, "What time i</t>
+. 5. Randomly set the clock and have student respond to the question, "What time is this?" 6. At a random time during class, ask the student, "What time is it?"</t>
   </si>
   <si>
     <t>Lesson ADT 101</t>
@@ -2498,7 +2497,7 @@
 . 2. Perform Step 1, modifying the numbers to 1 through 60 and putting tape over the hour display. Because the minute numbers change frequently, pick a random time during the day and ask the student what number is being displayed
 . 3. At random times during the day, show the digital clock without any tape to the student and ask "What time is it?" Provide verbal correction as needed
 . 4. Continue Step 3, reducing verbal correction to a "try again" response until the student gets the correct answer. To avoid frustration if the student is clearly just guessing, go back to Step 3
-. 5. Randomly set the clock and have student respond to "What time is this?" without any assi stan</t>
+. 5. Randomly set the clock and have student respond to "What time is this?" without any assi stance.</t>
   </si>
   <si>
     <t>Lesson ADT 102</t>
@@ -2522,7 +2521,7 @@
     <t>1. Begin with practicing basic verbal imitation (see prerequisite S&amp;L 6) by using the student's age as the sample to be imitated
 . 2. Add to the student's age the words "How old?" For example, if the student is 12 years old, use the prompt, "How old? 12." If the student attempts to imitate the entire phrase, correct him or her to answering using only the last word (12). Sometimes the student will automatically answer using just the last word presented. In either case, provide plenty of social reinforcement for just the age response
 . 3. Continue Step 2, expanding the phrase to "How old are you?" (plus the student's age). Continue to shape the answer to just the age response
-. 4. Continue Step 3 outside of the training setting to develop a generalized response to the question, "How old are</t>
+. 4. Continue Step 3 outside of the training setting to develop a generalized response to the question, "How old are you?"</t>
   </si>
   <si>
     <t>Lesson ADT 103</t>
@@ -2543,7 +2542,7 @@
     <t>1. Using either a song or a game, present the names of the days of the week to the student
 . 2. Using the student's ability to repeat spoken words (see prerequisite S&amp;L 6), have the student repeat each word, one at a time, for all of the days of the week
 . 3. Continue Step 2, expanding to two - word repetition, such as "Sunday, Mon day." (Note. Proper articulation is not necessary here, just different sounding words that approximate the names of the days of the week.) 4. Continue Step 3, gradually increasing the number of words to be repeated until all seven days of the week are imitated
-. 5. To assist with transitioning to the next training level, provide visual cues using the calendar described in the materials section to gesturally identify in addition to providing the verbal example for each day. Continue until the objective is met</t>
+. 5. To assist with transitioning to the next training level, provide visual cues using the calendar described in the materials section to gesturally identify in addition to providing the verbal example for each day. Continue until the objective is met. 14</t>
   </si>
   <si>
     <t>Lesson ADT 104</t>
@@ -2568,7 +2567,7 @@
 . 2. Select a specific day (preferably the current day) and physically guide the stu dent through the process of pointing to an example of that day on the calendar while encouraging an imitative response by asking, "Show me (name of the day of the week)." Grad ually remove the sticker prompts
 . 3. Continue Step 2 for that one selected day to demonstrate that that day occurs in several places on the calendar
 . 4. Continue Step 3, adding a second day (preferably the next day that will occur)
-. 5. Continue Step 4, adding all r emaining days, then choosing days ran</t>
+. 5. Continue Step 4, adding all r emaining days, then choosing days randomly.</t>
   </si>
   <si>
     <t>Lesson ADT 105</t>
@@ -2589,7 +2588,7 @@
     <t>1. Using either a song or a game, present to the student the names of the months of the year
 . 2. Using the student's ability to repeat spoken words (see prerequisite S&amp;L 6), have the student repeat each word, on e at a time, for each month of the year
 . 3. Continue Step 2, expanding to two - word repetition such as, "January, Febru ary." (Note. Proper articulation is not necessary here, just different sounding words that approximate the names of the months.) 4. Continue Step 3, gradually increasing the number of words to be repeated until all 12 months of the year are imitated
-. 5. To assist with transitioning to the next training level, provide visual cues using the calendar described in the materials section to gesturally i dentify in addition to providing the verbal example for each month. Continue until the objective is me</t>
+. 5. To assist with transitioning to the next training level, provide visual cues using the calendar described in the materials section to gesturally i dentify in addition to providing the verbal example for each month. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson ADT 106</t>
@@ -2614,7 +2613,7 @@
 . 2. Select a specific month (preferably the current month), and show the student the page that represents that month. Ask the student, "What month is this?" If the student does not correctly respond, provide an imitative prompt and immediately ask the question again. Continue until prompting is no longer needed
 . 3. Continue Step 2, adding two more months as examples
 . 4. Continue Step 3, adding three additional months
-. 5. Continue Step 4, addi ng all remaining months and continuing until the ob jective i</t>
+. 5. Continue Step 4, addi ng all remaining months and continuing until the ob jective is met.</t>
   </si>
   <si>
     <t>Lesson ADT 107</t>
@@ -2635,7 +2634,7 @@
     <t>1. Verify that the student can imitate word production (see prerequisite S&amp;L 6)
 . 2. Using the skill demonstrated in Step 1, and writing down the year notation in large numbers on a piece of paper, present to the student the answer to the question, "What year is it now?" If difficulties occur, prompt the response
 . 3. Incorporate help from other people involved in the student's life to perform the same task in other settings
-. 4. Continue Steps 2 and 3, reducing the visual cue until t he response is made to just the verbal question and until criteria are met</t>
+. 4. Continue Steps 2 and 3, reducing the visual cue until t he response is made to just the verbal question and until criteria are met.</t>
   </si>
   <si>
     <t>Lesson ADT 108</t>
@@ -2657,7 +2656,7 @@
 . 2. Continue Step 1, reducing physical guidance until the student can perform the task s with only verbal commands
 . 3. Perform the same concept used in Steps 1 and 2 for T - shirts, only use folding instead of rolling
 . 4. Perform the same concept in Steps 1 and 2 for underwear, only use folding instead of rolling
-. 5. Perform the same concept in Steps 1 and 2 for pants, only use folding instead of ro</t>
+. 5. Perform the same concept in Steps 1 and 2 for pants, only use folding instead of rolling.</t>
   </si>
   <si>
     <t>Lesson ADT 109</t>
@@ -2675,11 +2674,11 @@
     <t>Clothing items (preferably the student's) t hat are supposed to go into drawers, a chest or dresser, colored markers, and paper.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Physically guide the student through the process of opening and closing the drawers to be used. Reduce physical guidance until the student can open and clos e the drawers on verbal request
+    <t>1. Physically guide the student through the process of opening and closing the drawers to be used. Reduce physical guidance until the student can open and clos e the drawers on verbal request
 . 2. Select only one type of clothing that has been designated to go in only one specific drawer. Draw a symbol to represent that type of clothing, for example, an outline of a T - shirt, and fasten it to the appropriate drawer. Bring that spe cific type of clothing to the dresser/chest. Using the skills of Step 1, guide the student to open the marked drawer and physically guide him or her through the process of placing those items into the drawer. Request that the student close the drawer
 . 3. Continue Step 2, adding more choices and symbols until all drawers are used
 . 4. Continue Step 3 without using drawn symbols and promoting a neat arrangement
-. 5. Continue Step 4, adding assisting the student in carrying the clothes from a folding area. Reduce all guidance until the objective is met. 14 </t>
+. 5. Continue Step 4, adding assisting the student in carrying the clothes from a folding area. Reduce all guidance until the objective is met. 14</t>
   </si>
   <si>
     <t>Lesson ADT 11O</t>
@@ -2699,7 +2698,7 @@
   <si>
     <t>1. If the student's clothes are of a medium to small size, obtain a large - size pullover shirt; otherwise, use the student's own clothes. Guide the student through the process of holding the bottom opening of the garment with the nondominant hand wh ile feeding the hanger into the clothing with the dominant hand
 . 2. When the hook comes through the neck opening, have the student grasp the hook with the nondominant hand, pull out the dominant hand and also grasp the hook, release the nondominant hand, an d straighten the clothing on the hanger using the nondominant hand
-. 3. Combine Steps 1 and 2, adding actually hanging up the clothing through physical guidance. Reduce physical guidance for all steps, replacing with verbal prompts until using only the total - task verbal request: "(Name), please hang this up." 4. Modify Steps 1 through 3 for all other clothing items, adding buttoning as approp</t>
+. 3. Combine Steps 1 and 2, adding actually hanging up the clothing through physical guidance. Reduce physical guidance for all steps, replacing with verbal prompts until using only the total - task verbal request: "(Name), please hang this up." 4. Modify Steps 1 through 3 for all other clothing items, adding buttoning as appropriate.</t>
   </si>
   <si>
     <t>Lesson ADT 111</t>
@@ -2746,7 +2745,7 @@
 . 2. Continue Step 1, reducing assistance until the student can point to clean and dirty clothes on verbal request
 . 3. Using the skills gained th rough Step 2, assist the student in picking up and placing dirty clothes in a hamper
 . 4. Continue Step 3, reducing assistance and replacing the activity with a "basket ball" type of game. When successful, use something like a gold star card or other indicato r of success and post it in the student's room
-. 5. Continue Step 4, reducing guidance until student performs the task independ</t>
+. 5. Continue Step 4, reducing guidance until student performs the task independently.</t>
   </si>
   <si>
     <t>Lesson ADT 113 Q</t>
@@ -2767,7 +2766,7 @@
     <t>1. Show the student the materials and demonstrate the process of sorting the clothes into two piles , one for white clothing and one for colored clothing
 . 2. Physically guide the student through Step 1
 . 3. Continue Step 2, reducing physical guidance until only verbal step - by - step cues are needed
-. 4. Continue Step 3, reducing step - by - step verbal prompting to a total - task verbal request: "(Name), please sort these clothes." 5. Although Step 4 completes the objective, modify the training to also sort colored clothes into similar types of coloring. This is an opportunity to teach the student that some specific items should not be selected for regular laundry due to concerns about fabric shrinkage. The best method to teach this is to provide the student with specific items of the student's that should not receive regular washin</t>
+. 4. Continue Step 3, reducing step - by - step verbal prompting to a total - task verbal request: "(Name), please sort these clothes." 5. Although Step 4 completes the objective, modify the training to also sort colored clothes into similar types of coloring. This is an opportunity to teach the student that some specific items should not be selected for regular laundry due to concerns about fabric shrinkage. The best method to teach this is to provide the student with specific items of the student's that should not receive regular washing.</t>
   </si>
   <si>
     <t>Lesson ADT 1 4</t>
@@ -2788,7 +2787,7 @@
     <t>A washing machine of similar or exact type to the one most likely to be used. The actual one that will be used is preferred. Task Anal ysis: 1. Ensure that the student can identify where the washing machine is located. Expand this skill to the point where the student will go to the washing machine when requested
 . 2. Assist the student in locating the dial needed for setting a washing cycle. Reduce guidance until the student can independently point to the dial (see prerequisite ADT 4)
 . 3. Combine Steps 1 and 2
-. 4. Guide the student through the process of pulling, turning, and pushing as needed for that specific washing machine for a "normal wash" setting. (Note. Other dials such as water temperature, etc., should be preset by the instructor.) 5. Using the skills obtained in Steps 3 and 4, reduce all guidance until the objective i</t>
+. 4. Guide the student through the process of pulling, turning, and pushing as needed for that specific washing machine for a "normal wash" setting. (Note. Other dials such as water temperature, etc., should be preset by the instructor.) 5. Using the skills obtained in Steps 3 and 4, reduce all guidance until the objective is met.</t>
   </si>
   <si>
     <t>Lesson ADT 115</t>
@@ -2809,11 +2808,11 @@
     <t>Clothes that need washing (preferably the student's own), laundry soap, and a hamper.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Using the skills obtained from "put laundry in a hamper" (see prerequisite ADT 112), assist the student in carrying the hamper to the washing machine. Reduce guidance until only a single - task verbal request is needed
+    <t>1. Using the skills obtained from "put laundry in a hamper" (see prerequisite ADT 112), assist the student in carrying the hamper to the washing machine. Reduce guidance until only a single - task verbal request is needed
 . 2. Guide the student through the process of sorting the clothes (see prerequisite ADT 113), opening the door to the washing machine, and placing a pile of sorted clothes into the machine
 . 3. Have the student identify if the load is white or has colors and demonstrate the appropriate water temperature setting for each type. Continue on this level until the student can independently and correctly adjust the water tem perature dial
 . 4. Using the skills obtained in "set the washing machine dial" (see prerequisite ADT 114), have the student start the washing machine
-. 5. Guide the student through the process of removing the clothes. Combine all steps and reduce all prompting needed to a total - task verbal request. </t>
+. 5. Guide the student through the process of removing the clothes. Combine all steps and reduce all prompting needed to a total - task verbal request.</t>
   </si>
   <si>
     <t>Lesson ADT 116</t>
@@ -2837,7 +2836,7 @@
     <t>1. After having washed some clothes and having them placed in a pile near the dryer, guide the student through the process of opening the dryer door and placing the clothes inside the machine
 . 2. If fabric softener sheets are to be used, assist the student in re moving a sheet from the container and placing it in the dryer. Prompt the student through the act of closing the door to the dryer
 . 3. Using the skills obtained in "set washing machine dial" (see prerequisite ADT 114), have the student set the drying time (recommend 30 minutes) and start the dryer
-. 4. When the dryer stops, have the student feel the clothes and indicate whether they are dry or not. If dry, remove them into a pile. If they are not dry, repeat Step 3 for 15 mi</t>
+. 4. When the dryer stops, have the student feel the clothes and indicate whether they are dry or not. If dry, remove them into a pile. If they are not dry, repeat Step 3 for 15 minutes.</t>
   </si>
   <si>
     <t>Lesson ADT 117</t>
@@ -2862,7 +2861,7 @@
 . 2. Continue Step 1 (using the same verbal request), adding the remaining blankets
 . 3. Continue Step 2, adding the top and bottom sheets
 . 4. Continue Step 3, adding pillowcases and any other items related to bed linen
-. 5. Continue until the objective is me</t>
+. 5. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson ADT 118</t>
@@ -2888,7 +2887,7 @@
 . 3. Continue Step 2, adding the top sheet, but without folding back the top portion
 . 4. Continue Step 3, adding the blanket(s) and folding back the top of the top sheet
 . 5. Continue Step 4, adding pillowcases and comforters, as appropriate
-. 6. Continue the entire process until the objective has bee</t>
+. 6. Continue the entire process until the objective has been met.</t>
   </si>
   <si>
     <t>Lesson ADT 119</t>
@@ -2914,7 +2913,7 @@
 . 3. Using the skills obtained in Step 2, both you and the student should each take a broo m and begin the process, using the verbal request stated in the objective and performing the process as a motor - imitation (physical modeling) task
 . 4. Continue Step 3, reducing the provided example until only the verbal request is needed for the action to be performed
 . 5. Continue Step 4, providing verbal feedback to ensure that the majority of the area is swept
-. 6. Although the objective is completed in Step 5, add the use of a dustpan. 1</t>
+. 6. Although the objective is completed in Step 5, add the use of a dustpan. 15</t>
   </si>
   <si>
     <t>Lesson ADT 120</t>
@@ -2940,7 +2939,7 @@
 . 3. Continue Step 2, adding the application of a spray cleaner and then drying the area with a cloth or paper towel
 . 4. Continue Step 3, reducing physical guidance until just step - by - step verbal requests are needed
 . 5. Continue Step 4, reducing step - by - step verbal requests until only the verbal request and actions indicated in the objective are needed
-. 6. Modify Step 5 to address a spill of water, then progress to a soft - drink spill until the objective i</t>
+. 6. Modify Step 5 to address a spill of water, then progress to a soft - drink spill until the objective is met.</t>
   </si>
   <si>
     <t>Lesson ADT 121</t>
@@ -2987,7 +2986,7 @@
 . 3. Continue Step 2 for all finished surface areas of the furniture
 . 4. Continue Step 3, reducing physical guidance until only a single - task verbal request is needed for that one piece of furniture
 . 5. Continue Step 4, adding the replacement of the items removed in Step 1
-. 6. Combine all steps, adding additional furniture pieces (at least two more) and reducing physical guidance to a total - task verbal re</t>
+. 6. Combine all steps, adding additional furniture pieces (at least two more) and reducing physical guidance to a total - task verbal request.</t>
   </si>
   <si>
     <t>Lesson ADT 123</t>
@@ -3008,12 +3007,12 @@
     <t>Various - size trash cans, but no larger than a kitchen can, and a dumpster or large outside type of trash can.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Demonstrate to the student the full process of going to the trash can, carrying it to the receptacle (dumpster or large outside trash can), emptying the can, and returning it to the original location
+    <t>1. Demonstrate to the student the full process of going to the trash can, carrying it to the receptacle (dumpster or large outside trash can), emptying the can, and returning it to the original location
 . 2. Modify Step 1 by physically assisting the student through the final step of returning the can to its original location
 . 3. Contin ue Step 2, adding the step of having the student carry the can to the proper receptacle and empty it
 . 4. Continue Step 3, adding all remaining steps needed to completely perform the task
 . 5. Continue Step 4, reducing all physical guidance until only step - by - step verbal guidance is needed
-. 6. Reduce all verbal prompting to "(Name), please empty the trash." Continue until the objective is </t>
+. 6. Reduce all verbal prompting to "(Name), please empty the trash." Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson ADT 124</t>
@@ -3038,7 +3037,7 @@
 . 5. Repeat Step 4, adding using paper towels to dry the surfaces
 . 6. Perform the entire process and physically guide the student through the process of putting the cleaning materials back in their original or a ppropriate place
 . 7. Perform the entire process, reducing physical guidance to step - by - step verbal prompting
-. 8. Perform the entire process, reducing step - by - step verbal prompting to the total - task verbal request presented in the obje</t>
+. 8. Perform the entire process, reducing step - by - step verbal prompting to the total - task verbal request presented in the objective.</t>
   </si>
   <si>
     <t>Lesson ADT 125</t>
@@ -3056,12 +3055,12 @@
     <t>A tub or shower, cleaning cloths, and cleaning solution. (Note. If a bleach based product is selected, be sure that the student uses gloves and is wearing clothes that could be stained without posing a problem.)</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Using the skills the student possesses related to "use a faucet"(ADT 17), physically guide the student through the action of turning on the faucet, regulating the water to "warm," wetting the cloth to be used, and lightly wringing out any excess water. Reduce physical guidance on this step until it can be done with just verbal prompting
+    <t>1. Using the skills the student possesses related to "use a faucet"(ADT 17), physically guide the student through the action of turning on the faucet, regulating the water to "warm," wetting the cloth to be used, and lightly wringing out any excess water. Reduce physical guidance on this step until it can be done with just verbal prompting
 . 2. Demonstrate and then physically assist the student in wiping down the surfaces of the shower or tub
 . 3. Repeat Step 1, assisting the student in adding the cleaning solution to the cloth
 . 4. Repeat Step 2, using the cloth that has the cleaning solution applied in Step 3
 . 5. Repeat Steps 1 and 2 after having thoroughly rinsed the soap from the cloth
-. 6. Combine Steps 3 through 5 into one action and reduce prompting to step by - step verbal requests and then to the total - task verbal request outlined in the objective. 16 3 </t>
+. 6. Combine Steps 3 through 5 into one action and reduce prompting to step by - step verbal requests and then to the total - task verbal request outlined in the objective. 16</t>
   </si>
   <si>
     <t>Lesson ADT 126</t>
@@ -3079,10 +3078,10 @@
     <t>Personal items of the student (preferably items the student likes or enjoys) and similar items that belong to another student or peer.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Review with the student the ability to point to objects (see prerequisite ADT 4) by having him or her point to named items of his or her own
+    <t>1. Review with the student the ability to point to objects (see prerequisite ADT 4) by having him or her point to named items of his or her own
 . 2. Modify Step 1 by replacing the student's personal items with those of the other person
 . 3. Combine items that are bot h the student's and the other person's and ask the student to point to items that are his or hers as well as those of the other person
-. 4. Although success toward the objective can be made by mastery of Step 3, learning can be made stronger by adding items from other students, parents, or </t>
+. 4. Although success toward the objective can be made by mastery of Step 3, learning can be made stronger by adding items from other students, parents, or peers.</t>
   </si>
   <si>
     <t>Lesson ADT 127</t>
@@ -3112,7 +3111,7 @@
 . 7. Reduce all physical guidance t o verbal and gestural step - by - step requests
 . 8. Reduce all prompting until just the total - task request, "(Name), please un lock the door," results in the necessary action described in the objective
 . 9. Reverse the training of Step 1 to have the student relocate the key to its assigned placement
-. 10. Although the objective is technically met in Step 9, continue the training by teaching the "locking concept" based on the specific lock, whether or not a key is needed for that activit</t>
+. 10. Although the objective is technically met in Step 9, continue the training by teaching the "locking concept" based on the specific lock, whether or not a key is needed for that activity.</t>
   </si>
   <si>
     <t>Lesson ADT 128</t>
@@ -3137,7 +3136,7 @@
 . 2. Have the student go to the faucet (see prerequisite ADT 17) and place water in each cup. Practice moving the cups from the sink to the bowl in a way that causes minimal spillage
 . 3. Continue Ste p 2, adding pouring each measuring cup of water into the three separate bowls
 . 4. Continue until the objective is met
-. 5. Once the objective has been met, work with the student in making something such as brownies to demonstrate this skill's practica</t>
+. 5. Once the objective has been met, work with the student in making something such as brownies to demonstrate this skill's practical use.</t>
   </si>
   <si>
     <t>Lesson ADT 129</t>
@@ -3187,7 +3186,7 @@
 . 2. Physically assist the student in providing small amounts of water to the plants
 . 3. Reduce the physical prompting used in Step 2 to step - by - step verbal prompting
 . 4. Contin ue Step 3, reducing step - by - step prompting to a total - task verbal request, but physically remain with the student
-. 5. Continue Step 4, adding returning to the sink, emptying excess water, and returning the watering can to the appropriate storage place. Contin ue until the objective i</t>
+. 5. Continue Step 4, adding returning to the sink, emptying excess water, and returning the watering can to the appropriate storage place. Contin ue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson ADT 131</t>
@@ -3244,7 +3243,7 @@
 . 7. Guide the student in placing the dug - up seedling into the hole created in Step 6 and then smoothing dirt around the seedling
 . 8. Reduce all guidance and prompting that has been needed in Steps 1 through 7 until only a total - task verbal request is needed
 . 9. On a regular basis (such as every other school day), prompt the student to water the plant and to ensure that it is receiving adequate light
-. 10. Continue this process until five seedlings have grown at least 3 additional i</t>
+. 10. Continue this process until five seedlings have grown at least 3 additional inches.</t>
   </si>
   <si>
     <t>Lesson ADT 133</t>
@@ -3287,7 +3286,7 @@
 . 3. Continuing with the concept of Step 2, put the words "you live" in front of the actual name. Again reward only the actual address as a response
 . 4. Place the complete question, "Where do you live?" in front of the address. Reward the actual address response
 . 5. Continue Step 4, articulating only the first sound of the actual address
-. 6. Ask only the question, "Where do you live?" If the response is the word "live" or no response, do not react, but after 5 seconds just state the name and re ward that imita tive response. Continue this activity until only the question is needed to receive the response of the student's ad</t>
+. 6. Ask only the question, "Where do you live?" If the response is the word "live" or no response, do not react, but after 5 seconds just state the name and re ward that imita tive response. Continue this activity until only the question is needed to receive the response of the student's address.</t>
   </si>
   <si>
     <t>Lesson ADT 135</t>
@@ -3308,13 +3307,13 @@
     <t>An identification card that includes at least the student's name, a ddress, emergency phone numbers, age, and basic identifying characteristics. A photo of the student can be very helpful as well.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Create an identification card for the student and review with him or her the information contained on the card
+    <t>1. Create an identification card for the student and review with him or her the information contained on the card
 . 2. With the card lying on a table in front of the student and using the various possible questions listed in the objective, physically guide the student through the process of handing you the card upon request. Reduce physical guidance until only the verbal r equest is needed
 . 3. Continue the concept of Step 2, substituting a different person, but one who is known to the student, as the one making the request
 . 4. Continue the concept of Step 3, using people who are not well known to the student
 . 5. Assist the student in securing the card in a pocket, wallet, or other place of his or her choice. Practice the ability to retain it in that location over daily periods until it is demonstrated that the student can keep the card, and on request, hand it to you
 . 6. Perform Steps 3 and 4 again, changing the location of the card to the place the student has chosen in Step 5
-. 7. Practice the skill outside of the classroom until the student meets the criteria in the terminal objective. </t>
+. 7. Practice the skill outside of the classroom until the student meets the criteria in the terminal objective.</t>
   </si>
   <si>
     <t>Lesson ADT 136</t>
@@ -3339,7 +3338,7 @@
 . 2. Continue Step 1, reducing physical guidance until you simply walk with the student to the identified area
 . 3. Continue Step 2, encouraging the student to go ahead of you. Gradually in crease the following distance up to 30 seconds behind the student
 . 4. Repeat Step 3, gradually fading the use of the visual cues (pictures) until only t he verbal request is needed
-. 5. Continue Step 4, eliminating any form of escort. Use another person or some form of communication to verify that the student arrived s</t>
+. 5. Continue Step 4, eliminating any form of escort. Use another person or some form of communication to verify that the student arrived safely.</t>
   </si>
   <si>
     <t>Lesson ADT 137</t>
@@ -3364,7 +3363,7 @@
 . 2. Use physical guidance and verbal prompts to perform the action of crossing the street at the identified locations. Prompt the student to "look both ways" an d "cross when safe." 3. Continue Step 2, reducing physical guidance until the teacher proceeds along side of the student and uses just verbal prompts. Point out examples where it is not safe
 . 4. Continue Step 3, using another instructor in addition to yourself so that one person is at the beginning of the crossing and one person is at the end of the crossing. Escort the student as in Step 3, but stop in the middle of the cross ing. Encourage the student to independently continue to the other instructor. Return to the starting point. Reverse the process, using the other instructor's position as the starting point
 . 5. Continue Step 4, gradually reducing the escort amount until the student performs the activity only with verbal prompting
-. 6. Continue Step 5, reducing verbal prompting until the terminal objective is met. 17 5 Q</t>
+. 6. Continue Step 5, reducing verbal prompting until the terminal objective is met. 17</t>
   </si>
   <si>
     <t>Lesson ADT 138</t>
@@ -3389,7 +3388,7 @@
 . 2. In the classroom setting, lay out the different photos and physically assist the student in pointing to (see prerequisite ADT 4) each sign that t he in structor randomly names
 . 3. Continue Step 2, reducing physical guidance until the just the request "(Name), point to (name of the sign being taught)" is adequate prompting for the student to identify the photo
 . 4. Take the student out into the environment where the signs are located. Demonstrate the association between the photos and the actual signs. Modify the pointing behavior to pointing to the actual sign
-. 5. Continue Step 4, slowly eliminating the use of the photos as cues until the objective i</t>
+. 5. Continue Step 4, slowly eliminating the use of the photos as cues until the objective is met.</t>
   </si>
   <si>
     <t>Lesson ADT 139</t>
@@ -3420,7 +3419,7 @@
 . 3. Continue Step 2, reducing guidance until only a verbal request to "Clean your shoes" is necessary to perform this task
 . 4. Repeat Steps 2 and 3, but place the clay on the bottom of the shoe
 . 5. Wait for a naturally occurring moment where the shoes may need to be cleaned and use the preceding steps to guide and prompt the student through the process of cleaning
-. 6. Repeat Step 5, reducing all prompting until task has been successfully pe formed 10 times . (continues} 177 Q</t>
+. 6. Repeat Step 5, reducing all prompting until task has been successfully pe formed 10 times . (continues}</t>
   </si>
   <si>
     <t>Lesson ADT 139 (continued)</t>
@@ -3432,7 +3431,7 @@
 . 3. Using a clean cloth, guide the student through th e process of buffing out the excess polish
 . 4. Continue Steps 2 and 3, reducing physical prompting to step - by - step verbal and gestural prompting
 . 5. Continue Step 4, gradually reducing all prompting until only a single - task verbal request is needed
-. 6. Continue Ste p 5, reducing all prompting until the behavioral objective i</t>
+. 6. Continue Ste p 5, reducing all prompting until the behavioral objective is met.</t>
   </si>
   <si>
     <t>Lesson ADT 140</t>
@@ -3457,7 +3456,7 @@
 . 2. Using the practice phone (which is not hooked up), physically guide the student through the process of responding when the phone rings and then prompt the verbal imitation of the word "hello" after the handset has been guided to the proper position
 . 3. Continue Step 2, reducing all prompting, until the ring is the only prompt needed
 . 4. Replace the practice phone with the actual phone by calling that phone from another phone. Continue until the objective is met
-. 5. Although the objective is met in Step 4, consider adding a role - playing activity that involves phone conversations. 17</t>
+. 5. Although the objective is met in Step 4, consider adding a role - playing activity that involves phone conversations.</t>
   </si>
   <si>
     <t>Lesson ADT 141</t>
@@ -3481,7 +3480,7 @@
     <t>1. Without using or holding the receiver, write down a single number on a piece of paper. Using the student's number - matching skills (see prerequisite COG 24) and the practice phone, physically guide the student through the process of pressing the number on the phone that was written on the paper. Continue this process in a random manner until all number choices have been made
 . 2. Continue Step 1, adding a se cond random number. Reduce guidance until only the verbal request, "please dial these numbers," is needed
 . 3. Continue Step 2, adding random numbers, one at a time, until seven numbers can be done. (Note. Iflong - distance numbers are likely to be used by the stu dent, 10 numbers may be the proper target.) 4. Attach to the photos of people or places in which the student is interested (see materials) the actual number of the person or place represented. Using the skills from Step 3, request that the student press the numbers presented
-. 5. Incorporate into the skills of Step 4 the picking up of the receiver in the non dominant hand and replace the practice phone with the functioning phone. Assist the student in completing the actual call process so that the function can be</t>
+. 5. Incorporate into the skills of Step 4 the picking up of the receiver in the non dominant hand and replace the practice phone with the functioning phone. Assist the student in completing the actual call process so that the function can be seen.</t>
   </si>
   <si>
     <t>Lesson ADT 142</t>
@@ -3506,7 +3505,7 @@
 . 2. Usin g the practice phone and the skills obtained in "dial a telephone" (ADT 141), gesturally prompt the student to pick up the phone and physi cally guide the student through the process of dialing the 911 (or other appropriate number) sequence
 . 3. Combine the skills of Step 2 with the student verbally describing, at mini mum in a noun - verb combination, the emergency. Prompt the student to give his or her name and address (see prerequisites ADT 133 and ADT 134)
 . 4. Continue Step 3, reducing all prompting until the objective can be performed after describing an emergency and the student can successfully use the prac tice phone until the objective is met
-. 5. Discuss again, as in Step 1, when the student should and should not perform this skill. 18 1 : : ·</t>
+. 5. Discuss again, as in Step 1, when the student should and should not perform this skill. 18</t>
   </si>
   <si>
     <t>Lesson ADT 143</t>
@@ -3531,7 +3530,7 @@
 . 2. Continue Step 1. You state a possible answer the student might receive, then prom pt the student to say "thank you" and "good - bye." 3. Continue Step 2, asking the student to tell you what information you re sponded with in Step 2. Provide verbal prompting, if needed. Continue until the student can perform Steps 1 through 3 to a 90% accura cy level with mini mal prompting
 . 4. Using the student's dialing skills (see prerequisite ADT 141), provide the stu dent with a number and assist him or her in practicing Steps 1 through 3 on the practice phone
 . 5. Modify Step 4, using a real phone. Begin by c alling a friend and practicing the question - and - answer aspect
-. 6. Modify Step 5 to calling actual businesses with the information re</t>
+. 6. Modify Step 5 to calling actual businesses with the information request.</t>
   </si>
   <si>
     <t>Lesson ADT 144</t>
@@ -3549,11 +3548,11 @@
     <t>At least three of all coins that would reasonably occur in the student's environment.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Start with just one quarter placed in front of the student. Request that the student "point to the quarter." Assist and guide the student, as needed, in pointing to the quarter
+    <t>1. Start with just one quarter placed in front of the student. Request that the student "point to the quarter." Assist and guide the student, as needed, in pointing to the quarter
 . 2. Continue Step 1, reducing all assistance until the student will point to (or otherwise indicate) the quarter after only a verbal request
 . 3. Keeping the quarter in the same position as in Step 2, place a penny next to the quarter and continue requesting the student to "point to the quarter." 4. Repeat Steps 1 through 3, using a penny ins tead of a quarter
 . 5. Present both a penny and a quarter and request that the student point to one of the two coins. (Note. Choose which coin will be requested in a random manner.) 6. Repeat Steps 1 through 3 for all remaining coins
-. 7. Randomly present three coins to the student and ask him or her to point to one of those samples identified by the instructor. Continue until the objective is met. </t>
+. 7. Randomly present three coins to the student and ask him or her to point to one of those samples identified by the instructor. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson ADT 145</t>
@@ -3575,7 +3574,7 @@
   </si>
   <si>
     <t>1. Start with just one quarter placed in front of the student. Request that the student repeat the word "quarter." 2. Continue Step 1, gradually replacing the request for verbal imitation with the question, "What is this called?" 3. Repeat Steps 1 and 2 for all other coins
-. 4. Randomly present coins, asking, "What is this called?" Continue this process until the criteria in the objective ar</t>
+. 4. Randomly present coins, asking, "What is this called?" Continue this process until the criteria in the objective are met.</t>
   </si>
   <si>
     <t>Lesson ADT 146</t>
@@ -3601,7 +3600,7 @@
 . 3. Keeping the $1 bill in the same position as in Step 2, place a $5 bill next to the $1 bill and continue requesting the student to "point to the dollar." If difficulties in discriminating between the bills occur, focus on the numbers on the bills and practice discriminating between those numbers on a piece of paper
 . 4. Repeat Steps 1 through 3 using a $5 bill as the target response
 . 5. Present both a $1 bill and a $5 bill and request that the student point to one of the two bills. (Note. Choose which bill will be requested in a random manner.) 6. Repeat Steps 1 through 3 for all remaining bills
-. 7. Repeat Step 5, adding at least one more bill to the choices presented. Con tinue until the objective is met</t>
+. 7. Repeat Step 5, adding at least one more bill to the choices presented. Con tinue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson ADT 147</t>
@@ -3623,7 +3622,7 @@
   </si>
   <si>
     <t>1. Start with a $1 bill placed in front of the student. Prompt the student to repeat the word "one." 2. Continue Step 1, gradually replacing the repeating concept with response to the question, "What is this called?" 3. Repeat Steps 1 and 2 for all other bill denominations
-. 4. Randomly present bills while asking the question, "What is this called?" until th e objective i</t>
+. 4. Randomly present bills while asking the question, "What is this called?" until th e objective is met.</t>
   </si>
   <si>
     <t>187d Lesson ADT 148</t>
@@ -3648,8 +3647,7 @@
 . 2. Continue Step 1, adding an additional coin type and making three separate piles
 . 3. Continue Step 2, adding an additional bill type and making four separate piles
 . 4. Continue Step 3, reducing all prompting until only the verbal request is needed
-. 5. Modify Step 4 by randomly selecting four different types of coins and/or bills
-. 6. Continue until the objective is m</t>
+. 5. Modify Step 4 by randomly selecting four different types of coins and/or bills.</t>
   </si>
   <si>
     <t>Lesson 149</t>
@@ -3675,7 +3673,7 @@
 . 8. Changing from the dollar concept, teach the student that the amounts in each of the four quadrants have the same amount of money. Continue this step until the student can independently show 25 cents in value from any nickel or dime combination
 . 9. Work direct ly with the student to produce change for a dollar. Go back to previous steps, if needed, to reinforce concepts. Mastery at this point should complete the first objective listed
 . 10. Review the student's ability to discriminate between a $1 bill and a $5 bill (ADT 146)
-. 11. Modify the concept of Step 9 to having the student count out four $1 bills and then give change for $1 when he or she is presented with a $5 bill. 188 Continue until the second objecti</t>
+. 11. Modify the concept of Step 9 to having the student count out four $1 bills and then give change for $1 when he or she is presented with a $5 bill.</t>
   </si>
   <si>
     <t>Lesson ADT 150</t>
@@ -3721,12 +3719,12 @@
     <t>A radio t hat is, or is similar to, the type that would be found in the stu dent's environment.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Demonstrate the operation of the radio to the student. Attempt to determine the types of music to which the student demonstrates the greatest response
+    <t>1. Demonstrate the operation of the radio to the student. Attempt to determine the types of music to which the student demonstrates the greatest response
 . 2. Through physical assistance, guide the student through the process of turning the radio on and off. Assistive devices may be useful in this area
 . 3. Continue Step 2, adding the action of tuning the radio
 . 4. Continue Step 3, adding the concept of changing the volume
 . 5. Continue Step 4, reducing all physical guidance to step - by - step verbal prompting
-. 6. Continue Step 5, reducing all prompting to a total - task verbal request: "(Name), please turn on the radio." 7. Through prompting, as needed, teach the action of turning off the </t>
+. 6. Continue Step 5, reducing all prompting to a total - task verbal request: "(Name), please turn on the radio." 7. Through prompting, as needed, teach the action of turning off the radio.</t>
   </si>
   <si>
     <t>Q Lesson ADT 152</t>
@@ -3750,7 +3748,7 @@
 . 4. Continue Step 3, adding the action of changing the volume
 . 5. Continue Step 4, reducing all physical guidance to step - by - step verbal prompting
 . 6. Continue Step 5, reducing all prompting to a total - task verbal request: "(Name), please turn on the television." Reduce verbal prompting until the student can use the television independently
-. 7. Through prompting, as needed, teach the action of turning off the televisio</t>
+. 7. Through prompting, as needed, teach the action of turning off the television. ::·</t>
   </si>
   <si>
     <t>Lesson AFF 1</t>
@@ -3796,7 +3794,7 @@
   <si>
     <t>1. Discuss various materials with the student and attempt to i dentify which items produce the most positive or enjoyed responses. A number of variations or items may need to be tried in this exercise
 . 2. Having identified situations or materials that most likely provide the desired response, continue Step 1 using the mo st enjoyed items and provide continu ous and extensive reinforcement for any response that even approximates laughter
-. 3. Reduce reinforcement of the humor response until the student's enjoyment alone is the needed reinforcement. Although not part of the obj ective, this is an opportune time for the student to learn how to be hum</t>
+. 3. Reduce reinforcement of the humor response until the student's enjoyment alone is the needed reinforcement. Although not part of the obj ective, this is an opportune time for the student to learn how to be humorous.</t>
   </si>
   <si>
     <t>Lesson AFF 3</t>
@@ -3820,7 +3818,7 @@
     <t>1. Set up role - playing situations for students to perform that involve demon strating some specific emotions such as being upset or very happy, or clearly show a person who has a need such as wanting directions to the bathroom or desiring a drink of water. Continue these exercises until the student has expe rienced both having needs and satisfying the needs of others
 . 2. Continue Step 1, adding a discussion session after the role pl aying where the student is asked to name or point to the classmate who was playing the role of a specific need or emotion. Use prompting and provide answers as needed
 . 3. Continue Step 2, reducing prompting for correct answers until the student can iden tify the roles being played by others
-. 4. In a nongroup setting where lots of people are present, such as a shopping mall, restaurant, or large class (a television may be used, although it is not as effective), observe other people and ask the student to iden tify what he or she perceives to be the feelings or needs of some of the people. Continue this process until the objective is met. 197</t>
+. 4. In a nongroup setting where lots of people are present, such as a shopping mall, restaurant, or large class (a television may be used, although it is not as effective), observe other people and ask the student to iden tify what he or she perceives to be the feelings or needs of some of the people. Continue this process until the objective is met.</t>
   </si>
   <si>
     <t>Lesson AFF 4</t>
@@ -3835,10 +3833,10 @@
     <t>The student will demonstrate no more than two occurrences of self - abusive behavior in a 1 - month period. Mat erials: Objects or activities known to provide pleasure to the student.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. When an example of self - abuse occurs, physically block the action and at tempt to redirect the student's attention toward an activity that is enjoyed. Pleasurable behav iors that would interfere with the abusive action, such as using the hands to press a switch when the hands were used to perform the abuse, are preferred. The process of physically intervening must be performed whenever self - abuse is observed, if requests to stop are not effective
+    <t>1. When an example of self - abuse occurs, physically block the action and at tempt to redirect the student's attention toward an activity that is enjoyed. Pleasurable behav iors that would interfere with the abusive action, such as using the hands to press a switch when the hands were used to perform the abuse, are preferred. The process of physically intervening must be performed whenever self - abuse is observed, if requests to stop are not effective
 . 2. Develop a hypothesis as to what the student may be trying to communicate through this action. Using that theory verbally, and if necessary physically, intervene. Then provide the activity that is perceived to be being requested. At the same time, prompt the student to perform a "cue," such as raising a hand or pointing to a picture. Try another hypothesis if unsuccessful. Where success is observed, physically modify the daily activities to give more focus to these concepts
 . 3. Continue Step 2, reducing the physical intervention concept to gestural and verbal prompting the student to use the "cue." 4. Reduce the verbal and gestural prompting, as possible, and emphasize the "cue." 5. If Steps 1 through 4 yield no lasting result, experiment with the environment by taking the student to different (more peaceful and less stimulating) places and watch for changes. If positive results are noted, change the real environ ment to meet those need s
-. 6. If all of these efforts fail, a referral for a medical consultation to rule out bio - logical circumstances needs to be performed. Note. It is very important to provide pleasurable and/or social interactions when self - abuse is not occurring so that the s tudent does not accidentally begin to believe that positive consequences only occur in the presence of self - </t>
+. 6. If all of these efforts fail, a referral for a medical consultation to rule out bio - logical circumstances needs to be performed. Note. It is very important to provide pleasurable and/or social interactions when self - abuse is not occurring so that the s tudent does not accidentally begin to believe that positive consequences only occur in the presence of self - abuse.</t>
   </si>
   <si>
     <t>Lesson AFF 5</t>
@@ -3861,7 +3859,7 @@
 . 3. Based on the student's past performance, select a period of time that is per ceived to be one that the student can experience without aggressive outbursts. Ensure that the environment is as free as reasonable of distractive situations. Provide the items or activities that have been determined to be positive fr om Step 1. If a 5 - minute period of time occurs without aggressive behavior, pro vide some form of positive feedback (praise or something tangible that is val ued by the student). If aggressive situations develop, remove or stop the posi tive activity an d redirect the student's focus from the aggressive act to some other act such as a walk or a quiet moment in his or her room
 . 4. Continue Step 3, modifying the time period for positive feedback for positive behavior to 30 minutes. If problems occur, try to re ach a 30 - minute period incrementally
 . 5. Continue Step 3, modifying the time period to 2 hours. Gradually increase the time period in 2 - hour increments until a 24 - hour period occurs without an aggressive incident
-. 6. Use some form of chart that gives feedback to the student. Progressively set goals for days without aggressive behavior until the objective is met</t>
+. 6. Use some form of chart that gives feedback to the student. Progressively set goals for days without aggressive behavior until the objective is met.</t>
   </si>
   <si>
     <t>Lesson AFF 6</t>
@@ -3880,7 +3878,7 @@
 . 2. Continue Step 1, having someone observe the student throughou t the day. If an act of destruction occurs, physically intervene to stop the action and physi cally guide the student through the process of cleaning up or "fixing," where reasonable. Require the student to perform some additional act to help the person w hose property was harmed. If the situation cannot be corrected by physical guidance, immediately set up a process to perform "work" to reim burse the loss. Provide reinforcement for appropriate behavior that occurs for more than 1 hour
 . 3. Continue Step 2, g radually increasing the period of time to provide reinforce ment for nondestructive behavior from 1 hour to 8 hours
 . 4. Continue Step 3, using a chart to measure daily progress. When performing overcorrection activities, attempt to reduce the physical guidan ce needed
-. 5. Continue Step 4, providing additional reinforcement (rewards) for a 1 - week level of su</t>
+. 5. Continue Step 4, providing additional reinforcement (rewards) for a 1 - week level of success.</t>
   </si>
   <si>
     <t>d Lesson AFF 7</t>
@@ -3892,11 +3890,11 @@
     <t>A person can have deficits in the performance of a task, meaning that he or she knows what is the correct thing to do but does not do it, or he or she may have prob lems with the skill itself, meaning that he or she does not understand the appropriate behavior. In either case, a behaviorally designed program can have a positive impact. This sample lesson is extremely generic because there are numerous potential behav ioral problems as well as numerous approaches to solving these problems. It is very im portant to determine where and when these behaviors occur. If the majority of the problems occur in one particular setting, the setting or people related to it may be the antecedent (situation occurring prior to disruption), and changes in these variab les, not in the student, are needed. Never underestimate the power of simple social inter action. Some disruptions are simply an attempt to receive some form of interaction. Reactions to negative behaviors must be immediate, objective, and consistent. Beh avioral Objective: The student will demonstrate no more than two occurrences of disruptive behavior in a 1 - month period.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Hold a meeting with as many people who are directly involved in the student's life as possible. Attempt to define, in as measurable terms as possible, the sp cific behaviors that are causing disruption. Reach agreement as to what behav iors will be the focus of the behavioral intervention and what consequences would be appropriate if the behavior occurs
+    <t>1. Hold a meeting with as many people who are directly involved in the student's life as possible. Attempt to define, in as measurable terms as possible, the sp cific behaviors that are causing disruption. Reach agreement as to what behav iors will be the focus of the behavioral intervention and what consequences would be appropriate if the behavior occurs
 . 2. Hold a similar meeting, including the student this time. Rationally explain the cause for concern and what specific actions will be taken if the behavi or occurs. Equally important, explain what positive actions will be taken if the behavior does not occur
 . 3. Select a time period that seems shorter than the average rate of occurrence of the disruptive behavior. If no disruption occurs in that time period, o ffer to the student the enjoyed experience (item) identified in the materials section. If negative behavior occurs, provide minimal interaction except to physically redirect the student to a more appropriate task
 . 4. Continue Step 3, gradually increasing the time period until an entire day is completed without a disruptive event
-. 5. Continue Step 4, slowly reducing the reward concept and replacing it with brief social interaction in a positive way. </t>
+. 5. Continue Step 4, slowly reducing the reward concept and replacing it with brief social interaction in a positive way.</t>
   </si>
   <si>
     <t>Lesson AFF 8</t>
@@ -3919,7 +3917,7 @@
 . 3. In addition to the actions of Step 2, remove the student from the current en vironment to a quieter and less demandi ng location. If reductions are noted, consider making changes to the classroom or the setting where the behavior is displayed to more closely mimic the environment where the positive change took place
 . 4. If the target behaviors are displayed when new activit ies or situations occur, attempt to determine if the activity itself or the transition to a new activity is the source of these behaviors. Manipulate activity content and provide re peated prior notifications of activity changes that are about to occur. Watch for changes
 . 5. Another activity is to gently and physically guide the student to stop perform ing the behavior. Reduce the physical guidance until only a gestural cue is needed
-. 6. Continue experimenting with Steps 1 through 5, providing positive verbal praise for successful improve</t>
+. 6. Continue experimenting with Steps 1 through 5, providing positive verbal praise for successful improvements.</t>
   </si>
   <si>
     <t>Lesson AFF 9</t>
@@ -3940,10 +3938,10 @@
     <t>Items that are needed to perform the identified target behaviors.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Ask the respondent who filled out the assessment to indicate the three most important measurable tasks that if performed properly would address the concern
+    <t>1. Ask the respondent who filled out the assessment to indicate the three most important measurable tasks that if performed properly would address the concern
 . 2. Having identified the specific tasks in Step 1, attempt to demonstrate the tasks to the student and then physically guide him or her through the process of performing each of them. Provide verbal reinforcement for every successful effort during the training periods
 . 3. Continue Step 2, reducing all modeling and physical guidance until only ver bal prompting is needed
-. 4. Set up situations where the tasks could be performed and provide feedback privately after the activity as to whether or not it was successfully done. </t>
+. 4. Set up situations where the tasks could be performed and provide feedback privately after the activity as to whether or not it was successfully done.</t>
   </si>
   <si>
     <t>Lesson AFF 1O</t>
@@ -3965,7 +3963,7 @@
 . 2. Through trial and error, attempt to find an activity in which the student will participate where he or she is involved and attentive to the level stated in the objective. This activity does not have to be educational; it could be recre ational. The key is for it to be enjoyable
 . 3. Continue Step 2, using 20 - minute activity time frames, and in the middle of the time frame introduce 1 minute of the activity determined in Step 1
 . 4. Continue Step 3, gradually increasing the introduction of the task identified in Step 1 until more than half of the period consists of the target activity
-. 5. Begin the target activity, i ncreasing it to a 20 - minute period, and offer the desired activity only after successful participation in the target act</t>
+. 5. Begin the target activity, i ncreasing it to a 20 - minute period, and offer the desired activity only after successful participation in the target activity.</t>
   </si>
   <si>
     <t>Lesson AFF 11</t>
@@ -4012,7 +4010,7 @@
     <t>1. Present to the student(s) a social story that relates to his/her/their actual life situations. Show pictures while relating the story if reasonable. After sharing the story, p rovide a response for the group as to what the consequence and outcome might be in the scenario
 . 2. Continue the process of Step 1, but pause after the story and ask the student(s) if anyone knows what might happen next and what the conse quence might be. A nswers that serve any logical relationship to the issue should be reinforced with verbal praise. For inaccurate responses or no re sponse, provide the answer and then prompt the student(s) to generally repeat the answer provided
 . 3. After 10 sessions using S tep 2, modify the requested response by not provid ing a cue or an answer
-. 4. While the objective can be met after Step 3, attempt to translate these stories into real - life situations that specifically relate to the student. If the student is willing, ask the student to relate a situation that he/she/they may have experi enced that is similar to the social story. Since the student will be opening up about personal situations, do not attempt to place negative value judgments on the actions taken by the stud ent. Do, however, support and acknowledge situ ations where the student did "the right t</t>
+. 4. While the objective can be met after Step 3, attempt to translate these stories into real - life situations that specifically relate to the student. If the student is willing, ask the student to relate a situation that he/she/they may have experi enced that is similar to the social story. Since the student will be opening up about personal situations, do not attempt to place negative value judgments on the actions taken by the stud ent. Do, however, support and acknowledge situ ations where the student did "the right thing."</t>
   </si>
   <si>
     <t>Lesson COG 1</t>
@@ -4031,7 +4029,7 @@
 . 2. While continuing Step 1, gently guide the student's head toward your head, attempting to acquire eye contact while stating, "(Name), look at me." When eye contact is acquired, provide animated verbal praise
 . 3. Continue Step 2, asking, "(Name), look at me," and reducing physical guidance until only a light touch is needed
 . 4. Continue the concept of Step 3, reducing the verbal request to just the student's name and using no physical guidance at all
-. 5. Using the skills of Step 4, attempt to increase the total time of instructor eye contact, allowing for breaks in eye contact for no more than one third of the time, for a 1 - minute period. 2 09</t>
+. 5. Using the skills of Step 4, attempt to increase the total time of instructor eye contact, allowing for breaks in eye contact for no more than one third of the time, for a 1 - minute period. 2</t>
   </si>
   <si>
     <t>Lesson COG 2</t>
@@ -4053,7 +4051,7 @@
 . 2. Where reasonable, continue Step 1 and include at least one more student, but no more than five students in order to maintain manageability of the group
 . 3. Continue Step 2, encouraging the student's involvement and gently providing physical redirection when episodes of distractibility occur. In addition, provide the student with a "catch phrase" such as, "(Name), you need to remain with us," an d couple the phrase with the physical guidance. If the student remains in the activity with fewer than 10 seconds of distraction for 1 minute, provide verbal praise as reinforcement
 . 4. Continue the concept of Step 3, reducing the physical guidance until just the catch phrase is all that is needed and the student participates for 3 minutes with no more than 30 seconds of distractibility
-. 5. Using the skills of Step 4, attempt to increase the total time to that identified in the objective, allowing for breaks in activity involvement for no more than 10% of the</t>
+. 5. Using the skills of Step 4, attempt to increase the total time to that identified in the objective, allowing for breaks in activity involvement for no more than 10% of the time.</t>
   </si>
   <si>
     <t>Lesson COG 3</t>
@@ -4068,11 +4066,11 @@
     <t>The student will remain seated during classroom activities for a 5 - minute period to a 95% accuracy level for 20 trials. Materi als: Music and chairs.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Introduce a game much like musical chairs, ensuring that enough chairs are made available for every student who is participating. After the music has been stopped and all students are seated, begin talking to each student, maintaining as much eye contact as reasonable, about the activity or the music. Start the time frame for this activity at a 30 - second level
+    <t>1. Introduce a game much like musical chairs, ensuring that enough chairs are made available for every student who is participating. After the music has been stopped and all students are seated, begin talking to each student, maintaining as much eye contact as reasonable, about the activity or the music. Start the time frame for this activity at a 30 - second level
 . 2. Continue Step 1, expanding the time frame for speaking to the class to 1 minute
 . 3. Continue Step 2, graduall y increasing to a 5 - minute time frame
 . 4. Attempt to transfer the skills learned in Step 3 by playing music before a class activity begins. During this time, the students should be allowed to move around the classroom as they choose. Stop the music in the same manner as in Steps 1 through 3 in order to begin a class activity
-. 5. Use verbal guidance as needed to maintain compliance and continue until the objective is met. 21 1 </t>
+. 5. Use verbal guidance as needed to maintain compliance and continue until the objective is met. 21</t>
   </si>
   <si>
     <t>Lesson COG 4</t>
@@ -4093,7 +4091,7 @@
     <t>1. If you are having difficulty in selecting the item(s) needed for the material(s) in this lesson, present the student with a variety of objects in order to find one that elicits the best apparent response
 . 2. Begin by verbally reinforcing the student's attention when the object is placed directly in front of him or her
 . 3. Modify Step 2 by presenting the object at a 45 - degree angle to the student and moving it to the center. Use physical guidance, if nee ded, to assist the student in initially acquiring visual contact and the subsequent tracking
-. 4. Continue Step 3, gradually increasing the angle of presentation up to 90 degrees and reducing physical assistance until the objective i</t>
+. 4. Continue Step 3, gradually increasing the angle of presentation up to 90 degrees and reducing physical assistance until the objective is met.</t>
   </si>
   <si>
     <t>Lesson COG 5</t>
@@ -4116,7 +4114,7 @@
   <si>
     <t>1. Capitalize on the skills learned in COG 4 by repeating that process. Then physically assist the student in turning his or her head past the midpoint ( directly in front) and continue tracking the object to the other side. Use a lot of verbal interaction during this activity
 . 2. Continue Step 1, gradually reducing the physical guidance provided until only verbal prompting, encouragement, and praise are needed
-. 3. Continue Step 2, reducing all prompting until the student performs the task without verbal cue</t>
+. 3. Continue Step 2, reducing all prompting until the student performs the task without verbal cues.</t>
   </si>
   <si>
     <t>Lesson COG 6</t>
@@ -4141,7 +4139,7 @@
 . 5. Continue Step 4, using a gripping action instead of a touch
 . 6. Gripping the lower part of the arm in the middle, but slightly toward the wrist, attempt to raise the arm about 6 inches and then gently lower it back to the original position. Talk to the student to be certain that he or she understands what you are going to do
 . 7. Continue Step 6, moving the arm all the way over the head, much like raising the ha nd when answering a question by a student
-. 8. Add the other arm to the process, guiding the student in raising his or her arms over the head and then back down. Use lots of verbal praise. Continue until the objective i</t>
+. 8. Add the other arm to the process, guiding the student in raising his or her arms over the head and then back down. Use lots of verbal praise. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson COG 7</t>
@@ -4163,7 +4161,7 @@
 . 2. Have an assistant stand next to the student. Stand about 5 feet away from t he student and make the following request: "(Name), please come here." Imme diately after the statement is made, take one step toward the student while the assistant physically guides the student toward you. Upon successful movement toward you, provide a lot of positive feedback and praise
 . 3. Continue Step 2, reducing physical guidance by the assistant and replacing prompting with step - by - step verbal cues and gestural prompting after the request has been made. The distance between you and the student should now be approximately 10 feet
 . 4. Continue Step 3, having the assistant use only step - by - step verbal cues
-. 5. Continue Step 4, using no prompting other than the total - task request, until the objective is m</t>
+. 5. Continue Step</t>
   </si>
   <si>
     <t>Lesson COG 8</t>
@@ -4185,7 +4183,7 @@
 . 2. Establish a game within the classroom setting where the reinforcing materials or activities are given to the specific student who stands up when his or her name is called. Use a concrete item or symbol to prompt or communicate that the game is in progress. Encourage peer approval for successful actions. Physically prompt the student as needed
 . 3. Continue Step 2, re ducing all prompting until only the verbal request is needed
 . 4. Continue Step 3, reducing the presentation of the reward or activity to every other occurrence
-. 5. Continue Step 4, gradually fading the reward comp</t>
+. 5. Continue Step 4, gradually fading the reward component.</t>
   </si>
   <si>
     <t>Lesson COG 9</t>
@@ -4223,7 +4221,7 @@
 . 2. Ask the student to raise his or her arms high over the head. This can also be done as a group exercise. Physically guide where needed and provide verbal praise for all successful efforts
 . 3. Modify Step 2, asking the student to place his or her hands on a table or desk
 . 4. Modify Step 3, asking the student to place his or her hand s in the lap
-. 5. Continue Step 4, reducing the use of all physical prompts other than the ve bal request listed in the objective. 21</t>
+. 5. Continue Step 4, reducing the use of all physical prompts other than the ve bal request listed in the objective.</t>
   </si>
   <si>
     <t>Lesson COG 11</t>
@@ -4238,13 +4236,13 @@
     <t>The student will imitate the teacher's arm and leg movements to a 90% accuracy level for 20 trials.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Review the ability to allow physical prompting (prerequisite COG 6)
+    <t>1. Review the ability to allow physical prompting (prerequisite COG 6)
 . 2. Using physical guidance, move the student's arms and legs. Reduce the pres sure until only a light touch is needed
 . 3. Stand facing the student and hold the student by the hands. From this posi tion, raise the stude nt's arms upward and around in an arc
 . 4. Continue Step 3, reducing the physical holding of the student's hands until the action can take place with just the palms touching
 . 5. Continue Step 4, removing all physical contact between the student and the teacher until the student is "mirroring" the teacher's actions
 . 6. Continue Step 5, increasing the distance between the student and the teacher
-. 7. Add imitation ofleg movements. </t>
+. 7. Add imitation ofleg movements. 21</t>
   </si>
   <si>
     <t>Lesson COG 12</t>
@@ -4270,7 +4268,7 @@
 . 3. Modify Step 2 to st anding about 3 feet away from the student
 . 4. Modify Step 3, reducing the verbal interaction and then moving away another few feet
 . 5. Continue Step 4, but provide attention to another student. After 1 minute of "independent" work, go to the student, provide verbal praise, and then return to the task being performed with the other student
-. 6. Expand Step 5 to a 5 - minute period and continue until the objective i</t>
+. 6. Expand Step 5 to a 5 - minute period and continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson COG 13</t>
@@ -4319,7 +4317,7 @@
     <t>1. Verify that the student can perform tasks for tokens (see prerequisite COG 13). Perform an additional lesson where success is likely and use success in that activity to obtain tokens
 . 2. Arrange an area or place - either in the classroom or, preferably, in another room. Supply this area with two items that are perceived to be desired by the student
 . 3. When the student has obtained three tokens, escort him or he r to the area that has the desired materials. Refer to this area as the "store." 4. Continue Step 3, raising the threshold for going to the store to five tokens and the number of choices to three
-. 5. Continue Step 4, raising the threshold to 10 t</t>
+. 5. Continue Step 4, raising the threshold to 10 tokens.</t>
   </si>
   <si>
     <t>Lesson COG 15</t>
@@ -4344,7 +4342,7 @@
 . 2. When the student earns a predetermined number of tokens, ex change those tokens for cash and take the student to a store
 . 3. Escort the student through a store and identify an item that the student's money will purchase and that the student desires. Take that item and escort the student to the cashier. Prompt the stud ent through the process of handing the cashier the money and receiving change
 . 4. Continue Step 3, adding a second choice the student may select and reducing the prompting when interacting with the cashier
-. 5. Continue Step 4, adding a third choice and eliminating all prompting when the student is with the cashier. To avoid unnecessary tension, remain near the student throughout the activity so that assistance may be given if problems anse</t>
+. 5. Continue Step 4, adding a third choice and eliminating all prompting when the student is with the cashier. To avoid unnecessary tension, remain near the student throughout the activity so that assistance may be given if problems anse.</t>
   </si>
   <si>
     <t>Lesson COG 16</t>
@@ -4369,7 +4367,7 @@
 . 2. Select paper strips that are 1 inch and 12 inches long. Guide the student through the process of handing you the 1 - inch strip and then the 12 - inch strip after having first placed the paper strip against the ruler. Reduce guid ance until only verbal requests are needed
 . 3. Continue the concept of Step 2, adding another rand omly selected strip so that three choices (1 inch, a random choice, and 12 inches) are presented
 . 4. Modify Step 3 to presenting any 3 randomly selected paper strips and request ing the student to select a specific paper strip until all 12 strips have been p re sented and measured
-. 5. Although Step 3 can meet the objective, attempt to measure different items in the student's environment to put a practical aspect to the exe</t>
+. 5. Although Step 3 can meet the objective, attempt to measure different items in the student's environment to put a practical aspect to the exercise.</t>
   </si>
   <si>
     <t>Lesson COG 17</t>
@@ -4393,7 +4391,7 @@
     <t>1. Place only one item on a table in front of the student and hand him or her t wo items, one of which is the exact match to the item in question. Ask the student to "place the object like the one in front of you on the table." Physi cally guide the student in placing the correct object on the table. Do not pro vide negative comment s for incorrect actions, but give plenty of verbal praise. Reduce physical guidance until only the verbal cue is needed
 . 2. Add to Step 1 by placing another example on the table and giving its match ing item to the student so that there are two examples on the table and three in the student's possession
 . 3. Continuing the concept of Step 2, change the presentation to three items on the table and only the same three items being given to the student
-. 4. Continue Step 3, adding items until there are five items on the table and five items presented to the studen</t>
+. 4. Continue Step 3, adding items until there are five items on the table and five items presented to the student.</t>
   </si>
   <si>
     <t>Lesson COG 18</t>
@@ -4414,7 +4412,7 @@
     <t>1. Place only one picture on a table in front of the student and hand him or her two pictures, one of which is the exact ma tch to the picture being presented. Ask the student to "place the picture like the one in front of you on the table." Physically guide the student in placing the correct picture on the table. Do not provide negative comments for incorrect actions, but giv e plenty of verbal praise when the student is successful. Reduce physical guidance until only the verbal cue is needed
 . 2. Add to Step 1 by placing another example on the table and giving its match ing picture to the student so that there are two examples on the table and three in the student's possession
 . 3. Continuing the concept of Step 2, change the presentation to three pictures on the table and only the same three pictures being given to the student
-. 4. Continue Step 3, adding items until there are five pictu res on the table and five pictures presented to the st</t>
+. 4. Continue Step 3, adding items until there are five pictu res on the table and five pictures presented to the student.</t>
   </si>
   <si>
     <t>Lesson COG 19</t>
@@ -4439,7 +4437,7 @@
 . 2. Present each object and its accompanying photograph to the student. Stress to the student that each item (object and photo) has the same name
 . 3. Present one object and two photos (one of which represents the object) and prompt the student to select the picture of the object presented and place it by the object. Reduce prompting until this activity can be performed with just verbal requests
 . 4. Continue Step 3, increasing pictures and objects in increments of one until all five objects and photos are used
-. 5. Although mastery of Step 4 will meet the objective, continue Step 4 by re placing the photographs with hand - drawn illustration of the objects. Make these in a line - drawing style where exact illustration is not the goa l but some graphic representation is produced. 22 7</t>
+. 5. Although mastery of Step 4 will meet the objective, continue Step 4 by re placing the photographs with hand - drawn illustration of the objects. Make these in a line - drawing style where exact illustration is not the goa l but some graphic representation is produced. 22</t>
   </si>
   <si>
     <t>Lesson COG 20</t>
@@ -4459,7 +4457,7 @@
   <si>
     <t>1. Interact with the student, using each of the five different shapes. Encourage and prompt both visual and tactile interactions with the shapes. Establish a name for each shape and use that name during this exercise
 . 2. Present two shapes to the student and hold up one copy of one of the shapes the student has to serve as a target item. Ask the student which one matches this shape. Prompt as needed. When the student makes a correct choice, re spond, "Yes, that's the (name given to that object)." 3. Continue Step 2, adding objects from which the student may choose but con tinuing with offering only one randomly chosen shape to match until the stu dent has had experience with all five shapes
-. 4. Continue Step 3, adding giving all five objects to the student but incremen tally adding more target items to match. Change your response for correct action to the following: "Yes, you matched each of those correctly." Continue until the objective i</t>
+. 4. Continue Step 3, adding giving all five objects to the student but incremen tally adding more target items to match. Change your response for correct action to the following: "Yes, you matched each of those correctly." Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson COG 21</t>
@@ -4477,10 +4475,10 @@
     <t>Using heavy construction paper or poster board, create eight pairs of iden tical cards that are eight different colors.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Interact with the student by using each of the eight different cards. Encourage and prompt both visual and tactile interactions with the cards. Name each color as the student is interacting with each card
+    <t>1. Interact with the student by using each of the eight different cards. Encourage and prompt both visual and tactile interactions with the cards. Name each color as the student is interacting with each card
 . 2. Present two cards to the student and hold up one copy of one of the colored cards the student has. Ask the student which card matches. Prompt as needed. When the student makes a correct choice, respond, "Yes, that's the (color name) one." In this step, use high - contrast color combinations such as red/black, whit e/black, or yellow/black
 . 3. Continue Step 2, adding cards, until all eight colors are presented for the stu dent to choose from but continuing with offering only one randomly chosen card to match
-. 4. Continue giving the student all eight cards, but incrementally add cards for the student to match and change your response for correct action to the fo lowing: "Yes, you matched each of those correctly." Continue until the obj tive is met. </t>
+. 4. Continue giving the student all eight cards, but incrementally add cards for the student to match and change your response for correct action to the fo lowing: "Yes, you matched each of those correctly." Continue until the obj tive is met. i2</t>
   </si>
   <si>
     <t>Lesson COG 22</t>
@@ -4505,7 +4503,7 @@
 . 2. Using only the letters presented in Step 1, present each in alphabetical order on the table and then give the matching cards, one at a time and also in alpha betical order, to the student. Guide the student in placing the card beneath its matching example. Reduce guidance until only a verbal prompt to "please match these letters" is needed
 . 3. Continue Step 2, modifying the presentation of the cards to the student to a random, rather than alphabetical, order
 . 4. Continue Step 3, giving all five cards to the student at one time in a random arrangement
-. 5. Expand the concept of Step 4 in increments of 7 additional cards until all 26 letters are being pres</t>
+. 5. Expand the concept of Step 4 in increments of 7 additional cards until all 26 letters are being presented.</t>
   </si>
   <si>
     <t>Lesson COG 23</t>
@@ -4529,7 +4527,7 @@
     <t>1. Using the matching skills already present (see the prerequisites), present the object labeled with the numeral 1 and its corresponding number card to the student and guide him or her through the process of placing the number card next to the labeled object . Reduce guidance until only the request of"find the matching number" is needed
 . 2. Continue Step 1, adding the object labeled with the numeral 2 and presenting to the student the matching card in addition to the card used in Step 1
 . 3. Continue Step 2, adding c ards and corresponding objects, one at a time, in a numerically sequential order until all nine examples are used
-. 4. Continue Step 3, keeping the objects in a sequential order but presenting the cards to the student in a random manner</t>
+. 4. Continue Step 3, keeping the objects in a sequential order but presenting the cards to the student in a random manner.</t>
   </si>
   <si>
     <t>Lesson COG 24</t>
@@ -4551,7 +4549,7 @@
 . 2. Obtain or create some markers or playing pieces and a homemade game board. Present these items to the student. Counting is not required for this game because the instructor should roll the die and show the student where to move the game piece (physically guide as needed). Obviously, however, if it appears that the student desires to learn or already knows how to use a die and count to six, then he or she should move the piece independently. You or an other student should be involved to create an atmosphere of benign competi tion. Present the student with two choices (one correct and one not) of cards with numbers each time he or she lands on a numbered space. Prompt the stud ent to select the matching number
 . 3. Continue Step 2, incrementally adding cards, up to five choices, from which to make a selection
 . 4. Shift the focus of the student interaction away from a "game activity'' to one of presenting cards to the student and displa ying twice as many samples on the table before him or her as cards that are given to him or her. Prompt the student to place the matching card on or near its same number
-. 5. Continue the concept of Step 4 until the objective i</t>
+. 5. Continue the concept of Step 4 until the objective is met.</t>
   </si>
   <si>
     <t>Lesson COG 25</t>
@@ -4576,7 +4574,7 @@
 . 2. Continue Step 1, but upon completion of the story, review the size concepts, labeling the clay objects as small, medium, and large
 . 3. Encourage the student to use both tactile and visual interaction with the three different - size clay items
 . 4. Give the three clay items used in Step 3 to the student and present on a table in front of the student three items as simi lar as reasonable to those the student has in his or her possession. Guide the student through the process of placing the similar items next to each other
-. 5. Reduce guidance as needed until the objective is me</t>
+. 5. Reduce guidance as needed until the objective is met.</t>
   </si>
   <si>
     <t>Lesson COG 26</t>
@@ -4597,11 +4595,11 @@
     <t>Using heavy construction paper or poster board, create two sets of five cards that have the shapes of a circle, a square, a rectangle, a triangle, and an "s" - shape design. Find items in the natural environment that mimic those shapes.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Repeat the activities related to "match shapes" with the student, using the cards created in the materials section
+    <t>1. Repeat the activities related to "match shapes" with the student, using the cards created in the materials section
 . 2. Continue Step 1, and after a correct match, repeat the same request without giving the student the card to be used for matching, providing only the name of the shape presented. Guide the student as needed to point to or otherwise identify the shape that ha s been named
 . 3. Continue Step 2, slowly fading the use of any cards for matching until only the verbal cue is needed for the student to point to or identify the answer
 . 4. Continue Step 3, randomly presenting all five shapes that have been selected
-. 5. Although Step 4 accomplishes the objective, you could continue by using ob jects found in the student's environment that have a similar shape and substi tuting them for the </t>
+. 5. Although Step 4 accomplishes the objective, you could continue by using ob jects found in the student's environment that have a similar shape and substi tuting them for the cards.</t>
   </si>
   <si>
     <t>Lesson COG 27</t>
@@ -4625,7 +4623,7 @@
     <t>1. Using the matchin g skills already present from the "match colors" lesson (COG 21), perform the exercise of matching the colored cards presented
 . 2. Continue Step 1, adding a verbal request to "point to" (see prerequisite ADT 4) each color after a successful matching action has taken place
 . 3. Lay out eight colors in front of the student, and using a left - to - right sequence, guide the student in pointing to or otherwise identifying each color
-. 4. Modify Step 3, making random requests for specific colors. Continue until the objective is me</t>
+. 4. Modify Step 3, making random requests for specific colors. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson COG 28</t>
@@ -4649,7 +4647,7 @@
     <t>1. Review with the student the ability to match objects of different sizes (small, medium, and large) by first using modeling clay of identical shapes and colors but of different sizes, as in the prerequisite "match by size" (COG 25)
 . 2. Modify Step 1, replacing the clay samples with items common to the student's environment. When the student answers correctly, allow him or her to inter act with the selection as appropriate to the item (i.e., eating food items, drink ing juice, or playing with a specific toy)
 . 3. Modify Step 2, reducing the matching concept and replacing it with a verbal request: "Show me the (large, medium, or small) (name of item)." Physically guide the student as needed
-. 4. Reduce all prompting and continue until the objective i</t>
+. 4. Reduce all prompting and continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson COG 29</t>
@@ -4675,7 +4673,7 @@
 . 3. Modify Step 2, removing the feet shapes, placing a pattern of three differ ent shapes on the floor, and prompting the student to progressively step on the items in a demonstrated sequence
 . 4. Continue Step 3, gradually increasing the number of items in the sequence to five. Place other shapes not a part of the sequence as available choices on the floor to ensure that the student can vi sually discriminate between correct and incorrect choices
 . 5. Modify Step 4 by changing this activity to a tabletop one in which the shapes are presented to the student and then covered from view, and the student is guided in replicating that pattern after be ing given only the necessary mate rials (copies of only the items that were shown)
-. 6. Modify Step 5, using objects from the student's environment instead of cards. 2</t>
+. 6. Modify Step 5, using objects from the student's environment instead of cards.</t>
   </si>
   <si>
     <t>Lesson COG 30</t>
@@ -4702,7 +4700,7 @@
 . 4. Continue Step 3, reducing guidance until the student can draw some form of line after verbal requests only
 . 5. Using the skills acquired in Step 4, place the design of a line next to the student and ask him or her to copy it
 . 6. Using hand - over - hand assistance (the instructor's hand gently guides the student's hand), repeat the process described in Step 5 for all other designs chosen
-. 7. Reduce physical assistance and present the items in a random manner to the student. Continue until the objective i</t>
+. 7. Reduce physical assistance and present the items in a random manner to the student. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson COG 31</t>
@@ -4726,7 +4724,7 @@
     <t>1. Using the matching and identification skills already present (see prerequisites), interact with the student to verify that the shapes created can be matched and identified. (Note. Some shapes have not been presented in previous lesson s.) 2. Choose two specific shapes, preferably ones with high contrast to each other such as a circle and square. Place one of the chosen shapes, as an example, in front of a container. Give the student all of the remainder of both shapes. As in the matching e xercise, guide the student in placing only the items that match the given example into the container
 . 3. Continue Step 2, adding another example to be matched, which will result in three choices (two to be placed in containers) being given to the student
 . 4. Continue Step 3, changing one of the choices until all of the shape cards have been given to the student to sort at least once
-. 5. Continue Step 4, ensuring that the examples to be matched are randomly selected. Continue until the objective is</t>
+. 5. Continue Step 4, ensuring that the examples to be matched are randomly selected. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson COG 32</t>
@@ -4751,7 +4749,7 @@
 . 2. Choose two specific color items, preferably ones with high contrast to each other such as black and red. Place one example in front of the student, along with a container. Give the student all of the remainder of both colors. As in the matching exercise, guide the student in placing only the items that match the given example int o the container
 . 3. Continue Step 2, adding another example to be matched and giving a third set of choices to the student
 . 4. Continue Step 3, adding a third example and incrementally giving the student more samples from which to choose until all the color card s have been given to the student to sort
-. 5. Continue Step 4, ensuring that the examples given to match are randomly selected. Continue until the objective i</t>
+. 5. Continue Step 4, ensuring that the examples given to match are randomly selected. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Q Lesson COG 33</t>
@@ -4776,7 +4774,7 @@
 . 2. Choose two specific items by size, preferably two with distinct size differ ences. Place one example in front of the student, along with a container. Give the student all of the remainder of both items. As in the matching exercise, guide the student in placing only the items that match the size of the given example into the container
 . 3. Continue Step 2, adding another example to be matched and giving a third set of choices to the student
 . 4. Con tinue Step 3, adding a third example and incrementally giving the student more samples from which to choose until all the items have been given to the student to sort
-. 5. Continue Step 4, ensuring that the examples given to match are randomly selected. Contin ue until the objective is me</t>
+. 5. Continue Step 4, ensuring that the examples given to match are randomly selected. Contin ue until the objective is met. ::·</t>
   </si>
   <si>
     <t>Lesson COG 34</t>
@@ -4798,7 +4796,7 @@
 . 2. Select one body part that is visually obvious, such as an arm or leg. Demon strate t o the student its location and ask the student to point to (see prereq uisite ADT 4) that part of his or her own body. Use physical guidance as needed
 . 3. Continue Step 2, reducing all guidance until only the verbal prompt is needed
 . 4. Incrementally add additional body parts until all 10 items have been intro duced and the student can point to each part
-. 5. Randomly present the body parts and request the student to point to each one until the objective i</t>
+. 5. Randomly present the body parts and request the student to point to each one until the objective is met.</t>
   </si>
   <si>
     <t>Lesson COG 35</t>
@@ -4824,7 +4822,7 @@
 . 3. Using the prerequisite skill of"match numbers" (COG 24), show the studen t two flash cards, one being the numeral 1 and the other being a randomly chosen card. Present one item, as in Step 2, and prompt the student to point to the number 1
 . 4. Continue the concepts of Steps 2 and 3 for the remaining numerals
 . 5. Randomly present sing le - numeral flash cards without accompanying objects to the student, asking him or her to point to the number presented
-. 6. Incrementally add cards to the concept in Step 5 so that the student is select ing from a field of at least five choices that are randomly arranged. Continue until the objective is me</t>
+. 6. Incrementally add cards to the concept in Step 5 so that the student is select ing from a field of at least five choices that are randomly arranged. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson COG 36</t>
@@ -4850,7 +4848,7 @@
 . 3. Using the prerequisite skill of"match letters" (COG 22), hand the student two flash cards. Present before the student a card that matches one of the two that the student holds and ask the student to hand you the matching card. You should also st ate the name of the letter being requested. Continue this exercise until all letters have been presented and matched
 . 4. Continue the concepts of Steps 2 and 3, gradually increasing the number of choices presented to the student to five
 . 5. Randomly present five single - letter flash cards to the student, asking him or her to point to the letter presented
-. 6. Incrementally add cards to the concept in Step 5 so that the student is select ing from a field of five choices that are randomly arranged. Continue until the objective i</t>
+. 6. Incrementally add cards to the concept in Step 5 so that the student is select ing from a field of five choices that are randomly arranged. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson COG 37</t>
@@ -4893,7 +4891,7 @@
   <si>
     <t>1. Perform the activity that is enjoyed by the student (see the materials section). During this activity, stop all action, call (or have another student call) the stu dent's first name, and physically guide (if needed) the student's head toward the person who called the student's name
 . 2. Continue Step 1, gradually reducing the physical prompting that is needed and replacing it with a gestural prompt such as having an assistant point to the person who has called the student's name. (Note. If success is quickly ob tained in this step but Step 3 is not easily obtained, a professional auditory evaluation may be needed.) 3. Reduce all visual cues to the stu dent and provide only the student's name as the presenting stimulus. Note that on some occasions lack of response does not mean hearing difficulties but could relate to the student not having estab lished a meaning to his or her name
-. 4. Include another stud ent or family member in the activity, providing a lot of attention to the person whose name has been called. Continue until the objective i</t>
+. 4. Include another stud ent or family member in the activity, providing a lot of attention to the person whose name has been called. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson COG 39</t>
@@ -4931,7 +4929,7 @@
     <t>1. Using the materials described, create 10 cards for the numerals 1 through 10. Show these to the student and ask that he or she repeat a number randomly presented to him or her
 . 2. Place the cards with the numerals 1 and 2 in front of the student. Using the same process as in Step 1, have the student repeat both of these numbers in sequence. Point to each card as the number is named
 . 3. Continu e Step 2, incrementally adding numbers until all 10 have been presented
-. 4. Continue until the objective i</t>
+. 4. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson COG 41</t>
@@ -4954,7 +4952,7 @@
   <si>
     <t>1. Begin with three identical items selected from the materials section and place them in front of the student. Assist the student in counting to three by pro viding the verbal cue to be repeated
 . 2. Continue Step 1, reducing the verbal prompt to the first sound of each word ("Wa:' for one, "T" for two, and "Thr" for three) after having requested that the student "count these." 3. Continue Step 2, using only your mouth to provide an exaggerated visual ex ample of the initial sound of each word, without making a sound, after having requested the student to "count these." 4. Reduce all prompting until the student counts three items from a randomly selected set of items
-. 5. Continue the process of Steps 2 through 4, gradually adding more numbers, until 10 items are counted</t>
+. 5. Continue the process of Steps 2 through 4, gradually adding more numbers, until 10 items are counted.</t>
   </si>
   <si>
     <t>Lesson COG 42</t>
@@ -4982,7 +4980,7 @@
 . 5. Continue Step 4, using only total - task verbal requests
 . 6. Gradually change the drawing tool until a smaller size marker can be used to achieve the same result
 . 7. Repeat the concept in Steps 1 through 6 for the other geometric shapes chosen
-. 8. Randomly present an example of each shape that has been taught and re quest that the student copy it. Continue until the objective i</t>
+. 8. Randomly present an example of each shape that has been taught and re quest that the student copy it. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson COG 43 G</t>
@@ -5007,7 +5005,7 @@
 . 2. Continue the concept of Step 1 for the letters in the student's name
 . 3. Continue the concept of Step 1 for all other letters of t he alphabet
 . 4. Ask the student to randomly select a letter from the drawn samples and to copy it on a piece of paper. A group process in this activity can create an even better learning experience
-. 5. Continue Step 4, gradually increasing the number of samples the student is given until five randomly chosen letters are copied at one time</t>
+. 5. Continue Step 4, gradually increasing the number of samples the student is given until five randomly chosen letters are copied at one time.</t>
   </si>
   <si>
     <t>Lesson COG 44</t>
@@ -5032,7 +5030,7 @@
 . 2. Continue the concept of Step 1 for the remaining 19 words targeted to be taught
 . 3. Reduce t he use of copying letters to prompting the student to copy an entire word when shown a randomly selected sample. Provide physical guidance, where needed, but fade this assistance until only a verbal request is needed
 . 4. Continue the concept of Step 3 for all of the remaining 19 words
-. 5. Provide random presentation of the sample words to be copied, gradually adding more samples per request until five samples are randomly given to be c</t>
+. 5. Provide random presentation of the sample words to be copied, gradually adding more samples per request until five samples are randomly given to be copied.</t>
   </si>
   <si>
     <t>Lesson COG 45</t>
@@ -5057,7 +5055,7 @@
 . 2. Continue the concept of Step 1, adding asking the student to repeat the name of the letter selected
 . 3. Modify Step 2 into a "card game" format, asking the student t o pick a card and tell you the name of the letter. Another way of doing this task is in a group format if a number of students need this type of skill
 . 4. Gradually increase the number of samples given to the student, up to five random examples
-. 5. Continue until the objective is m</t>
+. 5. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson COG 46</t>
@@ -5083,7 +5081,7 @@
 . 3. Continue Step 2, using fewer connecting dots so that the dots no longer out line the letter but are placed at the key points needed for drawing to change direction
 . 4. Using the prompt of"please write the letters of the alphabet," physically guide the student through the process of writing each letter and prompt the student to say the name of each letter as it is printed
 . 5. Continue Step 4, reducing physical guidance until only verbal step - by - step prompts are needed
-. 6. Reduce all prompting until only the to tal - task request is n</t>
+. 6. Reduce all prompting until only the to tal - task request is needed.</t>
   </si>
   <si>
     <t>Lesson COG 47</t>
@@ -5109,7 +5107,7 @@
 . 3. Modify Step 2, physically guiding the student to drawing in a cursive style his or her first and last names beneath the sample that he or she printed
 . 4. Continue Step 3, reducing physical guidance until only step - by - step verbal requests are needed
 . 5. Prompt the student to "please write your name" and guid e him or her as needed through the process without the use of the printed sample
-. 6. Reduce all guidance and continue until objective is met. 2</t>
+. 6. Reduce all guidance and continue until objective is met. 25</t>
   </si>
   <si>
     <t>Lesson C G4S</t>
@@ -5135,7 +5133,7 @@
 . 3. Continue Step 2, adding letters not previously done and providing physical guidance as needed for all remaining letters
 . 4. Continue Step 3, reducing physical guidance until only verbal requests for specific letters are needed
 . 5. Continue Step 4, removing only the fl.ash card samples that are contained in the student's name
-. 6. Continue Step 5, gradually removing the remaining fl.ash card samples until none are left. Using the verbal prompt of"please write the letters of the alpha bet in cursive," continue until the objective i</t>
+. 6. Continue Step 5, gradually removing the remaining fl.ash card samples until none are left. Using the verbal prompt of"please write the letters of the alpha bet in cursive," continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson COG 49</t>
@@ -5157,7 +5155,7 @@
 . 2. Present numbers in order (1 - 20) and prompt the student to verbally respond as to the name of the number. If the student does not respond, prompt for verbal imitation (see prerequisite S&amp;L 6)
 . 3. Continue Step 2, reducing the verbal prompting to just the first sound of the name of the number
 . 4. Continue Step 3, reducing all prompting until the numerical sequence from 1 to 20 can be named when the flash cards are presented
-. 5. Modify Step 4 to presenting the numbers in a random manner. Continue until the objective is met. 25 7</t>
+. 5. Modify Step 4 to presenting the numbers in a random manner. Continue until the objective is met. 25</t>
   </si>
   <si>
     <t>Lesson COG 50</t>
@@ -5187,7 +5185,7 @@
 . 7. Modify Step 6 to using a double - digit number for the top number. Do not give examples where "carrying" over a number is neede d
 . 8. Modify Step 7 to introduce the concept of carrying numbers over to the second column
 . 9. Modify Step 8 to include double - digit numbers on both the top and bottom of the problem
-. 10. Provide the student with random problems (two numbers of no more than two digits each). Continue until the objective i</t>
+. 10. Provide the student with random problems (two numbers of no more than two digits each). Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson COG 51</t>
@@ -5211,7 +5209,7 @@
 . 7. Modify Step 6 to using a double - digit number for the top number. Do not give examples where "borrowing" from the column to the left is needed
 . 8. Modify Step 7 to introduce the concept of"borrowing" numbers over to the first column
 . 9. Modify Step 8 to include double - digit numbers on both the top and bottom of the problem. Because only positive numbers are being taught, the top number must always exceed in value the bottom numbe r
-. 10. Provide the student with random problems (two numbers of no more than two digits each). Continue until the objective is me</t>
+. 10. Provide the student with random problems (two numbers of no more than two digits each). Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson COG 52</t>
@@ -5237,7 +5235,7 @@
 . 3. Modify Step 2, placing color stickers by every third footprint, and demon strate the "threes" concept
 . 4. Continue Step 3 for the numbers 4 through 9
 . 5. Using the flash cards, begin with the ones, then twos, and so forth. Keep repeating the process, focusing on just one number series at a time
-. 6. Begin introducing the flash cards in a random manner. Continue until the objective i</t>
+. 6. Begin introducing the flash cards in a random manner. Continue until the objective is met.</t>
   </si>
   <si>
     <t>QI Lesson COG 53</t>
@@ -5263,7 +5261,7 @@
 . 3. Modify Step 2, using color stickers by every third footprint, and demonstrate the "threes" concept
 . 4. Continue Step 3 for the numbers 4 through 9
 . 5. Using the fl.ash cards, begin with the ones, then twos, and so forth. Keep repeating the process, focu sing on just one number series at a time
-. 6. Begin introducing the flash cards in a random manner. Continue until the objective is met</t>
+. 6. Begin introducing the flash cards in a random manner. Continue until the objective is met. ::··</t>
   </si>
   <si>
     <t>Lesson C G54</t>
@@ -5284,11 +5282,11 @@
     <t>Various markers and paper.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Review with the student the ability to identify his or her first name (COG 37). Add to that skill the ability to identify the printed last name
+    <t>1. Review with the student the ability to identify his or her first name (COG 37). Add to that skill the ability to identify the printed last name
 . 2. Using the student's ability to copy letters (COG 43), physically guide the stu dent through the process of printing his or her own name. After providing a sample from which to copy, prompt the student to say the name of each letter as it is printed
 . 3. Continue Step 2, reducing physical guidance, and prese nt the student with a connect - the - dots type of sample to use
 . 4. Continue Step 3 without using the connect - the - dots type of prompt, using step - by - step verbal prompts instead
-. 5. Reduce all guidance until none other than the request to "please write your name" is needed. Prompt the student to say the names of the letters if it does not automatically </t>
+. 5. Reduce all guidance until none other than the request to "please write your name" is needed. Prompt the student to say the names of the letters if it does not automatically occur.</t>
   </si>
   <si>
     <t>Lesson COG 55</t>
@@ -5306,10 +5304,10 @@
     <t>When asked to spell some identified simple words (none longer than five letters) that have been taught, the student will correctly write the words and say the letters of those words to a 90% accuracy level for 20 trials.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Select between 5 and 10 words that are small in size (no more than five let ters) that represent concrete objects common to the student's environment. Examples might be cup, ball, book, pen, and spoon
+    <t>1. Select between 5 and 10 words that are small in size (no more than five let ters) that represent concrete objects common to the student's environment. Examples might be cup, ball, book, pen, and spoon
 . 2. Present one of the selected words written in a block style to the student. Encourage the student to copy this example using the letter - copying skills from prer equisite COG 43. Provide gentle physical prompting as needed. Prompt the student to say the letter names of each letter as it is written
 . 3. Continue Step 2, reducing all prompting until the selected word can be printed and each letter stated with only the re quest to spell that word as a verbal prompt
-. 4. Repeat the concepts of Steps 2 and 3 for all other words that have been selected. Continue until the objective is met. 2 </t>
+. 4. Repeat the concepts of Steps 2 and 3 for all other words that have been selected. Continue until the objective is met. 2</t>
   </si>
   <si>
     <t>Lesson COG 56</t>
@@ -5334,7 +5332,7 @@
 . 2. Select one of the flash cards created in Step 1, show it to the student, and then physically guide (if needed) the student through the process of pointing to that object
 . 3. Continue Step 2, reducing guidance until only the verbal prompt of"show me where this is" or "point to this" or "show me where [name of person] is" is needed for the student to look at the card and point to the object or person
 . 4. Use the concept of Steps 2 and 3 for each one of the remaining words selected
-. 5. Begin presenting all of the words in a random manner. Continue until the objective i</t>
+. 5. Begin presenting all of the words in a random manner. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson COG 57</t>
@@ -5356,7 +5354,7 @@
   </si>
   <si>
     <t>1. Select one warning sign and take the student to a place where the sign is present or used. Explain to the student what the sign means and prompt a two - or three - word verbal association for that sign, such as "don't touch," "stay away ," or "don't go in there." 2. Continue Step 1 until the student provides the verbal response when asked, "What does this sign mean?" 3. Repeat the process of Steps 1 and 2 for all remaining selected signs
-. 4. Take the student to a variety of randomly selected sample signs (from the materials section) and continue until the objective is me</t>
+. 4. Take the student to a variety of randomly selected sample signs (from the materials section) and continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson COG 58</t>
@@ -5378,7 +5376,7 @@
   </si>
   <si>
     <t>1. Select one information sign and take the student to a place where the sign is present or used. Explain to the student the sign's name and prompt a one - or two - word type of verbal association for that sign such as "men," "McDonald's," or "River Road." 2. After completing Step 1, prompt the student to provide a brief verbal response when asked, "What does this sign mean?" Examples might be "dinner," "go bathroom," "go town," or "call home." 3. Repeat the process of Steps 1 and 2 for all of the remaining selected signs
-. 4. Randomly present sample signs (from the materials section) and continue until the objective i</t>
+. 4. Randomly present sample signs (from the materials section) and continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson COG 59</t>
@@ -5399,7 +5397,7 @@
     <t>1. P resent one of the selected pictures with the word printed beneath it to the student. Below the word, draw a box for each phoneme or sound contained in that word. Prompt the student to place a poker chip in each box as each sound is produced
 . 2. Continue Step 1 for all other selected words
 . 3. Continue Step 2, gradually reducing the use of the boxes until the word and picture are presented and the student can identify each sound in the word
-. 4. Although the objective is met in Step 3, it can be helpful to present the words without the picture cues. 2 6</t>
+. 4. Although the objective is met in Step 3, it can be helpful to present the words without the picture cues. 2</t>
   </si>
   <si>
     <t>Lesson COG 60</t>
@@ -5420,11 +5418,11 @@
     <t>Flash - card samples of the words selected, various books or magazines that would contain those words, paper, various - size markers, and a highlighter.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Expand upon the skills learned in the lesson for "recognize everyday words" (COG 56) by introducing 20 words that you have chosen to teach in this exercise
+    <t>1. Expand upon the skills learned in the lesson for "recognize everyday words" (COG 56) by introducing 20 words that you have chosen to teach in this exercise
 . 2. Select one of the more common and shorter words that have been taught in Step 1. Present some written document or book and demonstrate to the stu dent where that word appears in the written sample. A highlighter marker can be used to draw attention to eac h example
 . 3. Write down some five - to six - word sentences in large block print that con tain the targeted word. Guide the student in locating the target word in that sentence without the use of a highlighter. Reduce guidance until the student can perform thi s independently
 . 4. Using the concept of Step 3, use a book or magazine article in the same manner
-. 5. Employ Steps 1 through 4 for all remaining </t>
+. 5. Employ Steps 1 through 4 for all remaining words.</t>
   </si>
   <si>
     <t>Lesson COG 61</t>
@@ -5448,7 +5446,7 @@
     <t>1. Capitalizing on the skill of reading specific words (COG 60), teach additional word - recognition skills to add words that would be needed to create sentences. Use the concrete objects where reasonable to develop an association between the written words and the items presented
 . 2. Construct flash cards with the specific words learned on them and arrange the cards into a sentence format. Initially keep the sentence length short but make sure that the word cards represent complete sentences
 . 3. Verbally prompt the student to imitate each word of the sample sentences
-. 4. Reduce verbal prompting and replace with the request to "please read this sen tence," using a sentence written on paper instead of the flash cards. Continue until the objective is me</t>
+. 4. Reduce verbal prompting and replace with the request to "please read this sen tence," using a sentence written on paper instead of the flash cards. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson COG 62</t>
@@ -5472,7 +5470,7 @@
     <t>1. Read to the student various comic strip selections perceived to be of interest to the student. Use your fi nger to point to each word as it is being read
 . 2. Continue Step 1, pausing at words known to have been previously read by the student and ask him or her to tell you what that specific word is
 . 3. Continue Step 2, pausing at specific word choices for which the student has not demonstrated reading ability and verbally prompt the student to imitate that new word
-. 4. Reverse the concept of providing the cues for each word, having the student attempt to identify each word and allowing him or her to ask for assistance w hen he or she does not know a specific word. Continue this step until the objective i</t>
+. 4. Reverse the concept of providing the cues for each word, having the student attempt to identify each word and allowing him or her to ask for assistance w hen he or she does not know a specific word. Continue this step until the objective is met.</t>
   </si>
   <si>
     <t>Lesson COG 63</t>
@@ -5499,7 +5497,7 @@
 . 4. Begin reading each sentence, stop around the halfway point, and prompt the student to com plete the rest of the sentence. Give the student plenty of time and only provide assistance when it is clear that he or she does not know the words involved
 . 5. Continue Step 4, gradually reducing the amount of each sentence being read until the student is ma king an effort to fully read each sentence. Continue to provide assistance where word or comprehension problems occur
 . 6. Expand the concept of Step 5 to include an entire article
-. 7. Although the objective can be met in Step 6, discuss with the student the contents of the article to ensure that he or she understood it.</t>
+. 7. Although the objective can be met in Step 6, discuss with the student the contents of the article to ensure that he or she understood it. --</t>
   </si>
   <si>
     <t>Lesson COG 64</t>
@@ -5520,10 +5518,10 @@
     <t>Short stori es similar to brief newspaper articles or magazine articles and that relate to topics of interest to the student, some concrete objects common to the environment that are distinctly visually different.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Select two objects that are common to t he student's environment and that are visually different. Using the prerequisite skill of discriminating between objects (ADT 5), have the student point to each object
+    <t>1. Select two objects that are common to t he student's environment and that are visually different. Using the prerequisite skill of discriminating between objects (ADT 5), have the student point to each object
 . 2. Modify Step 1 by pointing to one of the objects and asking, "Is this the [item name]?" Prompt the correct yes or no verbal imitative response. Correct (yes) and incorrect (no) examples should be randomly presented
 . 3. Continue Step 2, reducing verbal imitatio n prompting until the student can independently respond "yes" or "no." 4. Provide the student with a brief story to read and ask him or her yes/no types of questions regarding the main topic of the story
-. 5. Expand upon Step 4 by asking yes/no questions that req uest information beyond the basic information of the </t>
+. 5. Expand upon Step 4 by asking yes/no questions that req uest information beyond the basic information of the story.</t>
   </si>
   <si>
     <t>273d Lesson COG 65</t>
@@ -5549,7 +5547,7 @@
 . 3. Continue Step 2, reducing the prompting for the single - word response until the one - word answer is given without prompting
 . 4. Repeat Steps 2 and 3 for a variety of other questions that would require a one - word response
 . 5. Using the concepts of Steps 1 and 2, expand the answer potential to a two word response and prompt as needed
-. 6. Continue the concept of Step 4 to receive a variety of answers that relate to the sto</t>
+. 6. Continue the concept of Step</t>
   </si>
   <si>
     <t>Lesson COG 66</t>
@@ -5573,7 +5571,7 @@
     <t>1. Tell the student a story on a topic of known interest to the student
 . 2. Upon completion of the story, make a statement of fact about the story, im mediately rephrase the statement into a question, and prompt a "yes" response. For example, if the main character in the story was a dog named Rover, a statement that could be made is that "Rover is a dog." To rephrase that state ment as a yes/no question, ask, "Was Rover a dog?" After asking the question, p rompt the student, if necessary, to respond with "yes." 3. Continue Step 2, adding more questions that result in a "yes" answer
 . 4. Introduce and randomly present questions that would be answered "no." Begin with obviously wrong statements. For example, using th e story identified in Step 2 and assuming that a cat was not a part of the story, a good "no" ques tion could be "Was Rover a cat?" Initially prompt the "no" response and then explain what the correct response is
-. 5. Reduce prompting and continue until the o bjective i</t>
+. 5. Reduce prompting and continue until the o bjective is met.</t>
   </si>
   <si>
     <t>Lesson COG 67</t>
@@ -5598,7 +5596,7 @@
 . 2. Perform the concept of Step 1 for the left hand
 . 3. Combine the concepts of Steps 1 and 2 by randomly demonstrating both the left and right hands
 . 4. Continue Step 3, slowly reducing physical guidance until only gestural and verbal prompting are needed, and replace the statements from Steps 1 and 2 with "Show me your (right or left) hand." 5. Slowly reduce the gestural prompting until only the verbal request from Step 4 is used. Continue until the objective is met
-. 6. Create a simplified tabletop version of the game Twister by creating a poster with a 4 - inch by 4 - inch grid. Draw a thick line down the center of the poster and color in each grid square on the left and right side with different colors. Have the student place a marker on the color requested on the left or right sid</t>
+. 6. Create a simplified tabletop version of the game Twister by creating a poster with a 4 - inch by 4 - inch grid. Draw a thick line down the center of the poster and color in each grid square on the left and right side with different colors. Have the student place a marker on the color requested on the left or right side.</t>
   </si>
   <si>
     <t>Lesson COG 68</t>
@@ -5619,7 +5617,7 @@
     <t>1. Beginning with items or objects known to be of interest to the student, discuss specific adjective descriptions of each item, such as the color, size, or texture
 . 2. Continue Step 1, verbally prompting the student to imitate the descriptive words that have been used
 . 3. Reduce imitative prompting, substituting questions such as, "What color is this?" or "Is this smooth or rough?" 4. Using an article of interest to the student, highlight each of the adjectives in the article. Have the student read each of the highlighted words. Discuss with the student the meaning of these words
-. 5. Continue Step 4, reducing the use of the highlighter until it is no longer needed. Continue this step until the objective i</t>
+. 5. Continue Step 4, reducing the use of the highlighter until it is no longer needed. Continue this step until the objective is met.</t>
   </si>
   <si>
     <t>Lesson COG 69</t>
@@ -5644,7 +5642,7 @@
 . 2. Continue Step 1, stopping after a yes/no response, and ask a question about the story that would require a one - word response such as a character's name or an action performed. If the student does not respond, provide the answer and prompt the student to ve rbally imitate the answer. Use objects that repre sent issues related to the story to assist with the answer. Continue with just that one question
 . 3. Continue Step 2, reducing the prompting for the single - word response until the one - word answer is given wit hout any prompting other than the question itsel£ 4. Repeat Steps 2 and 3 for a variety of other questions that would require a one - word response
 . 5. Using the concepts of Steps 1 and 2, expand the answer potential to a two word response and prompt as needed
-. 6. C ontinue the concept of Step 4 to receive a variety of answers that relate to the stor</t>
+. 6. C ontinue the concept of Step 4 to receive a variety of answers that relate to the story.</t>
   </si>
   <si>
     <t>Lesson COG 70</t>
@@ -5668,7 +5666,7 @@
     <t>1. Discuss with the student businesses or people that the student enjoys
 . 2. Based on the information obtained in Step 1, use the phone book to locate the appropriate telephone number. Write down the number and prompt the student to copy the written sample, one number at a time, as you provide the sample both verbally and in writing
 . 3. Continue Step 2, slowly reducing the written sample aspect until only verbal prompting is needed
-. 4. Continue Step 3, modifying the number presentation from one number at a time to the first three numbers and then the remaining four nu</t>
+. 4. Continue Step 3, modifying the number presentation from one number at a time to the first three numbers and then the remaining four numbers.</t>
   </si>
   <si>
     <t>Lesson COG 71</t>
@@ -5692,7 +5690,7 @@
     <t>1. Verbally present a single - digit randomly selected numbe r and ask that the student remember that number. Engage the student in any activity that he or she enjoys. After approximately 1 minute, ask the student to tell you what the single - digit number was. Continue this process until an 80% accuracy level can be achieved over 10 trials
 . 2. Modify Step 1 to asking the student to retain a two - digit number
 . 3. Modify Step 2 by gradually increasing the size of the numbers to be retained until a three - digit number and a four - digit number are remembered
-. 4. Continue Step 3, grad ually increasing the time frame for remembering to 5 minutes, and present the two numbers as telephone numbers. Help the student remember these numbers by sharing the place or location to which that phone number relates</t>
+. 4. Continue Step 3, grad ually increasing the time frame for remembering to 5 minutes, and present the two numbers as telephone numbers. Help the student remember these numbers by sharing the place or location to which that phone number relates.</t>
   </si>
   <si>
     <t>Lesson COG 72</t>
@@ -5717,7 +5715,7 @@
 . 2. Use your calculator to demonstrate a basic single - digit addition problem. Encourage and guide the student to perform the same math activity on his or her calculator
 . 3. Continue the process outlined in Step 2, adding examples of subtraction, multiplication, and division problems
 . 4. Reduce the example aspect un til only verbal presentation of the problem is needed
-. 5. Continue Step 4, increasing the numbers given for problem samples until three - digit numbers can be</t>
+. 5. Continue Step 4, increasing the numbers given for problem samples until three - digit numbers can be used.</t>
   </si>
   <si>
     <t>Lesson COG 73</t>
@@ -5738,7 +5736,7 @@
     <t>1. Select 10 pairs of opposite words that appear to have relevance to the student and his or her environment. Present each of these word pairs to the student and attempt to illustrate the concept of the words with these items
 . 2. Select one set of opposites, preferably a set that can easily be represented by concrete objects from the environment. Verbally offer one of the paired words to the student and prompt the student to res pond with the word that is con sidered the opposite. If the student needs assistance, attempt verbal imitation as a prompt
 . 3. Continue Step 2, randomly reversing which word is offered so that the stu dent will respond with the other word in the set when given either one as a prompt. Reduce prompting until the student will respond correctly only when given one of the words in the pair
-. 4. Continue Steps 2 and 3 for all remaining opposite word pairs. 28 1</t>
+. 4. Continue Steps 2 and 3 for all remaining opposite word pairs. 28</t>
   </si>
   <si>
     <t>Lesson COG 74</t>
@@ -5759,7 +5757,7 @@
     <t>1. Present related items and the photo for the current season. Tell the student that this is a picture of (current season) and show the student that these are some of the things we use during (current season). Guide the student to point or otherwise indicate the pic ture that represents that season. Use the calendar to show the student the months of the year that represent that season
 . 2. Continue Step 1, reducing guidance until the student will point to the picture when requested to "show me (the current season)." 3. Add t o Step 2 the season that will occur after the season being discussed
 . 4. Add to Step 3 the two remaining seasons
-. 5. Continue Step 4, removing all prompts other than the pictures thems</t>
+. 5. Continue Step 4, removing all prompts other than the pictures themselves.</t>
   </si>
   <si>
     <t>Lesson COG 75</t>
@@ -5784,7 +5782,7 @@
 . 2. Continue Step 1, reducing all physical guidance to the point where only verbal prompting is needed
 . 3. Continue Step 2, adding additional days of significance such as holidays, birthdays of friends, and the current date
 . 4. Be gin adding randomly selected days of the year and ask the student to show you (the randomly chosen date)
-. 5. Continue Step 4, adding a further request to identify the day of the week for the date selected</t>
+. 5. Continue Step 4, adding a further request to identify the day of the week for the date selected. 28</t>
   </si>
   <si>
     <t>Lesson SEN 1</t>
@@ -5802,7 +5800,7 @@
     <t>1. Begin interaction with the student by using all other known sensory modali ties such as talking to the student, showing him or her a favorite t oy or object, or playing familiar music. Attempt to elicit any kind of positive response. If a positive response occurs, immediately praise the student in a very active man ner for every occurrence
 . 2. After rapport with the student has been established, attempt to couple a posi tive response in the activity of Step 1 to a firm grasp on the student's arm or shoulder, along with verbal praise
 . 3. Modify Step 2 to a light touch
-. 4. Continue Step 3, minimizing the verbal response action and emphasizing the touch a spect</t>
+. 4. Continue Step 3, minimizing the verbal response action and emphasizing the touch a spect.</t>
   </si>
   <si>
     <t>Lesson SE 2</t>
@@ -5823,7 +5821,7 @@
     <t>1. Begin interaction with the student by using all other known sensory modali ties such as physically interacting with the student, showing him or her a favorite toy or object, or playing familiar music. Attempt to elicit any kind of positive response. If a positive response occurs, immediately praise the student in a very active manner for every occurrence
 . 2. After rapport with the student has been established, attempt to couple a posi tive response, such as that elicited in Step 1, to your voice and a musica l tone
 . 3. Modify Step 2 to only presenting auditory stimulation. Physically prompt the attending response as needed
-. 4. Continue Step 3, gradually reducing the prompting needed to elicit the res</t>
+. 4. Continue Step 3, gradually reducing the prompting needed to elicit the response.</t>
   </si>
   <si>
     <t>Lesson SE 3</t>
@@ -5844,8 +5842,8 @@
     <t>Various age - appropriate items that also create sounds, vib rations, and/or pleasant odors. Numerous toys and therapeutic devices are available that can meet these requirements, but if items common to the student's environment can meet these criteria, they are preferred.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Present various items descri bed in the materials section to the student and attempt to determine any responsiveness, even if that response is to sound, vibration, or odor. If responsiveness in any form is observed from any sensory input, provide extensive positive reinforcement to the student verbally and tactilely. (Note. Be sensitive to possible tactile defensiveness by the student. If that occurs, avoid using touch as reinforcement.) 2. Having determined in Step 1 the items to which the student responds, use the same or similar items in such a manner that only visual stimulation is used. If responses are not present, physically guide the student's head or body in the direction of the visual source. Provide extensive reinforcement to the student when he or she is facing the object
-. 3. Continue Step 2, gradually reducing the physical guidance until none is needed. If this activity is unsuccessful, try changing the object being visually introduced. 289 </t>
+    <t>1. Present various items descri bed in the materials section to the student and attempt to determine any responsiveness, even if that response is to sound, vibration, or odor. If responsiveness in any form is observed from any sensory input, provide extensive positive reinforcement to the student verbally and tactilely. (Note. Be sensitive to possible tactile defensiveness by the student. If that occurs, avoid using touch as reinforcement.) 2. Having determined in Step 1 the items to which the student responds, use the same or similar items in such a manner that only visual stimulation is used. If responses are not present, physically guide the student's head or body in the direction of the visual source. Provide extensive reinforcement to the student when he or she is facing the object
+. 3. Continue Step 2, gradually reducing the physical guidance until none is needed. If this activity is unsuccessful, try changing the object being visually introduced.</t>
   </si>
   <si>
     <t>Lesson SE 4</t>
@@ -5865,7 +5863,7 @@
   <si>
     <t>1. Although mealtime is the best te achable moment for this interaction, any time that the student wants some food is an opportunity. Using foods that are more bland than strong, select one item that represents each one of the four categories listed in the materials section and offer it to the student. Do not force consumption under any circumstance. Remember, only a taste is needed
 . 2. While performing Step 1, observe for any reaction such as leaning head toward or away from the source, smiling, frowning, opening the mouth, closing the mouth, or making eye contact. Verbally reinforce any positive response and offer more to the student
-. 3. Select the type of food (e.g., sweet, sour) that appears to be the best received and attempt to meet the objective. Share the results with other involved pe</t>
+. 3. Select the type of food (e.g., sweet, sour) that appears to be the best received and attempt to meet the objective. Share the results with other involved persons.</t>
   </si>
   <si>
     <t>Lesson SE 5</t>
@@ -5885,7 +5883,7 @@
   <si>
     <t>1. Present items listed in the materials section to the student. If any unpleasant reactions are noted, do not use that type of odor again
 . 2. While performing Step 1, observe for any reaction such as the student leaning his or her head toward or away from the source, smiling, frowning, inhaling, or making eye contact. Verbally reinforce any positive response and offer simi lar presentations to the student
-. 3. Select the type of odor that appears to be the best received and attempt to meet the objective. Share the results with other involved persons</t>
+. 3. Select the type of odor that appears to be the best received and attempt to meet the objective. Share the results with other involved persons. 29</t>
   </si>
   <si>
     <t>Lesson SEN 6</t>
@@ -5909,7 +5907,7 @@
     <t>1. Engage the student in activities related to items contained in the materials section. Continue this process until one or two specific activities are identified that the student appears to enjoy
 . 2. Using the activity or activities identified in Step 1, allow the student to per form these acts only while standing. Because previous standing behavior is assumed not to have been present, physical guidance will initially be necessary. Have the student perform this step for 1 minute
 . 3. Continue Step 2, reducing physical guidance until only verbal prompting or praise is needed
-. 4. Continue Step 3, reducing all guidance and gradually increase the time period to 3 minutes until the objective i</t>
+. 4. Continue Step 3, reducing all guidance and gradually increase the time period to 3 minutes until the objective is met.</t>
   </si>
   <si>
     <t>Lesson SEN 7</t>
@@ -5928,7 +5926,7 @@
 . 3. Continue Step 2, gradually increasing the speed the student uses until a nor mal stride speed is obtained
 . 4. Continue Step 3, removing every other paper footstep
 . 5. Continue Step 4, reducing physical guidance until none is needed and only verbal encouragement or praise is used
-. 6. Remove all forms of prompting, including all paper footsteps, and continue until the objective is met. 29 3 Q</t>
+. 6. Remove all forms of prompting, including all paper footsteps, and continue until the objective is met. 29</t>
   </si>
   <si>
     <t>Lesson SEN 8</t>
@@ -5949,7 +5947,7 @@
     <t>1. Verify that the objects or activities that have been identified in the materials section are desired by the student
 . 2. Keeping the objects identified in Step 1 out of the visual field of the student, use gentle physical guidance to guide the student to stand next to the chair that will be used. Immediately provide the student with the a ctivities or ob jects identified in the materials section and allow him or her to participate in that action for a few minutes. At this point, actual sitting is not performed
 . 3. Add to Step 2 physically guiding the student to turn with his or her back to the chair. Gently press down on the student's shoulder while gently pushing the back of the knee forward to facilitate the bending of the knee. (Some times an instructor on either side of the student can ensure more safety.) Do not force this action. It may take repeated efforts to accomplish this step. As soon as the student sits in the chair, immediately provide the objects or activities that the student desires and a lot of verbal praise
-. 4. Continue Step 3, reducing the physical prompting, and attempt to replace it with gestural and verbal req</t>
+. 4. Continue Step 3, reducing the physical prompting, and attempt to replace it with gestural and verbal requests.</t>
   </si>
   <si>
     <t>Lesson SE 9</t>
@@ -5973,7 +5971,7 @@
     <t>1. In the presence of a walking - pace piece of music, physically assist the student in walking to that beat around the room. Reduce physical guidance until the student can maintain the rhythm independently
 . 2. Modify the music to a faster beat and again provide physical guidance as needed. Reduce guidance until no longer necessary
 . 3. Transfer the learning situation from the class setting to an outdoor area with out the use of music. Run alongside of the student to ensure safety and physi cal guidance as needed
-. 4. Continue Step 3, addi ng the verbal prompt of asking the student to jog or run before beginning the activit</t>
+. 4. Continue Step 3, addi ng the verbal prompt of asking the student to jog or run before beginning the activity.</t>
   </si>
   <si>
     <t>Lesson SEN 1O</t>
@@ -5998,7 +5996,7 @@
 . 2. Continue Step 1, modifying the movement from stepping to jumping with both feet. Be sure to provide full physical support to the student in this step
 . 3. Modify Step 2 by gradually increasing the distance to be jumped f rom 12 inches up to 24 inches
 . 4. Continue Step 3, reducing physical guidance and support until none is needed
-. 5. Remove the paper prompts and verbally encourage the student to jump. Continue until the objective i</t>
+. 5. Remove the paper prompts and verbally encourage the student to jump. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson SE 11</t>
@@ -6019,7 +6017,7 @@
     <t>1. Begin by presenting objects known to be of interest to the student (see the materials section). Interact with the student and attempt to determine which item appears to have the greatest interest. Place that item about 2 feet away from the student and physically guide his or her arm toward that object. Im mediately allow the student to interact with the object
 . 2. Continue Step 1, reducing physical guidance and replacing it with verbal and gestural prompting
 . 3. Continue Step 2, reducing all prompting until none is needed
-. 4. Repeat the concepts of Steps 1 through 3 for other items common to the student's environment. 2 9</t>
+. 4. Repeat the concepts of Steps 1 through 3 for other items common to the student's environment. 2</t>
   </si>
   <si>
     <t>Lesson SEN 12</t>
@@ -6042,7 +6040,7 @@
   <si>
     <t>1. Review with the student the action involved in reaching for an object (see prerequisite SEN 11), using the objects determined in the materials section. (Note. The arm that the student chooses to use probably represents the domi nant hand. Use this hand for the grasping activities.) 2. When the student's hand comes in proximity to the object, gently open or extend the student's fingers and physically guide them through the process of grasping and liftin g the object
 . 3. Continue Step 2, gradually reducing the physical assistance provided until only gestural and verbal prompting is needed
-. 4. Continue Step 3, reducing all prompting to a verbal request: "Please pick up the (name of object)." Continue until the ob jective i</t>
+. 4. Continue Step 3, reducing all prompting to a verbal request: "Please pick up the (name of object)." Continue until the ob jective is met.</t>
   </si>
   <si>
     <t>Lesson SEt -- 1 13</t>
@@ -6066,7 +6064,7 @@
     <t>1. Review with the student the concept of picking up items using his or her hand
 . 2. Modify Step 1 by gradually introducing objects that can b e picked up just using all four fingers and the thumb
 . 3. Introduce to the student a spring - loaded clothespin and demonstrate the action needed to open and close the pin. Provide physical guidance to the student as needed and reduce that prompting until the student can indepen dently open and close the clothespin. If muscular ability with this activity is weak, continue this task until the student is capable of performing the open ing and closing for a number of times during a class setting. This activity m imics the pincer grasp
-. 4. Introduce Cheerios or a similar desired food and guide the student to pick these items up with a pincer grasp. Allow the student to eat the items picked up, especially if this is a desired food. Reduce all needed prompting and con tinue until the objective i</t>
+. 4. Introduce Cheerios or a similar desired food and guide the student to pick these items up with a pincer grasp. Allow the student to eat the items picked up, especially if this is a desired food. Reduce all needed prompting and con tinue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson SEN 14</t>
@@ -6091,7 +6089,7 @@
 . 2. Co ntinue Step 1, reducing the physical guidance until only gestural prompt ing is needed along with the verbal prompting
 . 3. Continue Step 2, reducing the gestural prompting until only verbal cues are needed
 . 4. Modify Step 3 by replacing the large container with the medium - size container
-. 5. Modify Step 4 by replacing the medium - size container with the smaller one. Continue until the objective i</t>
+. 5. Modify Step 4 by replacing the medium - size container with the smaller one. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson SE 15</t>
@@ -6111,7 +6109,7 @@
   <si>
     <t>1. Introduce the student to two of the blocks referenced in the materials section. Physically guide the student through the process of stacking just those two blocks
 . 2. Continue Step 1, reducing physical guidance until only verbal requests are needed
-. 3. Continue the concept of Steps 1 and 2, gradually adding blocks until a total of five blocks are stacked. Continue until the objective is met. 30 1 Q</t>
+. 3. Continue the concept of Steps 1 and 2, gradually adding blocks until a total of five blocks are stacked. Continue until the objective is met. 30</t>
   </si>
   <si>
     <t>Lesson SEN 16</t>
@@ -6135,7 +6133,7 @@
     <t>1. Using the prerequisite skills of picking up an object in the hands (SEN 12) and holding it (ADT 3), encourage the student to pick up the scoop with a full - hand grip. Have the student wave the scoop around, perhaps in time to music, to gain control over and develop a secure holding of the scoop
 . 2. Physically assist the student in placing the scoop into the sand and guide him or her to placing the scooped sand into a pile. Use a lot of verbal guidance and praise as well
 . 3. Continue Step 2, reducing physical guidance until just gestural and verbal prompting is needed
-. 4. Continue Step 3, reducin g all guidance until only step - by - step verbal prompt ing is needed. Proceed to total - task verbal prompting: "(Name), please scoop some sand." Continue until the objective i</t>
+. 4. Continue Step 3, reducin g all guidance until only step - by - step verbal prompt ing is needed. Proceed to total - task verbal prompting: "(Name), please scoop some sand." Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson SEN 17</t>
@@ -6157,7 +6155,7 @@
 . 2. Continue Step 1, adding the movement of the peg toward the pegboard
 . 3. Continue Step 2, adding physical assistance in placing the peg in a hole anywhere on the pegboard
 . 4. Gradually reduce the physical guidance needed, first with the aspects of Step 1, then Step 2, and finally to Step 3, until only step - by - step verbal prompting is needed
-. 5. Reduce all prompting except for the total - task request: "(Name), please put the pegs in the board." 6. Gradually increase the number of pegs provided to 10 and continue until the objective is met. 3 0</t>
+. 5. Reduce all prompting except for the total - task request: "(Name), please put the pegs in the board." 6. Gradually increase the number of pegs provided to 10 and continue until the objective is met. 3</t>
   </si>
   <si>
     <t>Lesson SEN 18</t>
@@ -6182,7 +6180,7 @@
 . 2. Having selected in Step 1 the jar to be used, place items (small toys or food) into the jar and place the lid on loosely. Physically assist the student through the process of gripping the jar with the nondominant hand, placing the dominant hand on the lid, and twisting and lifting the lid until it has been removed. Allow the student to interact with the items that were placed in the jar
 . 3. Continue Step 2, screwing the lid all the way down on the jar. Be certain not to close it too tightly
 . 4. Gradually reduce all physical prompting until only gestural and verbal step by - step prompting is needed
-. 5. Gradually reduce the prompting provided in Step 4 until you need only the total - task request of"please take off this lid." Continue until the objective i</t>
+. 5. Gradually reduce the prompting provided in Step 4 until you need only the total - task request of"please take off this lid." Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson SEN 19</t>
@@ -6200,7 +6198,7 @@
     <t>1. Introduce the student to the various jars selected in the materials section. As sist the student in placing his or her dominant hand on the lid. Attempt to find one jar whose lid or cap is approximat ely the size of the student's palm
 . 2. Having selected the jar in Step 1 to be used, place items (small toys or food) into the jar. Physically assist the student through the process of gripping the lid in the dominant hand and bringing it to the mouth of the jar. Guide the student in rotating the lid until the threads begin to "catch." 3. Repeat the skill performed in Step 1 and physically guide the student through the process of turning the lid until it is secure
 . 4. Gradually reduce all physical prompting until o nly gestural and verbal step by - step prompting is needed
-. 5. Gradually reduce the prompting provided in Step 4 until you need only the total - task request of "please put on this lid." Continue until the objective is me</t>
+. 5. Gradually reduce the prompting provided in Step 4 until you need only the total - task request of "please put on this lid." Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson SEN 20</t>
@@ -6226,7 +6224,7 @@
 . 3. Continue Step 2, reducing physical guidance until only step - by - step verbal prompts are needed
 . 4. Modify the puzzle presented in Step 3, making the shapes less geometric but still using only four pieces
 . 5. Gradually increase the number of pieces in the puzzle until there are at least eight, with each shape having a different form
-. 6. Reduce the step - by - step verbal prompting until you need only the total - task request: "(Name), please put this toge</t>
+. 6. Reduce the step - by - step verbal prompting until you need only the total - task request: "(Name), please put this together."</t>
   </si>
   <si>
     <t>Lesson SEN 21</t>
@@ -6250,7 +6248,7 @@
     <t>1. Demonstrate to the student the action involved in turning a light on and then off. Use the words on and off as this action is performed. Encourage the stu dent to respond or otherwise indicate when the light is on and when it is off
 . 2. Request that the student help turn the light on or off and provide physical guidance as needed to perform this task
 . 3. Continue Step 2, reducing the physical guidance until only gestural and step by - step verbal prompting is needed
-. 4. Redu ce all prompting until you need only the total - task request: "(Name), please turn off (or on) the lights." Continue until the objective is met. 307</t>
+. 4. Redu ce all prompting until you need only the total - task request: "(Name), please turn off (or on) the lights." Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson SEN 22</t>
@@ -6273,7 +6271,7 @@
 . 3. Continue Step 2, introducing the swinging of the leg back and forth in a kicking motion
 . 4. Continue Step 3, reducing physical guidance until none is needed. Be obse vant and assist where needed to maintain balance after the kicking action is performed
 . 5. Place a ball in a location where contact would be made by the process per formed in Step 4
-. 6. Introduce a game, preferably involving other students, where the kicking action has a pu</t>
+. 6. Introduce a game, preferably involving other students, where the kicking action has a purpose.</t>
   </si>
   <si>
     <t>Lesson SE 23</t>
@@ -6294,11 +6292,11 @@
     <t>Various balls of approximately a basketball size.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Begin by prompting the student to sit in a manner where the legs are spread enough to allow for the ball to be placed between the legs. If for physical rea sons this cannot be performed, the student could be encouraged to lie on his or her side
+    <t>1. Begin by prompting the student to sit in a manner where the legs are spread enough to allow for the ball to be placed between the legs. If for physical rea sons this cannot be performed, the student could be encouraged to lie on his or her side
 . 2. Introduce the ball to the s tudent and prompt the student to place his or her hand on top of the ball
 . 3. Physically guide the student to quickly move his or her hand forward when placed on the ball. Guide the student to perform this task until the ball travels forward
 . 4. Continue Step 3 , reducing physical guidance until none is needed
-. 5. Introduce the concept of Step 4 in a manner where the ball is directed toward another student or the teacher. Continue with this process by using game type activities. </t>
+. 5. Introduce the concept of Step 4 in a manner where the ball is directed toward another student or the teacher. Continue with this process by using game type activities.</t>
   </si>
   <si>
     <t>Lesson SEN 24</t>
@@ -6322,7 +6320,7 @@
     <t>1. Using the pillow, begin by prompting the student to hold the pillow. Moving the pillow about 1 foot away from the student, gently throw the pillow to the student. Provide physical assistance if needed
 . 2. Continue Step 1, gradually increasing the distance for throwing the pillow to 5 feet
 . 3. Replace the pillow with the beach ball. If difficulties are encountered, let some air out of the ball to make its texture closer to that of the pillow
-. 4. Replace the beach ball with a basketball. If difficulties are encountered, begin this step by first sitting down with the student, rolling the ball to him or her, and then transitioning to a standing pos</t>
+. 4. Replace the beach ball with a basketball. If difficulties are encountered, begin this step by first sitting down with the student, rolling the ball to him or her, and then transitioning to a standing position.</t>
   </si>
   <si>
     <t>Lesson SE 25</t>
@@ -6343,10 +6341,10 @@
     <t>A basketball or similar type of ball.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Review with the student his or her ability to hold the ball (ADT 3). Proceed to the next step when the student will hold the ball with two hands for at least 5 seconds
+    <t>1. Review with the student his or her ability to hold the ball (ADT 3). Proceed to the next step when the student will hold the ball with two hands for at least 5 seconds
 . 2. Physically guide the student to take the ball and release it to achieve a bounc ing action
 . 3. Continue the concept of Step 2, gradually moving away from the student and encouraging him or her to bounce the ball toward the teacher or another student
-. 4. Upon mastery of Step 3, create an informal game using this skill and continue until the objective is met. 3 </t>
+. 4. Upon mastery of Step 3, create an informal game using this skill and continue until the objective is met. 3</t>
   </si>
   <si>
     <t>Lesson SEN 26</t>
@@ -6367,7 +6365,7 @@
     <t>1. Escort the student to the door that has been selected. Demonstrate to the student the action of opening and closing the door. Use the words "open'' and "close" as you perform the action
 . 2. Open the door and physically guide the student through the process of clos ing the door, using the word "close" as you do it
 . 3. Reduce physical guidance and replace that action with gestural prompting. Continue using the single word "close" when the action takes place
-. 4. Reduce all prompting other than the word "close." 5. Expand the verbal prompt "close" to "please close the door." Continue until the objective i</t>
+. 4. Reduce all prompting other than the word "close." 5. Expand the verbal prompt "close" to "please close the door." Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson SE 27</t>
@@ -6391,7 +6389,7 @@
     <t>1. Escort the student to the door that has been selected. Demonstrate to the student the action of opening and closing the door. Use the words "open'' and "close" as you perform the action
 . 2. Close the door and physically guide the student through the process of open ing the door, using the word "open'' as you do it
 . 3. Reduce physical guidance and replace that action with ge stural prompting. Continue using the single word "open'' when that action takes place
-. 4. Reduce all prompting other than the word "open." 5. Expand the verbal prompt "open'' to "please open the door." Continue until the objective is me</t>
+. 4. Reduce all prompting other than the word "open." 5. Expand the verbal prompt "open'' to "please open the door." Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson SE 28</t>
@@ -6417,7 +6415,7 @@
 . 3. Continue Step 2, increasing the period of time provided for assisted riding until 3 minutes is accomplished
 . 4. Continue Step 3, reducing the two - handed physical prompting to one handed prompting. Prompt the student to assist by pushing the pedals
 . 5. Continue Step 4, reducing all physical assistance, but stay physically present with the student
-. 6. Continue Step 5, slowly distancing yourself from the student until indepen dence is ach</t>
+. 6. Continue Step 5, slowly distancing yourself from the student until indepen dence is achieved.</t>
   </si>
   <si>
     <t>Lesson SE 29</t>
@@ -6435,11 +6433,11 @@
     <t>A two - wheeled bike of appropriate size to the student, training wheels, and a safety helmet.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Review with the student the actions used when riding with training wheels (see the prerequisite)
+    <t>1. Review with the student the actions used when riding with training wheels (see the prerequisite)
 . 2. Adjust the training wheels slightly upward so that a small amount of side - to side movement occurs, but not enough to cause the bike to tip over, and pro vide physical guidance by grabbing the back of the seat as the student rides
 . 3. Continue Step 2, slowly reducing the physical assistance until the modified training wheels are the only assistance provided
 . 4. Remove the training wheels and provide two - handed physical assistance to the student
-. 5. Continue Step 4, slowly and momentarily stopping physical assistance until none is needed. Continue until the objective is met. 31 5 </t>
+. 5. Continue Step 4, slowly and momentarily stopping physical assistance until none is needed. Continue until the objective is met. 31</t>
   </si>
   <si>
     <t>Lesson SEN 30</t>
@@ -6464,7 +6462,7 @@
 . 2. Continue Step 1, giving each student in the group a piece of cloth as defined in the materials section, and encourage the waving of the cloth in time to the music
 . 3. Continue Step 2, introducing some specific low - i mpact exercises such as gently encouraging a jumping jack or toe - touching activity
 . 4. Add to Step 3, as appropriate, more intensive exercise such as sit - ups and modified push - ups
-. 5. Reduce all physical guidance until only verbal prompting is n</t>
+. 5. Reduce all physical guidance until only verbal prompting is needed.</t>
   </si>
   <si>
     <t>Lesson SEN 31</t>
@@ -6487,7 +6485,7 @@
 . 3. Combine the concepts of Steps 1 and 2, physically guiding the student through the process of stringing the beads by using the beads that have the larger holes drilled into them (see the materials section)
 . 4. Continue Step 3, gradually replacing the beads with larger holes with those having regular holes
 . 5. Reduce all physical prompting until only step - by - step verbal prompting is needed
-. 6. Replace the step - by - step prompting with a total - task req uest: "(Name), please string these beads</t>
+. 6. Replace the step - by - step prompting with a total - task req uest: "(Name), please string these beads."</t>
   </si>
   <si>
     <t>Lesson SE 32</t>
@@ -6508,12 +6506,12 @@
     <t>These types of materials can be obtained from kits, but a very successful alternative is to back familiar pictures with poster board and to punch holes around the outline.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Practice with the student the ability to hold the card in the nondominant hand, using a full - hand grasp, and pointing the picture toward the student
+    <t>1. Practice with the student the ability to hold the card in the nondominant hand, using a full - hand grasp, and pointing the picture toward the student
 . 2. Assist the student in picking up the string in the dominant hand and holding it in a pincer grasp that exposes about 1 inch of string past the thumb and forefinger
 . 3. Combine the concepts from Steps 1 and 2 so that they can be performed at the same time
 . 4. Physically guide the student through the process of lacing the card. Start by going in a hole from the pic ture side and coming up through the back of the card
 . 5. Reduce all physical guidance until only verbal step - by - step prompts are needed
-. 6. Fade all prompting until using just the total - task request: "Please lace up this </t>
+. 6. Fade all prompting until using just the total - task request: "Please lace up this card."</t>
   </si>
   <si>
     <t>Lesson SEN 33</t>
@@ -6536,7 +6534,7 @@
 . 3. Continue Step 2, proceeding to placing both feet on the first step and then returning to the starting position
 . 4. With physical guidance, assist the student up the stairs, initially taking one step at a time and then bringing feet together. Physically guide the student back down the stairs. Continue to ha ve the student hold the handrail at all times
 . 5. Modify Step 4 to where the legs are used alternately, placing only one on each stair
-. 6. Reduce physical prompting as safety permits until only verbal requests are needed. 3</t>
+. 6. Reduce physical prompting as safety permits until only verbal requests are needed. 31</t>
   </si>
   <si>
     <t>Lesson SEN 34</t>
@@ -6562,7 +6560,7 @@
 . 3. Mark a piece of paper in a basic rectangular shape, using the broad - tip marker, and physically guide the student to cut out the shape
 . 4. Continue Step 3, changing the broad - tip marker design to one made with a medium - point pen
 . 5. Reduce guidance to step - by - step verbal prompting and offer different basic shapes to cut out
-. 6. Continue Step 5, reducing prompting to a total - task request: "Please cut this out." Do this for at least five s</t>
+. 6. Continue Step 5, reducing prompting to a total - task request: "Please cut this out." Do this for at least five shapes.</t>
   </si>
   <si>
     <t>QI Lesson SE 35</t>
@@ -6585,7 +6583,7 @@
 . 3. Modify Step 2 to that of motor imitation in a gestural manner, still using the word cues
 . 4. Perform an actual short ride enc ompassing all of the skills from Step 3 and adding positive reinforcement for every minute the student continues to wear the belt without objection or efforts to remove it
 . 5. Continue Step 4, gradually increasing the time frame for positive reinforce ment to once every 5 minutes, or until the trip is completed
-. 6. Continue Step 5, providing positive reinforcement only upon successful com pletion of the trip. Continue until the o bjective is met</t>
+. 6. Continue Step 5, providing positive reinforcement only upon successful com pletion of the trip. Continue until the o bjective is met.</t>
   </si>
   <si>
     <t>Lesson SOC 1</t>
@@ -6606,7 +6604,7 @@
     <t>1. Encourage the parent or caregiver to interact with the student, emphasizing input to all senses where reasonable a nd using the materials outlined above
 . 2. Attempt to determine the specific action(s) that is (are) the most enjoyed by the student. Once determined, this action should not be performed except as reinforcement (reward) for the target behavior
 . 3. Continue Ste p 1, modifying the environment and objects presented. When a measurable positive response occurs, immediately perform the action iden tified in Step 2
-. 4. Continue until the objective has been me</t>
+. 4. Continue until the objective has been met.</t>
   </si>
   <si>
     <t>Lesson SOC 2</t>
@@ -6624,7 +6622,7 @@
     <t>1. After determining who the "other" people will be for the student (e.g., rela tives, potential playmates), encourage them to interact with the student em phasizing input to all senses where reason able using the materials outlined above
 . 2. Attempt to determine the specific action(s) that is (are) the most enjoyed by the student. Once determined, this action should not be performed except as reinforcement (reward) for the target behavior
 . 3. Continue St ep 1, modifying the environment and objects presented. When a measurable positive response occurs, immediately perform the action iden tified in Step 2
-. 4. Continue until the objective has bee</t>
+. 4. Continue until the objective has been met.</t>
   </si>
   <si>
     <t>Lesson SOC 3</t>
@@ -6649,7 +6647,7 @@
 . 2. Give each student a different color card and prompt each student to hold up the card wh en his or her name is called
 . 3. Perform the activity outlined in Step 1, holding up a card that matches one possessed by a student, and ask, "Whose turn is it?" Prompt all students to identify which student has the card being held, then prompt that studen t to participate in the activity. If other students attempt to participate when it is not their turn, gently redirect them and ask them to wait until it is their turn
 . 4. Modify Step 3 to using the students' names instead of the cards
-. 5. Continue Step 4, reducing all physical prompting and guidance until the objective is met. 327</t>
+. 5. Continue Step 4, reducing all physical prompting and guidance until the objective is met.</t>
   </si>
   <si>
     <t>Lesson SOC 4</t>
@@ -6673,7 +6671,7 @@
     <t>1. Verify that the activity(ies) selected in the materials section are in fact enjoyed and desired by the group
 . 2. At a random point, stop the activity, identify a student by name, and ask him or her to point to another student whose name you provide. If the student does not respond, provide physical guidance for the student
 . 3. Continue Step 2 for all students in the group who need help with this task
-. 4. Continue Step 3, reducing all physical prompting and guidance until the objective i</t>
+. 4. Continue Step 3, reducing all physical prompting and guidance until the objective is met.</t>
   </si>
   <si>
     <t>Lesson SOC 5</t>
@@ -6693,7 +6691,7 @@
   <si>
     <t>1. Verify that the activity(ies) selected in the materials section are in fact enjoyed and desired by the group
 . 2. At a random point, stop the activity, iden tify a student by pointing, and ask the student being taught to name the person identified. If the student does not respond, provide the answer and ask the student to imitate that response (see the prerequisite) 3. Continue Step 2 for all students in the group who need help with this task
-. 4. Continue Step 3, reducing all verbal prompting and guidance until the objec tive is met</t>
+. 4. Continue Step 3, reducing all verbal prompting and guidance until the objec tive is met.</t>
   </si>
   <si>
     <t>Lesson SOC 6</t>
@@ -6717,7 +6715,7 @@
     <t>1. Verify that the book or story selected in the materials section is in fact enjoyed and desired by the group
 . 2. During the presentation, after 1 minute of reading or telling a story, attempt to obtain eye contact with the student and give social praise for listening and remaining seated. If unsuccessful, gently ph ysically redirect the student back to the task and attempt another 1 - minute period. If this task remains unsuc cessful, shorten the time until success is achieved
 . 3. Continue Step 2 for all students in the group who need help with this task and extend the t ime goal by 1 - minute increments until a 5 - minute (or story completion if less than 5 minutes) interval is achieved
-. 4. Continue Step 3, extending the time frame until the story is completed and reducing all verbal and physical prompting until the objective i</t>
+. 4. Continue Step 3, extending the time frame until the story is completed and reducing all verbal and physical prompting until the objective is met.</t>
   </si>
   <si>
     <t>Lesson SOC 7</t>
@@ -6741,7 +6739,7 @@
     <t>1. Select an item from the materials section and interact with the student, pro viding the name of that item. Continue this process until the student will correctly respond with the item name when asked, "What is this called?" 2. Continue Step 1, adding the question, "What do you do with it?" after the student has responded with the name of the item. Provide a brief answer as to the item's purpose (if the student does no t respond) and prompt the imi tation of that answer
 . 3. Stop the use of the question, "What is this called?" and modify the question from Step 2 to "What do you do with this?" Reduce the imitative prompt ing from Step 2 until none is needed
 . 4. Continue the co ncept of Steps 1 through 3 for other items until at least 10 items are completed
-. 5. Modify the process to using a group setting and asking the student to tell another specific student the item's purpose. Promote making eye contact and facing the other student. 33 1 :</t>
+. 5. Modify the process to using a group setting and asking the student to tell another specific student the item's purpose. Promote making eye contact and facing the other student. 33</t>
   </si>
   <si>
     <t>Lesson S cs</t>
@@ -6767,7 +6765,7 @@
 . 3. Repeat Step 2, adding assisting the student in repeating the entire story and asking the group to offer the main idea
 . 4. Continue Steps 2 and 3 until all students have had a chance to participate
 . 5. Using the process performed in Step 5, gradually help the conversation to include more information beyond the main point of the story
-. 6. Slowly reduce prompting until none is needed beyond just the presentation of the article or item to one st</t>
+. 6. Slowly reduce prompting until none is needed beyond just the presentation of the article or item to one student.</t>
   </si>
   <si>
     <t>Lesson SOC 9</t>
@@ -6791,7 +6789,7 @@
     <t>1. In a small - group setting (at least three students), provide each student with an object or toy with which to interact and play soft music at the same time
 . 2. Continue Step 1, and at a random time stop the music and request that each student pass his or her obje ct to the student next to him or her. Provide gentle physical guidance but do not force the exchange. If successful, provide each student with strong, positive verbal reinforcement. If not initially successful, make no negative comments but try this step a gain at a later time
 . 3. Reduce the physical prompting aspect until only step - by - step verbal prompt ing is needed
-. 4. Reduce the step - by - step prompting and gradually replace it with a total - task request: "Please pass the (item held) to (the name of the student sitting next to the student receiving the training)." 333</t>
+. 4. Reduce the step - by - step prompting and gradually replace it with a total - task request: "Please pass the (item held) to (the name of the student sitting next to the student receiving the training)."</t>
   </si>
   <si>
     <t>Lesson SOC 1 O</t>
@@ -6813,7 +6811,7 @@
 . 2. Place the receptacle to be used immediately next to the student so that simple arm movement, while still grasping the ball, can be used to place the ball over the receptacle. Slowly physically guide the student to release the ball into the container, providing lots of verbal praise when successful
 . 3. Through continued physical guidance, practice a throwing motion and releas ing of the ball without regard to the receptacle
 . 4. Placing the container at least 1 foot beyond the student's reach and combine the skills taught in Steps 2 and 3 to physically guide the student in throwing the ball into the container when prompted to do so
-. 5. Gradually reduce physical prompting until only a single verbal request is needed and increase th e distance thrown to at least 3</t>
+. 5. Gradually reduce physical prompting until only a single verbal request is needed and increase th e distance thrown to at least 3 feet.</t>
   </si>
   <si>
     <t>Lesson SOC 11</t>
@@ -6835,7 +6833,7 @@
 . 2. Modify Step 1 to asking each student to give the last food item he or she has to the person next to him or her in a way that ensures that each student gets another item but not one th at was originally his or hers
 . 3. Continue Step 2, increasing the number of items passed by each student until all five items are passed before anyone eats
 . 4. Distribute a single toy or desired object to each student and perform the pass ing concept among the students
-. 5. Continue Step 4, using only one object for the whole group. Continue until the objective is met and observed in nontraining setting</t>
+. 5. Continue Step 4, using only one object for the whole group. Continue until the objective is met and observed in nontraining settings.</t>
   </si>
   <si>
     <t>Lesson SOC 12</t>
@@ -6860,7 +6858,7 @@
 . 2. Continue Step 1, increasing the distance between the student and yourself un til a short throwing action is needed for the ball to go from the student to you, working up to a 3 - foot distance
 . 3. With an adjustable basketball goal plac ed at a setting slightly above the stu dent's reach, physically guide the student to place the ball through the hoop
 . 4. Continue Step 3, reducing physical guidance until the student can indepen dently place the ball in the goal
-. 5. Begin gradually adjusting the height of the goal as far toward regulation height as is reasonable. If the student begins to have difficulties, stop adjusting the height beyond that point. Continue until the objective is met and introduce this skill into a social game opport</t>
+. 5. Begin gradually adjusting the height of the goal as far toward regulation height as is reasonable. If the student begins to have difficulties, stop adjusting the height beyond that point. Continue until the objective is met and introduce this skill into a social game opportunity.</t>
   </si>
   <si>
     <t>Lesson SOC 13</t>
@@ -6881,11 +6879,11 @@
     <t>A bowling ball set, usually available in a plastic form.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Introduce the ball to the student and physically guide the student, as needed, through the process of rolling the ball (see prerequisite SEN 23). Reduce guida nce until only verbal requests are needed
+    <t>1. Introduce the ball to the student and physically guide the student, as needed, through the process of rolling the ball (see prerequisite SEN 23). Reduce guida nce until only verbal requests are needed
 . 2. Place all pins in a bowling pin pattern about 3 feet in front of the student. Prompt the action practiced in Step 1 and assist as needed to direct the ball toward successfully knocking down at least one pin
 . 3. Continue Step 2, gradually increasing the distance up to 10 feet
 . 4. When Step 3 has been successfully completed, bring in more students to create a group activity
-. 5. Although Step 4 can complete the objective, move the training to an actual bowling alley if t he necessary physical skills appear to be present for the student. 337 </t>
+. 5. Although Step 4 can complete the objective, move the training to an actual bowling alley if t he necessary physical skills appear to be present for the student.</t>
   </si>
   <si>
     <t>Lesson S C14</t>
@@ -6907,7 +6905,7 @@
 . 2. Create, or assist the student i n creating, a target for the beanbag to hit. One method would be to create a hole in some poster board (at least twice the diameter of the beanbag) for the beanbag to be thrown through. A face or archery type of drawing on the target would work also
 . 3. Using the target created in Step 2, place the target within arm's reach and assist the student in dropping the beanbag on the target or through the hole
 . 4. Continue Step 3, moving the student about 1 to 2 feet away from the target and prompting the student to us e a throwing action. Continue with physical guidance as needed
-. 5. Reduce physical guidance and increase the distance up to 3 feet. Introduce the activity as a group</t>
+. 5. Reduce physical guidance and increase the distance up to 3 feet. Introduce the activity as a group game.</t>
   </si>
   <si>
     <t>Lesson SOC 15</t>
@@ -6932,7 +6930,7 @@
 . 2. Move the target to about 1 foot i n front of the student and guide the student to throw the dart to the target. Concentrate on forward arm movement and release
 . 3. Continue Step 2, gradually increasing the distance up to 5 feet
 . 4. Continue Step 3, reducing all physical guidance until only verba l prompts are needed, and increase the number of darts to five
-. 5. Introduce the activity in a group format and continue until the objective is met. 3</t>
+. 5. Introduce the activity in a group format and continue until the objective is met. 33</t>
   </si>
   <si>
     <t>Lesson SOC 16</t>
@@ -6954,7 +6952,7 @@
 . 2. Placing the stake in the ground, position the student within arm's reach of the stake and physically guide him or her to move his or her arm forward and release the horseshoe so that it falls near the stake
 . 3. Continue Step 2, reducing all physical guidance until the task can be per formed with only verbal prompting
 . 4. Gradually increase the distance of the student from the stake to approxi mately 10 feet
-. 5. Perform the action in a group setting and continue until the objective i</t>
+. 5. Perform the action in a group setting and continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson SOC 17 d</t>
@@ -6975,12 +6973,12 @@
     <t>A number of jump ropes cut to different sizes.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Assist the student in grasping the handles of the jump rope and holding his or her hands loosely at his or her sides. Adjust the rope as needed to achieve a length where the rope is held comfortably at the sides of the body (arms down) and the rope can lay on the ground near the ends of both feet
+    <t>1. Assist the student in grasping the handles of the jump rope and holding his or her hands loosely at his or her sides. Adjust the rope as needed to achieve a length where the rope is held comfortably at the sides of the body (arms down) and the rope can lay on the ground near the ends of both feet
 . 2. Gui de the student in placing the rope behind the back and swinging the rope over his or her head. No jumping is involved in this step
 . 3. Continue Step 2, adding a walking or stepping motion to step over the rope and to allow the continuation of moving the rope from back to front
 . 4. Continue Step 3, replacing the stepping action with a running type of step
 . 5. Continue Step 4, reducing all physical guidance until only verbal requests are needed
-. 6. Replace the running action with jumping and continue until the objective is met. </t>
+. 6. Replace the running action with jumping and continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson SOC 18</t>
@@ -7001,7 +6999,7 @@
     <t>l. Introduce the student to the items involved in playing the game. Through demonstration, explain the rules to the student
 . 2. Using a group process, physically guide the student through the activities involved in the game. The concept of"winners and losers" should be mini mized unless the situation can be manipulated to ensure that all group members win at least once in each session
 . 3. Reduce physical guidance until only step - by - step verbal prompts are needed. Use lots of praise for involvement and do not let "winning" be a primary focus
-. 4. Reduce all step - by - step verbal prompting until using only the total - task request: "Let's play (name of the board game)." If the student does not wish to play, try an alternative game or request p articipation at a later</t>
+. 4. Reduce all step - by - step verbal prompting until using only the total - task request: "Let's play (name of the board game)." If the student does not wish to play, try an alternative game or request p articipation at a later time.</t>
   </si>
   <si>
     <t>Lesson SOC 19</t>
@@ -7051,7 +7049,7 @@
 . 2. Continue Step 1, replacing pointing to a space with placing a marker on the card in the identified location. Assist the student as needed in holding and placing the marker
 . 3. Provide examples that constitute a c ompletion or bingo outcome as well as examples that do not. Prompt the student to say "bingo" when the correct pattern (complete horizontal, vertical, or diagonal line) occurs
 . 4. Reduce guidance until only periodic monitoring, using correction as needed, is necessary for the student to participate in the game
-. 5. Involve the student in a group process and encourage participation. Continue until the objective i</t>
+. 5. Involve the student in a group process and encourage participation. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson SOC 21</t>
@@ -7098,7 +7096,7 @@
 . 3. Continue Step 2, increasing the number of choices to five items
 . 4. Modify Step 3 by placing the matching pictures or i tems in front of the student and prompting him or her to pick up the picture and place it on the matching picture
 . 5. Although the completion of Step 4 technically realizes the objective, modi fying the game to a Concentration - type format with briefly shown and then hidden items can be useful
-. 6. Once some skill has been demonstrated, introduce the game in a group se</t>
+. 6. Once some skill has been demonstrated, introduce the game in a group setting.</t>
   </si>
   <si>
     <t>Lesson SOC 23</t>
@@ -7119,7 +7117,7 @@
     <t>1. Physically guide the student through the process nece ssary for the total task of fishing
 . 2. At the various steps of baiting, casting, and reeling, reduce prompting to see if the student desires and is capable of performing these tasks more indepen dently. If the desire or ability does not appear after numerou s efforts, move on to Step 3
 . 3. During the fishing activity, verbally interact with the student and praise him or her if attending behavior to the task is present. Explain to the student the action that is taking place as each part of the fishing experience occurs
-. 4. Reduce verbal praise for attending and observing or performing the task. Con tinue until it is clear whether or not the student enjoys this activity. If enjoy ment is evident, continue this activity as opportunities present themselves. l4 7</t>
+. 4. Reduce verbal praise for attending and observing or performing the task. Con tinue until it is clear whether or not the student enjoys this activity. If enjoy ment is evident, continue this activity as opportunities present themselves. l4</t>
   </si>
   <si>
     <t>Lesson SOC 24</t>
@@ -7143,7 +7141,7 @@
     <t>1. Demonstrate to the student the processes involved in using the equipment. Through either verbal response or perceived affect, attempt to determine the types or styles of music the student enjoys. Note any positive responses by the student
 . 2. Having determined the types of music the student enjoys, identify a sample of that music and guide the student through the physical action of turning on the equipment, initiating the playing of the music, and adjusting the vol ume. If motor difficulties are observed, adaptive switches may need to be introduced
 . 3. Reduce the physical guidance provided for each step and replace that prompt ing with step - by - step verbal prompting. Add the action of turning off the equipment
-. 4. Reduce prompting to a total - task request: "Do you want to listen to some mus ic?" 5. If independence is observed, provide verbal reinforcement and attempt to achieve the second objective listed. If not, continue Step 4 until the first ob jective i</t>
+. 4. Reduce prompting to a total - task request: "Do you want to listen to some mus ic?" 5. If independence is observed, provide verbal reinforcement and attempt to achieve the second objective listed. If not, continue Step 4 until the first ob jective is met.</t>
   </si>
   <si>
     <t>Lesson SOC 25</t>
@@ -7190,7 +7188,7 @@
 . 3. Physically guide the student through the process of playing the video selection with the equipment being used and using the appropriate volume controls to comfortably listen to the video
 . 4. Demonstrate the use of the stop and pause buttons. Use physical assistance to guide the student in using the stop and pause buttons
 . 5. Gradually reduce all physical guidance until only step - by - step verbal cues are needed. La ter, modify the step - by - step instructions to single - task requests or in response to perceived student desires
-. 6. While the objective can be met in Step 5, observe for any indication that a student is expressing a desire to view a specific video, and reward that expr sive behavior by allowing the video to be viewed. In some cases, the desire to watch a specific video may seem very repetitive; however, it can provide com fort and a calming effect for the st</t>
+. 6. While the objective can be met in Step 5, observe for any indication that a student is expressing a desire to view a specific video, and reward that expr sive behavior by allowing the video to be viewed. In some cases, the desire to watch a specific video may seem very repetitive; however, it can provide com fort and a calming effect for the student.</t>
   </si>
   <si>
     <t>Lesson SOC 27</t>
@@ -7215,7 +7213,7 @@
 . 2. Continue Step 1 until the student no longer needs verbal prompting or similar assistance with answering
 . 3. Increase the time frame by performing a task in the morning and asking for recall in the afternoon
 . 4. Increase the time frame to asking for recall at the first reasonable opportunity in the morning about an event that occurred the previous evening 
-. 5. Increase the time frame to direct recall of a previous day's events. Continue until the objective is me</t>
+. 5. Increase the time frame to direct recall of a previous day's events. Continue until the objective is met. . -</t>
   </si>
   <si>
     <t>Lesson SOC 28</t>
@@ -7240,7 +7238,7 @@
 . 2. Add to Step 1 the concept of putting paint on the brush and then moving the brush to the paper
 . 3. As needed, guide the student through the process of moving the brush across the paper
 . 4. Combine the actions of Steps 2 and 3 and reduce guidance until only verbal prompts are needed
-. 5. Interact with the student regarding what image the student is painting, mak ing no judgment regarding quality. Continue until the objective i</t>
+. 5. Interact with the student regarding what image the student is painting, mak ing no judgment regarding quality. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson SOC 29</t>
@@ -7265,7 +7263,7 @@
 . 2. Having determined in Step 1 a sporting event that is likely to provide plea sure, attempt to offer a television program or videotape that shows this type of activity. Try at least 10 times for this type of exposure and then proceed to Step 3
 . 3. Escort the student to the sporting event and attempt to physically guide the student, if needed, to look toward the activities taking place. Engage the stu dent in conversation (even if only you are talking) about what is taking place
 . 4. Gradually reduce all physical guidance provided until only brief verbal re minders are needed to maintain at least a 50% attention rate
-. 5. Reduce all prompting and continue until the objective is me</t>
+. 5. Reduce all prompting and continue until the objective is met. 3</t>
   </si>
   <si>
     <t>Lesson SOC 30</t>
@@ -7290,7 +7288,7 @@
 . 2. Having determined preferred activities in Step 1, provide physical guidance as needed for each aspect of playing the sport. For example, if baseball is selected, practice hitting, catching, and base movement as separate activities
 . 3. Combine the skills learned in Step 2 into one overall activity. Again, the con cepts of group interaction and teamwork should be stressed
 . 4. Reduce physical guidance provided until only step - by - step verbal prompts are needed
-. 5. Reduce all prompting until the game can be performed with minimal verbal assis</t>
+. 5. Reduce all prompting until the game can be performed with minimal verbal assistance.</t>
   </si>
   <si>
     <t>Lesson SOC 31</t>
@@ -7334,7 +7332,7 @@
 . 2. Based on the informat ion obtained in Step 1, play the identified type of music and physically guide the student through the process of clapping his or her hands in time to the music
 . 3. Continue Step 2, gradually reducing the physical prompting and replacing it with gestural prom pts or cues
 . 4. Continue Step 3, reducing all prompting until no guidance is needed
-. 5. Introduce the concept into a group setting to encourage the independent use of these skills as well as social interaction with o</t>
+. 5. Introduce the concept into a group setting to encourage the independent use of these skills as well as social interaction with others.</t>
   </si>
   <si>
     <t>Lesson SOC 33</t>
@@ -7355,11 +7353,10 @@
     <t>Modeling clay of a nontoxic material and various objects of simple geo metric designs.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Visually present an object containing a simple geometric design to the student and then create from modeling clay a copy of that item. Also provide verbal descriptions of the actions being performed
+    <t>1. Visually present an object containing a simple geometric design to the student and then create from modeling clay a copy of that item. Also provide verbal descriptions of the actions being performed
 . 2. Using the concept presented in Step 1, physically guide the student through the process of creating his or her own sample of the item being cop ied. Exact replicas are not important. The student should be given verbal praise and encouragement for the efforts made
 . 3. Continue Step 2, reducing the physical guidance until only gestural prompt ing is needed
-. 4. Reduce all prompting until only verbal interaction is needed
-. 5. Modify the requested action away from copying and toward the student making his or her own creative designs. Continue until the objective </t>
+. 4. Reduce all prompting until only verbal interaction is needed.</t>
   </si>
   <si>
     <t>Lesson S C34</t>
@@ -7384,7 +7381,7 @@
 . 2. After the performance of Step 1 reveals that the student is comfortable with the setting, escort, but do not force, the student to wal k a distance that does not lose sight of the starting point. Return to the starting point
 . 3. Continue Step 2, increasing the distance until both you and the student have traveled a far enough distance to lose sight of the starting point or, if using a track, are at least halfway around
 . 4. Continue Step 3, reducing all prompting from physical to verbal step - by - step guidance until you need only the verbal request: "Do you want to go for a walk?" Observe to see if the student desires to go. Do not go if the student does not wish to do so
-. 5. Increase the distance to be walked or hiked until the target distance is accom plished on 20 o cca</t>
+. 5. Increase the distance to be walked or hiked until the target distance is accom plished on 20 o ccasions.</t>
   </si>
   <si>
     <t>Lesson SOC 35</t>
@@ -7410,7 +7407,7 @@
 . 3. While standing in the pool, as in Step 1, practice with the student the ability to hold the breath. The target time period should be at least 5 seconds but no m ore than 10 seconds. In this step, the student's head remains out of the water
 . 4. Combine the concepts of Steps 2 and 3 by having the student hold his or her breath for 3 seconds while placing his or her face into the water
 . 5. Expand upon Step 4 by physically guiding the student to briefly place his or her head under the water completely. Do not force the student. If resistance is met, go back to the previous steps
-. 6. Reduce the physical guidance needed until only the verbal prom pt of"hold your breath" is needed for a successful 3 - second period. Continue until the objective is met. 3</t>
+. 6. Reduce the physical guidance needed until only the verbal prom pt of"hold your breath" is needed for a successful 3 - second period. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson SOC 36</t>
@@ -7435,7 +7432,7 @@
 . 2. Gently hold the student by the back of the shoulders and under the knees to assume a floating face - up type of position. Prompt the student to move his or her legs in a kicking motion
 . 3. Guide the student to grasp the side of the pool while face down and support him or her by the stomach and the upper leg closest to you. Encourage and verbally prompt a kicking motion
 . 4. Continue Step 3, providing only support to the stomach area
-. 5. Reduce all prompting until only the verbal request to kick is needed. Continue until the objective i</t>
+. 5. Reduce all prompting until only the verbal request to kick is needed. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson SOC 37</t>
@@ -7456,7 +7453,7 @@
     <t>1. Begin by reviewing the concept of holding onto the side of the pool but do not promote the kicking activity as previously performed. Prompt the student to hold his or her head up and take a deep breath. Support where necessary to achieve momentary flotation on the stomach
 . 2. While fully physically supporting the student, hold him or her on his or her back and prompt the holding of a deep breath while in an "on - the - back" floating position
 . 3. Continue Step 2, adding flotation devices and gradually decreasing the sup port to the student's back until floating occurs
-. 4. Continue Step 3, removing the flotation devices as reasonable. (Note. For some students, a flotation device may be needed for a considerable time. If the stu dent is not ready to fl.oat without these devices, do not force the issue.</t>
+. 4. Continue Step 3, removing the flotation devices as reasonable. (Note. For some students, a flotation device may be needed for a considerable time. If the stu dent is not ready to fl.oat without these devices, do not force the issue.) 36</t>
   </si>
   <si>
     <t>Lesson SOC 38</t>
@@ -7480,7 +7477,7 @@
     <t>1. During a regular mealtime review, verify that at least some skills related to the listed prerequisites are present. Also attempt to determine the type of food choices the student most enjoys
 . 2. Go to the type of restaurant that was determined to be desired by the student (see Step 1) and bring to the student a carry - out meal. In the home or class setting where this meal is consumed, attempt to provide the student with feedback as to appropriate and inappropriate behaviors
 . 3. Take the student to the actual restaurant and repeat the meal that was con sumed in Step 2. Provide step - by - step verbal cues as needed
-. 4. Continue Step 3, reducing all prompting until none is needed for the student to unobtrusively participate in and enjoy a restaurant exper</t>
+. 4. Continue Step 3, reducing all prompting until none is needed for the student to unobtrusively participate in and enjoy a restaurant experience.</t>
   </si>
   <si>
     <t>Lesson SOC 39</t>
@@ -7503,7 +7500,7 @@
 . 3. Continue Step 2, but physically guide the client through the process of using the equipment
 . 4. Continue Step 3, reducing physical prompting to step - by - step verbal prompting
 . 5. Reduce all step - by - step verbal prompting to a t otal - task verbal prompt
-. 6. Although the objective can be met in Step 5, modify using the recorder/player to serve functional purposes, such as making a to - do list, recording music from a radio, or practicing speech articulation. Continue until the objective is me</t>
+. 6. Although the objective can be met in Step 5, modify using the recorder/player to serve functional purposes, such as making a to - do list, recording music from a radio, or practicing speech articulation. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson S C40</t>
@@ -7528,7 +7525,7 @@
 . 2. Continue Step 1 for a single note, reducing guidance until only verbal prompting is needed. If the student hits the wrong note, provide no negative feedback, because the production of any single note is the intent of this step
 . 3. Continue Step 2, encouraging notes other than the one previously used to be played
 . 4. To improve accuracy, place different color stickers by each note, using a sequence that approaches a melody concept. For example, the beginning sequence for the Christmas song "Joy to the World" is the scale, starting at "C," played backward (from high to low)
-. 5. Use the concept from Step 4 in a group setting, encouraging student intera</t>
+. 5. Use the concept from Step 4 in a group setting, encouraging student interaction.</t>
   </si>
   <si>
     <t>Lesson SOC 41</t>
@@ -7551,7 +7548,7 @@
   <si>
     <t>1. In a group set ting, present some information that is perceived to be of interest to the students. Yes/no types of questions should be asked of the students. Topic examples could be current sports events, news issues, or situations re lated to the students' school situation
 . 2. Continue Step 1, modifying the questions from a yes/no type of answer to open - ended questions. One way of ensuring more than a yes/no response is to ask questions such as, "Why do you think ... ?" or "Can you tell me about ... ?" 3. Expand the concept of Step 2 to include asking other students how they feel about a response that has been given by another student. Be sure not to place negative value judgments on opinions given by the students. Instead, attempt to be nondirective by repeating back the basic message given by the student
-. 4. Attempt to prompt any student to begin a discussion. Sometimes an opening question such as, "How does everybody feel about (a topic of known interest or debate)?" is useful. Encourage others to offer their opi nion. Attempt to have all students participate. 365</t>
+. 4. Attempt to prompt any student to begin a discussion. Sometimes an opening question such as, "How does everybody feel about (a topic of known interest or debate)?" is useful. Encourage others to offer their opi nion. Attempt to have all students participate.</t>
   </si>
   <si>
     <t>Lesson SOC 42</t>
@@ -7572,11 +7569,11 @@
     <t>A setting familiar to the student where group discussions have previously been held.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Review the activities performed in the group discussion exercise (see the prerequisite)
+    <t>1. Review the activities performed in the group discussion exercise (see the prerequisite)
 . 2. Change the group activity to having the students stand up before giving their responses. Gentle physical prompting may be needed in this step, but do not force the issue
 . 3. Establish a place in front of the group (podium optional) and guide the stu dents to provide answers to questions from that point. Positive encouragement should be given for any effort
 . 4. Change the format from question answering to telling the group about an activity that the student has done and enjoyed
-. 5. Change the audience to a group of people who are less familiar to the student but who do share some common inte </t>
+. 5. Change the audience to a group of people who are less familiar to the student but who do share some common inte rests.</t>
   </si>
   <si>
     <t>Lesson SOC 43</t>
@@ -7601,7 +7598,7 @@
 . 2. Modify Step 1 by having another student who is interested in similar items or activities play with the same items about 5 feet away
 . 3. Modify Step 2 by combining the materials into one pile or the activity into one action to be performed by both students. Use verbal prompting as needed
 . 4. Continue Step 4, reducing all prompting other than verbal encouragement and praise. Ensure that play occurs for at least 10 minutes
-. 5. Introduce additional students into the activity being performed until at least three students (or more, if appropriate to the activity) are involved. 367</t>
+. 5. Introduce additional students into the activity being performed until at least three students (or more, if appropriate to the activity) are involved.</t>
   </si>
   <si>
     <t>Lesson SOC 44</t>
@@ -7622,7 +7619,7 @@
     <t>1. Set up a role - playing activity where the student would be in a situation in which the shaking of hands would appear appropriate. Physically guide the student through the process, giving special attention to the intensity of the grip and the duration
 . 2. Attempt to demonstrate or discuss with the student the times when the shaking of hands may be appropriate, based on the student's culture, and when that would not be true. Continue using role - playing activities to teach this concept
 . 3. Escort the student to situations or new environments where handshaking would likely occur. Have another teacher or student play the role of the person to shake hands with in that setting
-. 4. Staying in the background, go with the student to places or activities where handshaking would be appropriate. Provide feedback to the student in a pri vate place after the interactions have taken place. Attempt to encourage eye contact as well in this</t>
+. 4. Staying in the background, go with the student to places or activities where handshaking would be appropriate. Provide feedback to the student in a pri vate place after the interactions have taken place. Attempt to encourage eye contact as well in this step.</t>
   </si>
   <si>
     <t>Lesson S&amp;L 1</t>
@@ -7640,8 +7637,8 @@
     <t>Objects of interest to the student, such as favorite toys or items of known personal interest.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Present a variety of objects to the student and observe for any facial or other form of physical response. Having determined an object that provides the greatest response, surprise (do not scare) the studen t by presenting the object into his or her visual field while making a pleasant vocal sound. Provide verbal praise for any sounds made by the student. OR 2. Provide positive reactions and verbal praise every time the student produces any vocal behavior. OR 3. Gently press upward from below the student's diaphragm to possibly prompt the "uh" sound as in cup. Again reinforce any sound that occurs. OR 4. Place your hand over your mouth, rapidly moving the hand back and forth while producing a sound. Encourage the student to imitate this behavior while you provide the hand movement. Reinforce with praise any effort made
-. 5. Continue Steps 1 through 4 at different times, always reinforcing any effort by the student until the objective is met. </t>
+    <t>1. Present a variety of objects to the student and observe for any facial or other form of physical response. Having determined an object that provides the greatest response, surprise (do not scare) the studen t by presenting the object into his or her visual field while making a pleasant vocal sound. Provide verbal praise for any sounds made by the student. OR 2. Provide positive reactions and verbal praise every time the student produces any vocal behavior. OR 3. Gently press upward from below the student's diaphragm to possibly prompt the "uh" sound as in cup. Again reinforce any sound that occurs. OR 4. Place your hand over your mouth, rapidly moving the hand back and forth while producing a sound. Encourage the student to imitate this behavior while you provide the hand movement. Reinforce with praise any effort made
+. 5. Continue Steps 1 through 4 at different times, always reinforcing any effort by the student until the objective is met.</t>
   </si>
   <si>
     <t>Lesson S&amp;L 2</t>
@@ -7666,7 +7663,7 @@
 . 2. Continue Step 1 and gradually delay the imitation you make from an immedi ate response up to a 3 - second period
 . 3. Attempt to set up a pattern where multiple examples of vocal imitations are occurring until it is unclear whether the student or you is initiating the imita tion sequence
 . 4. Begin actual imitation activities where you present a sound similar to those used in Step 3. Use lots of verbal praise for any effort, even i f any sound (not necessarily the sound presented) is attempted
-. 5. Continue Step 4, offering verbal praise only when the sound made by the stu dent approximates the sound presented. Use only one - syllable examples and continue until the objective i</t>
+. 5. Continue Step 4, offering verbal praise only when the sound made by the stu dent approximates the sound presented. Use only one - syllable examples and continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson S&amp;L 3</t>
@@ -7714,7 +7711,7 @@
     <t>1. Using the s tudent's ability to point to or otherwise identify an item (ADT 4), review the items selected from the materials section, referred to as visual cues, with the student
 . 2. Taking only one item at a time, present the item and play its corresponding sound. Do this for all the chosen items. In this step, provide verbal descrip tions of the item and sound. Repeat this step until it is perceived that the student may be beginning to associate the sound with the item
 . 3. Present two items and only one sound (related to one of the items) and ask, "Which one sounds like this?" Prompt pointing to the correct answers as needed
-. 4. Continue Step 3, gradually increasing the number of choices t o five and reducing all prompting. Continue until the objective i</t>
+. 4. Continue Step 3, gradually increasing the number of choices t o five and reducing all prompting. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson S&amp;L 5</t>
@@ -7737,7 +7734,7 @@
 . 3. Gradually reduce t he physical intervention described in Step 2 until only the statement "No" results in the cessation of the behavior
 . 4. To address the possibility that the negative behaviors are attention seeking, establish a time frame such as every 3 or 5 minutes and provide positive verbal interaction with the student (not necessarily praise) for each time period that occurs without any of the identified negative behaviors being observed
 . 5. Gradually increase the time period for giving positive verbal interaction to 15 minutes
-. 6. After success in Step 5, provide the positive verbal interaction on a random basis, but also attempt to provide at least four positive interactions for each negative interactio</t>
+. 6. After success in Step 5, provide the positive verbal interaction on a random basis, but also attempt to provide at least four positive interactions for each negative interaction.</t>
   </si>
   <si>
     <t>Lesson S&amp;L 6</t>
@@ -7758,12 +7755,12 @@
     <t>At least 10 objects common to the student's environment that will repre sent one - syllable words. (See the concept section for some suggeste d words.)</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Familiarize the student with a selected object by visually presenting it to the student while saying the one - syllable name of the item
+    <t>1. Familiarize the student with a selected object by visually presenting it to the student while saying the one - syllable name of the item
 . 2. Using the student's sound imitation abilities (S&amp; L 2), present the object and offer only the vowel sound of the word to the student for imitation. Continue this step until a 90% accuracy level is achieved
 . 3. Continue Step 2, adding the beginning sound of the word (if any) to be imi tated. Use verbal promp ting as needed
 . 4. Continue Step 3, adding the final sound or any remaining sounds to the imi tation request
 . 5. Reduce all prompting other than the presentation of the word to be imitated
-. 6. Although mastery of Step 5 can complete the objective, additional words and words with two or more syllables can be introduced at this </t>
+. 6. Although mastery of Step 5 can complete the objective, additional words and words with two or more syllables can be introduced at this point.</t>
   </si>
   <si>
     <t>Lesson S&amp;L 7</t>
@@ -7784,7 +7781,7 @@
     <t>1. Select the 10 words that will be used in this lesson and prompt imitation of those words using the word, and a visual presentation of the object to prompt the imitation, as was done in the prerequisite exercise
 . 2. Continue Step 1, adding the phras e, "What is this?" in front of the word to be imitated. Prompt the student not to imitate the question but rather to imi tate the word presented
 . 3. Continue Step 2, except modify the word to be imitated to only the first sound of the word. If the student o nly imitates that first sound, prompt imitation of the whole word
-. 4. Continue Step 3, using only the question, "What is this?" If the student does not make the correct response in 5 seconds, offer the answer, prompt imita tion, and ask the same question again. Continue until the objective is met. 37</t>
+. 4. Continue Step 3, using only the question, "What is this?" If the student does not make the correct response in 5 seconds, offer the answer, prompt imita tion, and ask the same question again. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson S&amp;L 8</t>
@@ -7805,7 +7802,7 @@
     <t>1. Begin by reviewing the student's ability to imitate specific gross - motor move ments (COG 11) such as raising his or her arms over the head. As this is being performed, verbalize the action taken in the form of a request
 . 2. Continue Step 1, reducing the imitation component, which is actually gestural prompting, and replace it with step - by - step verbal requests
 . 3. Continue Step 2, modifying the action requested to be a functional task such as, "Please open the door," or "Please bring me the pen." Continue step - by step verbal prompts as needed
-. 4. Reduce the step - by - step ve rbal prompting and replace it with a total - task ver bal request. Continue until the objective i</t>
+. 4. Reduce the step - by - step ve rbal prompting and replace it with a total - task ver bal request. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson S&amp;L 9</t>
@@ -7831,7 +7828,7 @@
 . 3. Continue Step 2 for each of the five items that have been selected
 . 4. Continue Step 3, prompting verbal imitation of the words you present
 . 5. Continue Step 4, gradually reducing verbal prompting until the student can independently express both the singular and plural forms while pointing
-. 6. Modify the groups of multiple items to random amounts of more than two. l7</t>
+. 6. Modify the groups of multiple items to random amounts of more than two. l7 9 d</t>
   </si>
   <si>
     <t>Lesson S&amp;L 1O</t>
@@ -7849,10 +7846,10 @@
     <t>Items in the student's environment that are used on a regular basis. Index cards and markers may also be useful.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Go with the student through his or her living environment, pointing out and verbally identifying specific items that are used on a regular basis. The student should then be prompted to imitate the words presented. Key areas might be the bedroom, bathroom, and kitchen locations
+    <t>1. Go with the student through his or her living environment, pointing out and verbally identifying specific items that are used on a regular basis. The student should then be prompted to imitate the words presented. Key areas might be the bedroom, bathroom, and kitchen locations
 . 2. Although optional to meeting the objective, you can print the names of the items on index cards and attach the cards to those items. If this is done, attach the cards and repeat the process outlined in Step 1
 . 3. Continue the concept outlined in Step 1, promp ting the student to point to the objects as you name them. Continue to prompt the student to imitate the name of the item when you have spoken it
-. 4. Continue Step 3, reducing the imitation response until the student can respond first to "point to" and then to "tell me its name" requests for at least 10 </t>
+. 4. Continue Step 3, reducing the imitation response until the student can respond first to "point to" and then to "tell me its name" requests for at least 10 items.</t>
   </si>
   <si>
     <t>Lesson S&amp;L 11</t>
@@ -7873,7 +7870,7 @@
     <t>1. Show the student the pictures that will be used in this lesson. Provide a de scriptive sentence of the action that is illustrated in the photo or picture. The student should then be prompted to repeat a single word that describes the action. For example, "The people in this picture are having a picnic" would yield a prompt request to imitate the word picnic
 . 2. Expand the concept of Step 1 to asking the student to imitate each word of the spoken sentence, one word at a time. Increase the speed of the prompt re quests so that each prompt word is presented at 1 - second intervals. If student respon se time makes the 1 - second interval unrealistic, start at a longer time frame and gradually reduce it so that the student is not pressured to answer faster than he or she is initially capable of doing
 . 3. Continue Step 2, prompting the imitation of the senten ce in two - word incre ments as opposed to the previous single - word imitation
-. 4. Continue Step 3, gradually expanding the number of words to be imitated until entire sentences of at least five words are imitated. 38 1 d</t>
+. 4. Continue Step 3, gradually expanding the number of words to be imitated until entire sentences of at least five words are imitated. 38</t>
   </si>
   <si>
     <t>Lesson S&amp;L 12</t>
@@ -7896,7 +7893,7 @@
 . 3. Using the paper and markers, draw a line in the center of the paper and then draw a geometric shape above or below the line. Proceed as in Steps 1 and 2
 . 4. Repeat Steps 1 through 3, reducing the imitation aspect and prompting for the student to independently express the single prepositional word represented
 . 5. Modify the presentation of in and under to be circumstances where the stu dent can see the object being placed out of sight under a cloth or in a trash can but can no longer see the item when asked about the position of the item
-. 6. Continue Step 5, prompting the student to repeat full sentences you present and describing the placement of objects after the student has identified the correct prepos</t>
+. 6. Continue Step 5, prompting the student to repeat full sentences you present and describing the placement of objects after the student has identified the correct preposition.</t>
   </si>
   <si>
     <t>Lesson S&amp;L 13</t>
@@ -7938,7 +7935,7 @@
   <si>
     <t>1. Review with the student the ability to perform a one - step action request (S&amp;L 8)
 . 2. Continue Step 1, adding a second one - step request immediately after the first one has been accomplished. The second request should have some relation ship to the first action requested
-. 3. Ask for two related actions to tak e place and physically guide the student if the second request cannot be remembered or the student appears unsure. An example might be, "Please bring me your paper and go sit back down'' or "Please open the door and turn on the light (assuming that the l ight switch is near the door)." 4. Continue Step 3, reducing all guidance until only the verbal requests are needed. Continue until the objective i</t>
+. 3. Ask for two related actions to tak e place and physically guide the student if the second request cannot be remembered or the student appears unsure. An example might be, "Please bring me your paper and go sit back down'' or "Please open the door and turn on the light (assuming that the l ight switch is near the door)." 4. Continue Step 3, reducing all guidance until only the verbal requests are needed. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson S&amp;L 15</t>
@@ -7958,7 +7955,7 @@
   <si>
     <t>1. Review with the student the ability to verbally identify each of the selected objects to be used in this lesson (S&amp;L 7)
 . 2. Take a nonbreakable and fairly small item, hold it before the student, and have the student verbally identify the name of the object. Let the item fall to the floor and ask for imitation of the phrase "(item) fall." 3. Continue Step 2, reducing the imitation request and replacing it with a prompt to "tell me what is happening." If the student does not respond correctly in 5 seconds, request imitation of the answer
-. 4. Expand the concept of Steps 2 and 3 to include other noun - verb phrases such as "car go" (using a toy car or observing one), "ball bounce," and "lift fork." Continue until the student answers without an imitative prompt. 3</t>
+. 4. Expand the concept of Steps 2 and 3 to include other noun - verb phrases such as "car go" (using a toy car or observing one), "ball bounce," and "lift fork." Continue until the student answers without an imitative prompt.</t>
   </si>
   <si>
     <t>Lesson S&amp;L 16</t>
@@ -7976,11 +7973,11 @@
     <t>A listing of all of the common sounds (phonemes) in the student's lan guage as well as pictures or objects whose names contain all of the phonemes identified (in beginning, middle, and ending positions) and a tape or voice recorder.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Informally assess the student's articulation using single - word verbal expression (see prerequisite S&amp;L 7) by showing objects or pictures to the student. Use a variety of objects so that all of the reasonable potential language soun ds will be produced. Also assess the word position (beginning, middle, or end) of any misarticulated sounds
+    <t>1. Informally assess the student's articulation using single - word verbal expression (see prerequisite S&amp;L 7) by showing objects or pictures to the student. Use a variety of objects so that all of the reasonable potential language soun ds will be produced. Also assess the word position (beginning, middle, or end) of any misarticulated sounds
 . 2. Having identified one target sound to work on, use a multisensory approach to first have the student identify correct pronunciation and then attemp t to produce just that sound. For example, the voice recorder could be used to au ditorily demonstrate correct and incorrect usage, you could visually demon strate tongue and teeth positions, and you could provide some physical guid ance or cues for tac tile input
 . 3. Continue Step 2 until the identified sound can be accurately produced in a word form without an example being provided
 . 4. Proceed to prompt the word to be used in a sentence until articulation is successful
-. 5. Repeat Steps 2 through 4 for the other sounds identified in Step 1. Attempt to focus on the developmentally earlier sounds </t>
+. 5. Repeat Steps 2 through 4 for the other sounds identified in Step 1. Attempt to focus on the developmentally earlier sounds first.</t>
   </si>
   <si>
     <t>Lesson S&amp;L 17</t>
@@ -8005,7 +8002,7 @@
 . 2. Continue Step 1, incr easing the number of verbs used to at least 20. Verbs such as walking, running,jumping, and even waiting can be demonstrated through role play, even without materials
 . 3. Reverse the concept of role playing by physically prompting the student to demonstrate, where reasonable, the action of each of the words chosen to be taught
 . 4. Attempt to have the student vocalize the verb being presented. In a group setting this can be modified to a charades - type of game where other students attempt to guess the action being demonstrated
-. 5. Continue Step 4, adding prompting the student to also vocalize the noun associated with the verb. Attempt to prompt full sentence use by the student. 387</t>
+. 5. Continue Step 4, adding prompting the student to also vocalize the noun associated with the verb. Attempt to prompt full sentence use by the student.</t>
   </si>
   <si>
     <t>Lesson S&amp;L 18</t>
@@ -8029,7 +8026,7 @@
     <t>1. Review the ability to perform two - step action requests (see the prerequisite)
 . 2. Continue Step 1, adding an additional single activity after the completion of the two - step request. These requests must have a relationship such as, "Please go open the door, turn on the light, and sit back down in your chair." 3. Continuing the concept of Step 2, present all three actions at one time and provide physical prompting as needed
 . 4. Continue Step 3, reducing all physical prompting to step - by - step verbal prompting and eventually to a point where only the three tasks are requested
-. 5. To improve the memory component of this skill, make the requests of the student but have the student delay starting his or her response for at least 15 sec</t>
+. 5. To improve the memory component of this skill, make the requests of the student but have the student delay starting his or her response for at least 15 second s.</t>
   </si>
   <si>
     <t>Lesson S&amp;L 19</t>
@@ -8050,11 +8047,11 @@
     <t>Objects and materials commonly encountered in the student's environment.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Review the ability to perform three - step action requests (see the prerequisite)
+    <t>1. Review the ability to perform three - step action requests (see the prerequisite)
 . 2. Continue Step 1, adding a single activity after the completion of the three step request. These requests must have a relationship such as, "Please get a piece of paper, get a pen, make a mark on the paper, and then bring it to me." 3. Continuing the concept of Step 2, presenting all four actions at one time and providing physical prompting as needed
 . 4. Continue Step 3, reducing all physical prompting to step - by - step verbal prompting and eventually to a point where only the four tasks are requested
 . 5. To improve the memory component of this skill, make the requests of the student but have the student delay starting his or her response for at least 15 seconds
-. 6. Continue Step 5, gradually increasing the delay up to 60 seconds. </t>
+. 6. Continue Step 5, gradually increasing the delay up to 60 seconds. l8</t>
   </si>
   <si>
     <t>Lesson S&amp;L 20</t>
@@ -8079,7 +8076,7 @@
 . 2. Using an item that is one of the student's favored personal possessions, present the item to the student and ask if that item is the student's (name of item), then ask a yes/no type of ques tion that would clearly not be true about the item. Although a verbal response is preferred, any form of identifiable re sponse (e.g., a head shake) is acceptable
 . 3. Continue Step 2 for various other items common to the student's environment
 . 4. Introduce the student to some new experiences and environments. Relate facts about those experiences and situations to the student and then ask yes/no types of questions that relate to the new situation
-. 5. During a mealtime experience, use the skills obtained to attempt to determine likes and dislikes among food ch</t>
+. 5. During a mealtime experience, use the skills obtained to attempt to determine likes and dislikes among food choices.</t>
   </si>
   <si>
     <t>Lesson S&amp;L 21</t>
@@ -8097,11 +8094,11 @@
     <t>Pictures, objects, and activities that the student appears to enjoy.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Review the student's two - word sentence production skills (see the prerequisite)
+    <t>1. Review the student's two - word sentence production skills (see the prerequisite)
 . 2. Select a sentence that the student already produces and through imitation add an article (a, and, or but) or a pronoun (L he, her) as grammatically appropriate as reasonable
 . 3. Continue Step 2 until the student no longer needs an imitative prompt to pro duce that type of three - word sentence. Introduce objects and materials that the student appears to enjoy and prompt sentence imitation based on those materials or actions
 . 4. Use the concept of Steps 2 and 3 to introduce the addition of adjectives to ex is ting two - word sentences. If difficulties are encountered, it may be necessary to review color, shape, and size concepts with the student
-. 5. Use the concept of Steps 2 and 3 to introduce the addition of proper names in a way that shows ownership (e.g., "John' s car rolls"). </t>
+. 5. Use the concept of Steps 2 and 3 to introduce the addition of proper names in a way that shows ownership (e.g., "John' s car rolls"). . -</t>
   </si>
   <si>
     <t>Lesson S&amp;L 22</t>
@@ -8126,7 +8123,7 @@
 . 2. Continue Step 1, introducing new items not related to the home or class environment until the student demonstrates knowledge of at least 20 separate items
 . 3. Present two items or pictures at the same time that have been taught in Steps 1 or 2 and ask the student to identify one of the items that you randomly request
 . 4. Continue Step 3, gradually increasing from two to four the number of samples from which the student will choose
-. 5. Continue Step 4, introducing different items until the objective i</t>
+. 5. Continue Step 4, introducing different items until the objective is met.</t>
   </si>
   <si>
     <t>Lesson S&amp;L 23</t>
@@ -8151,7 +8148,7 @@
 . 2. Continue Step 1, introducing some "new'' objects that have not been previ ously taught in either the prerequisite or other lessons
 . 3. Escort the student to a familiar environment that is different from the home or classroom and identify the names of various objects at this location. Ask the student, assisting where necessary, to point to or otherwise identify various items in that environment
 . 4. Escort the student to an unfamiliar environment such as a pr eviously unvisited restaurant or park. Ask the student, assisting where necessary, to point to or otherwise identify various items in that environment
-. 5. Back in the classroom setting, and using pictures or objects related to the experiences of Steps 1 throu gh 4, ask the student to identify from a field of at least four choices specific items mentioned. Continue until the objective is met</t>
+. 5. Back in the classroom setting, and using pictures or objects related to the experiences of Steps 1 throu gh 4, ask the student to identify from a field of at least four choices specific items mentioned. Continue until the objective is met. l9</t>
   </si>
   <si>
     <t>Lesson S&amp;L 24</t>
@@ -8174,7 +8171,7 @@
   <si>
     <t>1. Engage the student in activities that are perceived to be of interest to him or her. Ask open - end ed questions about the activity or materials involved, for example, "What do you like the most about (the activity being performed)?" followed by, "Why do you feel that way?" 2. Continue Step 1, reacting to a response made by the student that is less than four words with an example of at least four words that the student is then asked to imitate
 . 3. Ask the student to tell you about a friend or favorite activity, and if responses are less than four words, ask, "Can you tell me more?" If the student is having difficulty at this step, suggest specific adjectives and encourage the student to give his or her response again, using that adjective or descriptive word
-. 4. Continue the actions of Steps 1 through 3, giving emphasis to the gram matical composition of the sentences. Immediate feedback that is given in a matter - of - fact manner can be effe</t>
+. 4. Continue the actions of Steps 1 through 3, giving emphasis to the gram matical composition of the sentences. Immediate feedback that is given in a matter - of - fact manner can be effective.</t>
   </si>
   <si>
     <t>Lesson VOC 1</t>
@@ -8199,7 +8196,7 @@
 . 2. Review date and time concepts with the student (see prerequisites ADT 100 or ADT 101, and COG 75) that relate to getting ready for work. If reasonable, attempt to reach agreement on how the student will monitor this aspect
 . 3. At the appropriate time to get r eady for work, go to the student and verbally prompt him or her through the processes determined in Steps 1 and 2
 . 4. Continue Step 3, reducing reminders of date and time until the student can recognize and identify the need to begin the process without any prompting
-. 5. Continue Step 4, adding the activities needed to actually prepare for work. Reduce prompting until none is nee</t>
+. 5. Continue Step 4, adding the activities needed to actually prepare for work. Reduce prompting until none is needed.</t>
   </si>
   <si>
     <t>Lesson VOC 2</t>
@@ -8224,7 +8221,7 @@
 . 2. Verbally prompt the student to point to each item, one at a time, that should return with him or her from the work setting
 . 3. Continue Step 2, gradually increasing the number of items pointed to from one at a time to a verbal request of"Show me the things you should take home." This should result in the identification of all items that should leave with the student from the work setting
 . 4. Continue Step 3, reducing the verbal reminder until none is needed
-. 5. Combine the skills learned in Steps 1 and 4, prompting as needed, then reduce all prompting until the objective is ach</t>
+. 5. Combine the skills learned in Steps 1 and 4, prompting as needed, then reduce all prompting until the objective is achieved.</t>
   </si>
   <si>
     <t>Lesson VOC 3</t>
@@ -8248,7 +8245,7 @@
     <t>1. Review with the student the activities needed to get ready for work (see pre requisite VOC 1). While performing this task, use a timer to keep track of the time needed to accomplish this task plus any transportation time involved. Do this over at least five trial periods and average the two longest time periods that occurred
 . 2. Based on the information obtained in Step 1, calculate the time the student should begin to get ready for work. Have the student identify on a clock the time for starting to prepare and the time to actually start work by providing random time examples, two of which are the two times being taught
 . 3. Using the skills learned in Step 2, practice the entir e process of getting ready and arriving to work on time. Physically or verbally prompt as needed
-. 4. Gradually reduce all prompting and maintain a chart so that the student can visually see his or her success rate. Continue until the objective i</t>
+. 4. Gradually reduce all prompting and maintain a chart so that the student can visually see his or her success rate. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson VOC 4</t>
@@ -8273,7 +8270,7 @@
 . 2. In a classroom setting, guide the student from his or her classro om to another room where the journey involves at least one turn and is at least 50 feet away from the starting point. From the starting point, place colorful stickers along the walls or floor and at the end point. Verbally explain to the student the action being performed
 . 3. Continue Step 2, reducing physical guidance until only the stickers are needed as prompts to get to the destination
 . 4. Transfer the concept of Step 3 from a classroom setting to a real or potential workplace
-. 5. Gradually reduce the use of sti ckers until only a verbal request is needed. Ver bally praise the student for any independent or requested successful a</t>
+. 5. Gradually reduce the use of sti ckers until only a verbal request is needed. Ver bally praise the student for any independent or requested successful action.</t>
   </si>
   <si>
     <t>Lesson VOC 5</t>
@@ -8297,7 +8294,7 @@
     <t>1. Review with the student each of the prerequisite tasks. In reviewing the pre requisite to perform four different task requests (S&amp;L 19), attempt to make those requests work - related types of activities
 . 2. Set up a role - playing situation where the student and other students are al lowed to play the role of a supervisor in a work setting. Students should be given feedback as to appropriate or expected requests from a supervisor and appropriate responses that an employee should provide
 . 3. The instructor should go to an actual work or workshop type of setting and serve as a job coach for the student. The job coach role involves being physi cally present during most of the work time and providing verbal feedback and direction as needed
-. 4. Continue Step 3, gradually reducing the time spent in a job coach role until none is needed. On a weekly basis, request feedback from the actual supervi sor as to how the student is doing. Continue until the objective i</t>
+. 4. Continue Step 3, gradually reducing the time spent in a job coach role until none is needed. On a weekly basis, request feedback from the actual supervi sor as to how the student is doing. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson VOC 6</t>
@@ -8322,7 +8319,7 @@
 . 2. Identify potential clean - up tasks for a specific work area
 . 3. Physically guide the student through the actions needed to accomplish the tasks that were identified in Step 2. Provide lots of verbal praise for this and all remaining steps of the lesson
 . 4. Reduce physical guidance until only step - by - step verbal prompting is needed
-. 5. Reduce step - by - step verbal prompting until only the total - task verbal request of "please clean up this area'' is n</t>
+. 5. Reduce step - by - step verbal prompting until only the total - task verbal request of "please clean up this area'' is needed.</t>
   </si>
   <si>
     <t>Lesson VOC 7</t>
@@ -8347,7 +8344,7 @@
 . 2. Identify potential set - up tasks for a specific work area. Examples might in clude getting out materials or tools needed to perform specific work activities
 . 3. Physically guide the student through the actions needed to accomplish the tasks that were identified in Step 2. Provide lots of verbal praise for this and all remaining steps
 . 4. Reduce physical guidance until only step - by - step verba l prompting is needed
-. 5. Reduce step - by - step verbal prompting until the only prompt is the total - task verbal request: "Please set up this area." 4</t>
+. 5. Reduce step - by - step verbal prompting until the only prompt is the total - task verbal request: "Please set up this area."</t>
   </si>
   <si>
     <t>Lesson VOC 8</t>
@@ -8372,7 +8369,7 @@
 . 2. Screw a nut about halfway down the shaft of a bolt and guide the student to hold the bolt by the head (unthreaded end) with his or her nondominant hand. Practice the process of picking up the bolt by the head until this aspect can be completed with only verbal encouragement
 . 3. Guide the student to grasp the nut in a pincer - like grasp (SEN 13) and assist where needed to begin counterclockwise rotation of the nut
 . 4. Continue Step 3, reducing physical assistance and replacing that assistance with gestural and verbal prompting. Remain on this step until the student can completely remove the nut from the bolt
-. 5. Gradually reduce all prompting until only the total - task verbal prompt of "please undo these" is needed for at least 10 samples and the objective i</t>
+. 5. Gradually reduce all prompting until only the total - task verbal prompt of "please undo these" is needed for at least 10 samples and the objective is met.</t>
   </si>
   <si>
     <t>Lesson VOC 9</t>
@@ -8393,12 +8390,12 @@
     <t>Various bolts with matching nuts, preferably oflarge sizes.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Review with the student the ability to unthread a nut and bolt (see prerequi site VOC 8). Emphasize the holding of the bolt by the head in the nondomi nant hand
+    <t>1. Review with the student the ability to unthread a nut and bolt (see prerequi site VOC 8). Emphasize the holding of the bolt by the head in the nondomi nant hand
 . 2. Using motor imitation, as in the prerequisite task, have the student use his or her arms to imitate the direction (clockwise) that is used to tighten a nut on a bolt
 . 3. Physically guide the student through the process of placing the nut on the bolt while holdin g the head of the bolt in the nondominant hand
 . 4. Continue Step 3, adding using the dominant hand in a pincer grasp to first start the nut and then to tighten it down the shaft of the bolt
 . 5. Continue Step 4, reducing physical guidance until only gestural and step - by step verbal requests are needed
-. 6. Continue Step 5, reducing all prompting until only the total - task verbal re quest of"please put these on'' is needed to meet the objective. 405 ·/:: - ;,,&lt; </t>
+. 6. Continue Step 5, reducing all prompting until only the total - task verbal re quest of"please put these on'' is needed to meet the objective.</t>
   </si>
   <si>
     <t>Lesson VOC 10</t>
@@ -8423,7 +8420,7 @@
 . 2. Demonstrate to the student a specific pattern of assembly using bolts, nuts, and at least two plates to form a specific outcome. Include the use of pliers or a wrench in this activity
 . 3. Physically guide the student through the process performed in Step 2, using verbal praise for all cooperative efforts
 . 4. Reduce physical guidance and replace with gestural and step - by - step verbal prompts, using the same pattern
-. 5. Reduce all prompting until only the total - task request of"please put this together" is n</t>
+. 5. Reduce all prompting until only the total - task request of"please put this together" is needed.</t>
   </si>
   <si>
     <t>Lesson VOC 11</t>
@@ -8444,12 +8441,12 @@
     <t>A variety of C - clamps, some pieces of wood, wood glue, and a small paintbrush.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Introduce the student to each of the items identified in the materials section. It is not necessary for the student to name them, but some observed under standing of the different items, such as pointing to each object (ADT 4), should be used to ensure that the student knows the names of the items
+    <t>1. Introduce the student to each of the items identified in the materials section. It is not necessary for the student to name them, but some observed under standing of the different items, such as pointing to each object (ADT 4), should be used to ensure that the student knows the names of the items
 . 2. Using the small paintbrush, physically guide the student through the process of applying a small amount of glue to a specific part of a piece of wood and then placing the two pieces of wood together
 . 3. Introduce the C - clamp and practice moving the screw in and out
 . 4. Repeat Step 2 and physically guide the student through the process of using the clamp to hold the wood together
 . 5. Continue Step 4, gradually reducing physical guidance until only step - by - step verbal guidance is needed
-. 6. Reduce all guidance to the total - task request: "Please put this together." ;,.. ' .. - 407 </t>
+. 6. Reduce all guidance to the total - task request: "Please put this together." ;,.. ' .. - 407 ·</t>
   </si>
   <si>
     <t>Lesson VOC 12</t>
@@ -8474,7 +8471,7 @@
 . 2. Assist the student in tearing a piece of sandpaper to the size needed to fit on a sanding block. Guide the student in the process of wrapping the paper around the block and holding it with the dominant hand 
 . 3. Physically guide the student in a hand - over - hand manner to sand a sample piece of wood. Demonstrate the proper amount of pressure needed to effec tively perform the task
 . 4. Continue Step 3, reducing physical guidance until only the total - task verbal reque st to "please sand this wood" is needed
-. 5. Continue the concept of Step 4 but apply the skill to an actual wood pr</t>
+. 5. Continue the concept of Step 4 but apply the skill to an actual wood project.</t>
   </si>
   <si>
     <t>Lesson VOC 13</t>
@@ -8499,7 +8496,7 @@
 . 2. Continue Step 1, counting out six sponges and having the student place all of the sponges into the container. Use lots of verbal prompting an d praise
 . 3. Using only one sponge, assist the student in placing that sponge into a plastic bag
 . 4. Continue Step 3, gradually increasing the number of sponges that the student places into the bag to six
-. 5. Although the objective can be met by completing Step 4, additional training in counting out six sponges (COG 41) and using a heat sealer (VOC 28) to close the bag can be useful skills to teach at this</t>
+. 5. Although the objective can be met by completing Step 4, additional training in counting out six sponges (COG 41) and using a heat sealer (VOC 28) to close the bag can be useful skills to teach at this time.</t>
   </si>
   <si>
     <t>Lesson VOC 14</t>
@@ -8524,7 +8521,7 @@
 . 2. Demonstrate and when necessary physically guide the student through the process of lifting boxes and moving them to a different location that is about 10 feet away
 . 3. Continue Step 2 until only a verbal request from you as the "supervisor" is need ed to move 10 boxes
 . 4. Modify Step 3 to a truck location and assist the student in placing the boxes on the truck in such a manner that the boxes should not fall down during transport
-. 5. Continue Step 4, reducing all assistance until the student can complete t he task with only a total - task verbal prompt. To ensure safety, maintain super vision throu</t>
+. 5. Continue Step 4, reducing all assistance until the student can complete t he task with only a total - task verbal prompt. To ensure safety, maintain super vision throughout.</t>
   </si>
   <si>
     <t>Lesson VOC 15</t>
@@ -8568,7 +8565,7 @@
 . 2. Physically guide the student through the action needed to grip the appropriate places on the box that are needed to begin breaking it down
 . 3. Continue Step 2, actually pulling the glued flaps apart and then folding the box into a flattened shape
 . 4. Continue Step 3, reducing all guidance until only the total - task request of "please break down these boxes" is needed for five boxes to be broken down. Have the student place the folded boxes into a pile
-. 5. Add to Step 4 the movement and placement of the folded boxes to a desig nated storage area or near a cardboard recycling recep</t>
+. 5. Add to Step 4 the movement and placement of the folded boxes to a desig nated storage area or near a cardboard recycling receptacle.</t>
   </si>
   <si>
     <t>Lesson VOC 17</t>
@@ -8590,7 +8587,7 @@
 . 2. Physically guide the student through the process of unfolding a folded box
 . 3. Continue Step 2, reducing physical guidance until only step - by - step verbal prompting is needed
 . 4. Continue Step 3, gradually reducing the step - by - step prompting until only the total - task request of "please unfold these boxes" or a similar statement is needed for five sample boxes
-. 5. Guide the student in placing the results of Step 4 into an area where they can be later taped or reinf</t>
+. 5. Guide the student in placing the results of Step 4 into an area where they can be later taped or reinforced.</t>
   </si>
   <si>
     <t>Lesson VOC 18</t>
@@ -8612,7 +8609,7 @@
 . 2. Continue Step 1, guiding the student and ultimately reducing all guidance until he or she can independently identify the locations where the tape should be applied
 . 3. Cut or otherwise dispense a length of tape suitable for applying to the box and physically guide the student in applying the tape
 . 4. Continue Step 3, reducing guidance until none is needed and the student can apply the tape after being handed a strip
-. 5. Demonstrate and then teach the student to dispense or cut the tape indepen dently; apply this skill to the skills learned in Steps 2 and 4. Continue until the objective i</t>
+. 5. Demonstrate and then teach the student to dispense or cut the tape indepen dently; apply this skill to the skills learned in Steps 2 and 4. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson VOC 19</t>
@@ -8633,12 +8630,12 @@
     <t>Boxes, packing material, and sample objects to be packed.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Familiarize the student with each of the identified mater ials. This step is com pleted when the student can point to or otherwise identify each of the items
+    <t>1. Familiarize the student with each of the identified mater ials. This step is com pleted when the student can point to or otherwise identify each of the items
 . 2. Guide the student through the process of placing some packing material into the bottom of the box, filling it about one third of the way
 . 3. Continue Step 2, reducing guidance until the student can perform the task with only verbal prompting
 . 4. Demonstrate placing the sample object into the box and then filling the rest of the box with packing material
 . 5. Guide the student to perform Step 4 and reduce prompting until the student can do this part independently
-. 6. Combine the skills from Steps 3 and 5 and continue until the student can meet the stated criteria. 415 ·.,/: - .,,, </t>
+. 6. Combine the skills from Steps 3 and 5 and continue until the student can meet the stated criteria. 415 ·.,/: - .,,, ,</t>
   </si>
   <si>
     <t>Lesson VOC 20</t>
@@ -8663,7 +8660,7 @@
 . 2. A person who will represent the role of a "supervisor" (which can be the in structor) should physically guide the student through the process of lifting a single box and carrying it to an identified storage area. At this point, neat arrangement and safe stacking practices should be taught
 . 3. Continue Step 2, reducing all physical assistance until only step - by - step verbal requests are needed
 . 4. Continue Step 3, modifying the step - by - step verbal requests to a total - task verbal request
-. 5. Continue Step 4, increasing the number of boxes to be carried, 1 at a time, to 10. Continue until the objective i</t>
+. 5. Continue Step 4, increasing the number of boxes to be carried, 1 at a time, to 10. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson VOC 21</t>
@@ -8685,7 +8682,7 @@
 . 2. Demonstrate to the student how to place items in the jig, using physical assis tance as needed
 . 3. Continue Step 2, reducing physical prompting until onl y verbal cues are needed
 . 4. Teach the student the concept of filling all of the holes provided by the jig and double check to ensure the student's accuracy
-. 5. After completing an example of Step 4, guide the student in removing those items and placing them in a plastic bag. Continue Steps 4 and 5 until the objective is me</t>
+. 5. After completing an example of Step 4, guide the student in removing those items and placing them in a plastic bag. Continue Steps 4 and 5 until the objective is met.</t>
   </si>
   <si>
     <t>Lesson VOC 22</t>
@@ -8711,7 +8708,7 @@
 . 3. Continue Step 2, adding differences not only in size but in shape as well
 . 4. Continue Step 3, adding differences in color
 . 5. Reduce all guidance until only step - by - step verbal prompting is needed
-. 6. Continue to reduce guidance until you need only a total - task verbal request: "Sort these i</t>
+. 6. Continue to reduce guidance until you need only a total - task verbal request: "Sort these items."</t>
   </si>
   <si>
     <t>Lesson VOC 23</t>
@@ -8732,11 +8729,11 @@
     <t>Various items that could be used in a work setting such as small plates, pens, and small boxes. Attempt to determine a work setting in which the student may ultimately be involved and use materials that relate to that type of setting.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Place 10 items before the student and prompt him or her to count the items as he or she did in the prerequisite task of counting objects (COG 41)
+    <t>1. Place 10 items before the student and prompt him or her to count the items as he or she did in the prerequisite task of counting objects (COG 41)
 . 2. Cont inue Step 1, gradually increasing the number of items to be counted to 24 items
 . 3. Present the student with at least 30 items and physically assist the student in counting out 24 of the items presented
 . 4. Continue Step 3, reducing any physical guidance needed until only step - by step verbal assistance where you count with the student is needed
-. 5. Continue Step 4, until you no longer assist with counting and only a total - task verbal request is needed. Present random number requests up to 24 </t>
+. 5. Continue Step 4, until you no longer assist with counting and only a total - task verbal request is needed. Present random number requests up to 24 items.</t>
   </si>
   <si>
     <t>Lesson VOC 24</t>
@@ -8762,7 +8759,7 @@
 . 3. Continue Step 2, adding a third bin and a third color
 . 4. Continue Step 3, adding a fourth bin and color
 . 5. Gradually reduce physical assistance until only gestural and step - by - step verbal cues are needed
-. 6. Reduce all guidance until just the total - task verbal request is n</t>
+. 6. Reduce all guidance until just the total - task verbal request is needed.</t>
   </si>
   <si>
     <t>Lesson VOC 25</t>
@@ -8813,7 +8810,7 @@
 . 2. Guide the student to begin gripping the wrap, using the dominant hand, and begin to pull out enough plastic wrap to fully cover the item selected for wrapping. This is a visual - spatial relationship skill that may require some practice. To demonstrate that the amount of wrap selected is sufficient, you should proceed to show the student the remainder of the proce ss
 . 3. Prompt the student to use an upward or downward movement, as appropriate, and guide the student to cut the plastic wrap from the container
 . 4. Guide the student in wrapping the item with the wrap obtained from Step 3
-. 5. Combine the concepts of Steps 1 through 4 and reduce guidance until only a total - task verbal request is n</t>
+. 5. Combine the concepts of Steps 1 through 4 and reduce guidance until only a total - task verbal request is needed.</t>
   </si>
   <si>
     <t>Lesson VOC 27</t>
@@ -8839,7 +8836,7 @@
 . 3. Modify Step 2 by placing a mark or line on the set near the upper left corner of the first paper of the set. Assist the student in attempting to get the staple as close to the line as reasonable
 . 4. Continue Step 3, gradually reducing the mark or line on the paper until none is needed
 . 5. Slowly begin reducing physical guidance, replacing it with gestural prompting and step - by - step verbal cues
-. 6. Reduce all guidance until you need only the total - task verbal request: "Please staple these." 41</t>
+. 6. Reduce all guidance until you need only the total - task verbal request: "Please staple these."</t>
   </si>
   <si>
     <t>Lesson VOC 28</t>
@@ -8867,7 +8864,7 @@
 . 5. Add to Step 4 removing the bag and placing it aside
 . 6. With the heat sealer on, combine the processes of Steps 2 through 5 into one four - step request, continuing physical guidance
 . 7. Gradually reduce the physical guidance provided to step - by - step verbal re quests and gestural prompting
-. 8. Reduce all guidance until only a total - task verbal request is n</t>
+. 8. Reduce all guidance until only a total - task verbal request is needed.</t>
   </si>
   <si>
     <t>Lesson VOC 29</t>
@@ -8893,7 +8890,7 @@
 . 3. Cut out two fl.at pieces of cardboard and tape the ends together. Physically guide the student through the process of cutting the tape that connects the two pieces
 . 4. Modify Step 3 to using actual boxes that have been taped
 . 5. Continue Step 4, reducing physical guidance until only gestural and step - by step verbal cues are needed. In this step also add the opening of the box flaps to expose the interior of the box
-. 6. Continue Step 5, reducing all prompting until you need only the total - task verbal request: "Please unseal these boxes</t>
+. 6. Continue Step 5, reducing all prompting until you need only the total - task verbal request: "Please unseal these boxes."</t>
   </si>
   <si>
     <t>Lesson VOC 30</t>
@@ -8919,7 +8916,7 @@
 . 3. Demonstrate to the student the proper use of the can - crushing tool. Use a lot of verbal descriptions while performing this task
 . 4. Physically guide the student through the process of crushing a can. Break down each step of the process as neede d. Specific steps might be placing the can in the crusher, pulling the lever, and removing the can
 . 5. Continue Step 4, adding the placement of the crushed can into the plastic bag - lined bin
-. 6. Combine Steps 2 and 5 and reduce all prompting until the objective i</t>
+. 6. Combine Steps 2 and 5 and reduce all prompting until the objective is met.</t>
   </si>
   <si>
     <t>Lesson VOC 31</t>
@@ -8944,7 +8941,7 @@
 . 2. Using a ruler, assist the student in measuring and noting the differences among the thr ee different - size bolts. Use only three bolts in this exercise
 . 3. Using poster board, create three templates, each being the correct size for one bolt. Using the concept of Step 2, have the student measure each bolt with the created templates
 . 4. Modify Step 3 by having the student use a ruler to measure randomly selected bolts from a large pile
-. 5. Continue Step 4, adding the process of placing the different - size bolts into different bins. Reduce assistance provided until the objective i</t>
+. 5. Continue Step 4, adding the process of placing the different - size bolts into different bins. Reduce assistance provided until the objective is met.</t>
   </si>
   <si>
     <t>C 32</t>
@@ -8971,7 +8968,7 @@
 . 4. Physically assist the student in selecting a screwdriver and its related screw and placing the screw in a predrilled hole in the wood sample
 . 5. Continue Step 4, adding physically assisting in the process of screwing the screws into the wood
 . 6. Continue Step 5, reducing physical guidance to step - by - step verbal cues
-. 7. Reduce all guidance other than the total - task request of"please screw in these screws," offering randomly chosen types of screws. Continue until the objec tive i</t>
+. 7. Reduce all guidance other than the total - task request of"please screw in these screws," offering randomly chosen types of screws. Continue until the objec tive is met.</t>
   </si>
   <si>
     <t>Lesson VOC 33</t>
@@ -8999,7 +8996,7 @@
 . 5. Modify Step 4 to using the sample created in Step 2
 . 6. Physically guide the student through the process of hammering the nail
 . 7. Reduce physical guidance, replacing it with gestural and step - by - step verbal prompts
-. 8. R educe all guidance until you need only the total - task verbal prompt of "please hammer these nails into that wood" after handing the student four nails and the wood with the predrilled holes. Maintain supervision of the student to ensure saf</t>
+. 8. R educe all guidance until you need only the total - task verbal prompt of "please hammer these nails into that wood" after handing the student four nails and the wood with the predrilled holes. Maintain supervision of the student to ensure safety.</t>
   </si>
   <si>
     <t>Lesson VOC 34</t>
@@ -9024,7 +9021,7 @@
 . 2. Practice with the student motor imitation while gripping the brush (see pre requisite COG 11) and introduce smaller and smaller movements to imitate
 . 3. Physically guide the student in the process of obtaining a small amount of paint and applying it to the sample wooden item. Identify which surfaces shou ld be painted and demonstrate painting them
 . 4. Continue Step 3, reducing physical guidance to gestural and step - by - step verbal cues
-. 5. Continue Step 4, reducing all prompting until you need only the total - task verbal request: "Please paint this (name of it</t>
+. 5. Continue Step 4, reducing all prompting until you need only the total - task verbal request: "Please paint this (name of item). "</t>
   </si>
   <si>
     <t>Lesson VOC 35</t>
@@ -9048,7 +9045,7 @@
     <t>1. Introduce the student to the instrument that he or she will use to verify that the electrical connections are complete. Using the metal plate, physically guide the student through the process of making the light go on or the meter regis ter that a potential for electrical current is present
 . 2. Continue Step 1, reducing physical assistance until the student can test the connection with only verbal prompting
 . 3. Using the concept from Step 2, set up two sample items, one that is "good" and one that is "bad." Guide the student, as needed, in testing both the good and bad circuits. Randomly present the two items and wo rk with the student until he or she can discriminate between the two items
-. 4. Provide the student with a number of sample circuits, having him or her place "good" circuits in one pile and "bad" circuits in another. (Note. Actual testing aspects will depend on the specific work activity being perfo</t>
+. 4. Provide the student with a number of sample circuits, having him or her place "good" circuits in one pile and "bad" circuits in another. (Note. Actual testing aspects will depend on the specific work activity being performed.)</t>
   </si>
   <si>
     <t>Lesson VOC 36</t>
@@ -9070,7 +9067,7 @@
 . 2. Continue Step 1, adding a target you drew that is twice the size of the label
 . 3. Continue Step 2, reducing the size of the target to the approximate size of the label
 . 4. Continue Step 3, reducing physical guidance to step - by - step verbal and ges tural prompting. Eliminate the use of a target and change the piece of card board to an actual box
-. 5. Continue Step 4, reducing all prompting until the total - task verbal request to apply the labels is successful for five efforts. Continue this step until the ob jective i</t>
+. 5. Continue Step 4, reducing all prompting until the total - task verbal request to apply the labels is successful for five efforts. Continue this step until the ob jective is met.</t>
   </si>
   <si>
     <t>Lesson VOC 37</t>
@@ -9098,7 +9095,7 @@
 . 5. Using the water from Step 4, guide the student in immersing the plate under the water and using the sponge to wash the plate
 . 6. Using the faucet and the other side of the sink, guide the student in rinsing the soap from the plate
 . 7. Combine the concepts of Steps 3 through 6, replacing the teaching props with real items and guide the student in placing the dishes in a drying rack
-. 8. Reduce guidance until only a total - task verbal request is n</t>
+. 8. Reduce guidance until only a total - task verbal request is needed.</t>
   </si>
   <si>
     <t>Lesson VOC 38</t>
@@ -9122,7 +9119,7 @@
     <t>1. Demonstrate the entire process to the student, using a lot of verbal explanation
 . 2. Begin with dishes that have been placed in a drying rack. Guide the student in picking up the items and putting them back in the rack using his or her nondominant hand. Continue this process until the student can accomplish this task with only a verbal prompt
 . 3. Show the student where the towels used for this purpose are kept and guide the student in obtaining a towel and holding it in his or her dominant hand. Return to the drying rack. Continue this activity until only verbal cues are needed
-. 4. With the towel in the student's possession, use a three - step reque st process (see prerequisite S&amp;L 18) to have the student grasp a dish, dry it, and then place it in the appropriate storage area. Continue this process for at least five dishes. (Note. In some settings, it is easier to stack a number of dishes before putti ng them away due to the distance of the storage area from the sink. In these cases, prompt only the first two steps and teach putting the dishes away as a separate step.) 5. Continue Step 4, reducing necessary prompting until the objective i</t>
+. 4. With the towel in the student's possession, use a three - step reque st process (see prerequisite S&amp;L 18) to have the student grasp a dish, dry it, and then place it in the appropriate storage area. Continue this process for at least five dishes. (Note. In some settings, it is easier to stack a number of dishes before putti ng them away due to the distance of the storage area from the sink. In these cases, prompt only the first two steps and teach putting the dishes away as a separate step.) 5. Continue Step 4, reducing necessary prompting until the objective is met.</t>
   </si>
   <si>
     <t>Lesson VOC 39</t>
@@ -9147,7 +9144,7 @@
 . 2. Break down the teaching ofloading the dishwasher into the three steps of scraping (using a dish towel or sponge) any excess food into a trash can, rinsing the dish in a sink, and placing the dish in the dishwasher. Prompt as needed and reduce cues until only verbal requests are needed
 . 3. Break down the teaching of turning on the dishwasher into the three steps of obtaining and placing soap in the proper location, closing the door, and pressing or turning the necessary controls
 . 4. Break down the teaching of unloading the dishwasher into the three steps of recognizing when the machine has finished, removing the clean dishes, and placing them in a storage location
-. 5. Combine the skills learned in Steps 2 through 5 into one three - step r equest as outlined in the objective. Continue until the objective is me</t>
+. 5. Combine the skills learned in Steps 2 through 5 into one three - step r equest as outlined in the objective. Continue until the objective is met. .</t>
   </si>
   <si>
     <t>Lesson VOC 40</t>
@@ -9172,7 +9169,7 @@
 . 2. Physically assist the student in picking up a single towel from a pile and hold ing the towel with two hands by the short - end corners
 . 3. Guide the student in gently shaking the towel to straighten it out if wrinkles are present
 . 4. While still holding the towel as in Step 2, guide the student in moving his or her grip to the center of the towel to allow it to fold in hal£ 5. Still gripping from the center, guide the student in folding the towel inward into sections of one third. (Note. The student may need to change grip posi tions to be successful.) 6. Take the outcome of Step 5 and guide the student in folding that result in hal£ 7. Reduce all physical assistance until only step - by - step verbal cues are needed
-. 8. Reduce all prompting until only the total - task verbal request is n</t>
+. 8. Reduce all prompting until only the total - task verbal request is needed.</t>
   </si>
   <si>
     <t>Lesson VOC 41</t>
@@ -9197,7 +9194,7 @@
 . 2. While in the area described in Step 1, demonstrate the height of a stack of towels that will easily fit into the designated storage area. A marker can be drawn on the wall to indicate the height that is needed. Guide the student in creating stacks of towels that are easily carried and continue until he or she can stack the towels with only verbal requests
 . 3. Escort the student (without carrying the towels) to the area where the towels will be stacked and repeat the concept described in Step 1 until o nly verbal requests are needed
 . 4. Continue Step 3, with the student carrying a stack of towels, and guide the student in placing them in a neat manner on the shelves. Reduce guidance until only verbal requests are needed
-. 5. Combine the concepts of Steps 1 thro ugh 4 and continue until the objective i</t>
+. 5. Combine the concepts of Steps 1 thro ugh 4 and continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson VOC 42</t>
@@ -9223,7 +9220,7 @@
 . 3. Continue Step 2, adding a third type oflaundry
 . 4. Continue Step 3, adding a second delivery location
 . 5. Continue Step 4, adding a third delivery location
-. 6. Continue Step 5 until you need only the total - task verbal prompt: "Please give out the lau</t>
+. 6. Continue Step 5 until you need only the total - task verbal prompt: "Please give out the laundry."</t>
   </si>
   <si>
     <t>Lesson VOC 43</t>
@@ -9247,7 +9244,7 @@
     <t>1. Review with the student his or her ability to pour liquids into a cup (see pre requisite ADT 19)
 . 2. Demonstrate to the student the process of using a funnel, then attempt to physically guide him or her through the process of pouring water into a bottle. If difficulties arise, an intermediate step that can help is to pour the liquid into a pitcher first a nd then use the funnel for the bottle
 . 3. Continue Step 2, reducing all prompting from physical guidance to step - by step verbal prompts to a total - task request: "Please fill this bottle with (the substance chosen to be placed in the bottle)." Modify the wat er to the actual liquid to be used
-. 4. Continue Step 3, adding bottles until a total of five are filled in one session. Repeat this step until the objective i</t>
+. 4. Continue Step 3, adding bottles until a total of five are filled in one session. Repeat this step until the objective is met.</t>
   </si>
   <si>
     <t>Lesson VOC 44</t>
@@ -9268,11 +9265,11 @@
     <t>A sink suitable for washing hair, shampoo ("no tears" type preferred), and towels.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Review with the student the process involved in washing his or her own hair, giving close attention to the student's ability to safely regulate water temperature
+    <t>1. Review with the student the process involved in washing his or her own hair, giving close attention to the student's ability to safely regulate water temperature
 . 2. While you wash the student's hair, demonstrate the process and activities involved to the student. Use lots of verbal description s during this process
 . 3. Using another instructor or student to act as the customer, physically guide the student in the entire process of washing and rinsing the customer's hair, ending by wrapping the hair in a towel
 . 4. Continue Step 3, reducing physical gui dance until only step - by - step verbal cues are needed
-. 5. Continue Step 4, substituting a real customer (if reasonable) and reducing prompting to a total - task verbal request. Maintain supervision at all </t>
+. 5. Continue Step 4, substituting a real customer (if reasonable) and reducing prompting to a total - task verbal request. Maintain supervision at all times.</t>
   </si>
   <si>
     <t>Lesson VOC 45</t>
@@ -9297,7 +9294,7 @@
 . 2. Demonstrate to the student the process involved in drying someone else's hair. Another instructor or student should be used at this point. Use a lot of verbal description as the process takes place. The techniques demonstrated should include turning on the hair dryer, moving the hair dryer, using a brush or comb , and turning off the hair dryer
 . 3. Physically guide the student through the entire process
 . 4. Reduce guidance to step - by - step verbal cues
-. 5. Reduce all prompting until you only need a total - task request: "Please dry (the name of the customer's) hair." 6. Continue Step 5, replacing the instructor or student customer with a person whose hair is in need of drying. Maintain supervision throughout the pr</t>
+. 5. Reduce all prompting until you only need a total - task request: "Please dry (the name of the customer's) hair." 6. Continue Step 5, replacing the instructor or student customer with a person whose hair is in need of drying. Maintain supervision throughout the process.</t>
   </si>
   <si>
     <t>C46</t>
@@ -9324,7 +9321,7 @@
 . 4. Continue Step 3, adding verbal encouragement to sweep the entire designated area and to g ather the debris into a pile
 . 5. Prompt the student to place a plastic bag as a liner into a trash can
 . 6. Combine the concepts of Steps 4 and 5 into one total activity and add the use of a dustpan and hand - held brush, still using step - by - step verbal cues
-. 7. Continue Step 6, reducing the step - by - step cues until only the total - task ver bal request of"please sweep" an area is needed. Continue until the objective i</t>
+. 7. Continue Step 6, reducing the step - by - step cues until only the total - task ver bal request of"please sweep" an area is needed. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson VOC 47</t>
@@ -9345,10 +9342,10 @@
     <t>A two - compartment mop bucket with a wringer, appropriate cleaner, and a mop. A work setting of a current or potential employer is preferred.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Review wit h the student the process involved in mopping a floor
+    <t>1. Review wit h the student the process involved in mopping a floor
 . 2. Demonstrate to the student the process of collecting the necessary materials and setting up the clean water and detergent to be used. Monitor the student's ability to regulate water temperature to ensu re safety. Use lots of verbal expla nations during this process
 . 3. Use step - by - step verbal cues to guide the student through the entire process, emphasizing the specific area to be mopped and the storage locations for materials
-. 4. Reduce verbal step - by - step prompting and replace it with a total - task request: "Please mop the (name of the area to be mopped)." Continue until the objec tive is met. 443 </t>
+. 4. Reduce verbal step - by - step prompting and replace it with a total - task request: "Please mop the (name of the area to be mopped)." Continue until the objec tive is met.</t>
   </si>
   <si>
     <t>Lesson VOC 48</t>
@@ -9372,7 +9369,7 @@
     <t>1. Demonstrate the entire process to the student, using a lot of verbal statements to illustrate the actions being performed
 . 2. Using an imitation process (see prerequisite COG 11), ask the student to imi tate the action involved in clearing out items larger than the drain holes from the sink and placing them in a trash can. (Note. Use gloves where potential harm to the student is possible.) 3. Still using an imitation process, encourage the student to repeat your actions as you first use the faucet while regulating the water temperature (see prereq uisites ADT 17 and ADT 64) to wet the sink area and then vigorously apply the cleanser
 . 4. Use the same concept as in Step 3 to teach the rinsing of the sink
-. 5. Combine all aspects of Steps 2 through 5, reducing prompting until the objective i</t>
+. 5. Combine all aspects of Steps 2 through 5, reducing prompting until the objective is met.</t>
   </si>
   <si>
     <t>Lesson VOC 49</t>
@@ -9397,7 +9394,7 @@
 . 2. Select one mirror from those to be cleaned, and using an imitation process, guide the student through the activity of completely cleaning the mirror using window cleaner and paper towels. Also prompt the student to throw away any used towels into a trash can or bag
 . 3. Continue Step 2, reducing all guidance until only a total - task verbal prompt is needed
 . 4. Continue Step 3, adding mirrors, one at a time, to the requested workload until at least four mirrors are cleaned
-. 5. Continue Step 4, modifying the total - task request from cleaning each mirror one at a time to cleaning all of the mirrors in the designated area. Continue until the objective i</t>
+. 5. Continue Step 4, modifying the total - task request from cleaning each mirror one at a time to cleaning all of the mirrors in the designated area. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson VOC 50</t>
@@ -9419,7 +9416,7 @@
 . 2. Continue Step 1 and add physically guiding the student through the process of plugging the vacuum in and turning it on
 . 3. Continue Step 2, adding the action of the back - and - forth motion of vacuum ing by using gestural demonstration
 . 4. Continue Step 3, reducing the gestural prompting, and provide feedback until the student understands what constitutes a reasonable coverage of the floor surface area
-. 5. Reduce all prompting until only the total - task verbal prompt as described in the terminal objective is n</t>
+. 5. Reduce all prompting until only the total - task verbal prompt as described in the terminal objective is needed.</t>
   </si>
   <si>
     <t>Lesson VOC 51 - ::! d</t>
@@ -9448,7 +9445,7 @@
 . 7. Continue Step 6, adding the use of the ironing board end to iron the top portion of the pants
 . 8. Continue Step 7, reducing physical assistance and changing the prompt to imitation of your demonstration. In this step, you and the student should each have an ironing board and iron that can be easily seen by both parties. Refining the student's skill can be addressed at this point
 . 9. Continue Step 8, adding the placement of the ironed pants on a hanger
-. 10. Continue Step 9, reducing the imitative prompt. Even at this level, some form of supervision should be maintained. - .,</t>
+. 10. Continue Step 9, reducing the imitative prompt. Even at this level, some form of supervision should be maintained. - .,.,</t>
   </si>
   <si>
     <t>C52</t>
@@ -9474,7 +9471,7 @@
 . 3. Place a blue sticker by the low setting, a yellow sticker by the medium setting and a red sticker by the high setting. Physically guide the student in adjusting the knob to each setting, provi ding verbal commands as well
 . 4. Turn the stovetop on and physically guide the student in turning it off when verbally requested
 . 5. Combine the concepts of Steps 2 though 4, randomly requesting different temperature settings (low, medium, or high) into one physically guided action, concluding with the prompt to turn the stove burner off
-. 6. Continue Step 5, reducing physical guidance until only verbal requests are needed. Maintain supervision throughout any interaction related to this ac tivity. The stickers c an remain or be removed, depending on the student's abil</t>
+. 6. Continue Step 5, reducing physical guidance until only verbal requests are needed. Maintain supervision throughout any interaction related to this ac tivity. The stickers c an remain or be removed, depending on the student's abilities.</t>
   </si>
   <si>
     <t>Lesson VOC 53</t>
@@ -9500,7 +9497,7 @@
 . 3. Using food coloring with water and sand, prepare different colored wet and dry samples. Using step - b y - step verbal cues, prompt the student to mea sure and place into a bowl at least five different "items" with five different measurements
 . 4. Continue Step 3, replacing the colored items with real food ingredients
 . 5. Demonstrate to the student a location where the food items are kept. Prompt the student to retrieve those items and bring them to the work area
-. 6. Combine Steps 4 and 5, reducing step - by - step prompting to a total - task re quest where all five ingredients are obtained, measured, and placed into a bowl . Continue until the objective is me</t>
+. 6. Combine Steps 4 and 5, reducing step - by - step prompting to a total - task re quest where all five ingredients are obtained, measured, and placed into a bowl . Continue until the objective is met. I</t>
   </si>
   <si>
     <t>Lesson VOC 54</t>
@@ -9524,7 +9521,7 @@
     <t>1. Review with the student the process of measuring the prescribed amount of cooking oil and placing it into a bowl, adding the egg and the mix, and then mixing the ingredients. (Note. The ingredients are given to the student in bulk form.) 2. Provide physical assistance to the student, as needed, to repeat the process outlined in Step 1. Continue until the ingredients are thoroughly mixed
 . 3. Continue Step 2, reducing physical guidance and replacing that level of prompting to step - by - step verbal cues
 . 4. Continue Step 3, reducing step - by - step prompting to a total - task request: "Please measure and mix these items in this bowl." Continue until the objective is met
-. 5. Although not part of the objective, you should proceed to complete the cooking process so that the student can see and enjoy the ou</t>
+. 5. Although not part of the objective, you should proceed to complete the cooking process so that the student can see and enjoy the outcome.</t>
   </si>
   <si>
     <t>Lesson VOC 55</t>
@@ -9552,7 +9549,7 @@
 . 5. Using a spoon, physically guide the student in transferring the mixture to the pan prepared in Step 4
 . 6. Prompt the student to place the pan in the oven when the proper temperature has been reached, and using a clock or timer, measure the time needed for baking. Bake for the prescribed time
 . 7. Have the student use an oven mitt to remove the brownies. Allow them to cool
-. 8. Combine the concepts of Steps 2 through 6 and reduce prompting until only a total - task verbal request is needed. Continue until the objective i</t>
+. 8. Combine the concepts of Steps 2 through 6 and reduce prompting until only a total - task verbal request is needed. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson voe 56</t>
@@ -9578,7 +9575,7 @@
 . 3. Using verbal prompts, guide the student to perform Step 2
 . 4. Add food items that relate to an actual or potential workplace environment
 . 5. Reduce verbal cues and give a total - task request. Maintain supervision throu ghout the process
-. 6. Although the objective is met in Step 5, add the cleaning and storing of the k</t>
+. 6. Although the objective is met in Step 5, add the cleaning and storing of the knives.</t>
   </si>
   <si>
     <t>Lesson VOC 57</t>
@@ -9599,11 +9596,11 @@
     <t>A blender, a spoon, a glass, vanilla ice cream, milk, and chocolate syrup.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Demonstrate the entire process to the student, including gathering and measur ing materials; placing ice cream, milk, and chocolate syrup into the blender; blending; and then pouring the results into a glass
+    <t>1. Demonstrate the entire process to the student, including gathering and measur ing materials; placing ice cream, milk, and chocolate syrup into the blender; blending; and then pouring the results into a glass
 . 2. Verbally prompt the student through the process of gathering all the necessary materials: the spoon, milk, syrup, ice cream, the glass, and the blender
 . 3. Continue Step 2, adding the placing of the ingredients (rough measurements are acceptable), using a spoon for the ice cream, pouring the ingredients into the blender, and operating the blender
 . 4. Continue Step 3, adding the pouring of the result into a glass. Begin this step with the verbal prompt identified in the objective
-. 5. Although the objective is complete in Step 4, guide the student in rinsing out or hand cleaning the blender when finished. , </t>
+. 5. Although the objective is complete in Step 4, guide the student in rinsing out or hand cleaning the blender when finished. ,</t>
   </si>
   <si>
     <t>Lesson VOC 58</t>
@@ -9629,7 +9626,7 @@
 . 3. Continue Step 2, adding verbally prompting the student to re move the can, empty the water, and open the top of the can. This aspect may require some physical prompting at first
 . 4. Continue Step 3, adding the use of the spoon to remove the contents into the pitcher and using the can to add the number of cans of cold w ater identified on the label
 . 5. Guide the student in stirring until all of the concentrate has been blended into the water
-. 6. Guide the student in pouring the result of Step 5 into the gl</t>
+. 6. Guide the student in pouring the result of Step 5 into the glasses.</t>
   </si>
   <si>
     <t>Lesson VOC 59</t>
@@ -9650,12 +9647,12 @@
     <t>A can opener (the choice of manual or electric will depend on the student), various practice cans, water, small objects such as beads or dried peas, cans with real products, a fork, and a bowl.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Demonstrate to the student the actions involved in opening a can using the type of can opener that has been selected. Use a lot of verbal description while this process takes place
+    <t>1. Demonstrate to the student the actions involved in opening a can using the type of can opener that has been selected. Use a lot of verbal description while this process takes place
 . 2. Physically guide the student through the process of opening a can that was demonstrated in Step 1
 . 3. Verbally guide the student to take a pr actice can filled with water and pour the water into a bowl
 . 4. Modify Step 3 by placing some small, solid objects in the water
 . 5. Combine the concepts of Steps 2 and 4 into one action
-. 6. Continue Step 5, reducing physical and verbal guidance until you need only a total - task verbal request: "Please open this can." 7. Modify Step 6 to real products and increase the number of cans to five. 4 </t>
+. 6. Continue Step 5, reducing physical and verbal guidance until you need only a total - task verbal request: "Please open this can." 7. Modify Step 6 to real products and increase the number of cans to five.</t>
   </si>
   <si>
     <t>Lesson VOC 60</t>
@@ -9684,7 +9681,7 @@
 . 6. Guide the student to keep the product in the water for a specific period of time (see prerequisite ADT 100 or ADT 101). Prompt the student to "tell the su pervisor" when the time period has elapsed
 . 7. Upon completion of Step 6, guide the student in removing the bag by using the tongs and placing the bag in the bowl
 . 8. After the result of Step 7 has cooled, guide the student to hold part of the bag with the tongs while cutting open the bag with the scissors. If difficulty is en countered in this step, practice cutting using some empty bags
-. 9. Combine all concepts presented so far into one complete act and reduce guid ance until you need only a total - task verbal request: "Please boil this (name of i</t>
+. 9. Combine all concepts presented so far into one complete act and reduce guid ance until you need only a total - task verbal request: "Please boil this (name of item)."</t>
   </si>
   <si>
     <t>Lesson VOC 61</t>
@@ -9710,7 +9707,7 @@
 . 4. Physically assist the student in pla cing the basket containing the frozen prod uct into the fryer, after noting that the oil should be at the appropriate tem perature, and pressing the timer switch
 . 5. When the signal goes off to indicate that cooking is done, physically guide the student in removing the basket and emptying the contents into the appropriate container
 . 6. After completing Step 5, verbally prompt the student to season the product in the desired manner
-. 7. Combine all aspects taught so far and reduce guidance and prompting until only a total - task request is needed. Supervision should be maintained at all times in this act</t>
+. 7. Combine all aspects taught so far and reduce guidance and prompting until only a total - task request is needed. Supervision should be maintained at all times in this activity.</t>
   </si>
   <si>
     <t>Lesson VOC 62</t>
@@ -9736,7 +9733,7 @@
 . 3. Once all items are on the tray, verbally prompt the student to clean the table and chairs in the same manner as the prerequisite task of cleaning such items in the home
 . 4. Escort the student, with the student carrying the tray but with you providing assistance as needed, to the area where the trash, waste food, and dirty dishes are taken. Empty the tray as appropriate
 . 5. Combine the concepts of Steps 2 through 4 into one activity that is prompted verbally in a step - by - step manner
-. 6. Continue Step 5, reducing prompting to a total - task verbal request. Continue until the objective i</t>
+. 6. Continue Step 5, reducing prompting to a total - task verbal request. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson VOC 63 ,</t>
@@ -9761,7 +9758,7 @@
 . 2. Using the student's skills with a faucet and regulating water temperature, guide the student in plugging and filling a sink halfway with very warm water, adding soap, and placing the utensils in the water to soak
 . 3. After the utensils have soaked for at least 3 minutes, guide the student in carefully taking the utensils out of the water and cleaning them with a scrub bing pad
 . 4. Guide the student in rinsing the utensils in cle an, hot water for at least 30 seconds on all surfaces and have him or her place the items on a paper towel for drying
-. 5. Combine all aspects of Steps 2 through 4 and reduce prompting to a total task request. Maintain supervision at all times during this ac tivity. 459 d</t>
+. 5. Combine all aspects of Steps 2 through 4 and reduce prompting to a total task request. Maintain supervision at all times during this ac tivity.</t>
   </si>
   <si>
     <t>Lesso n V 1 C64</t>
@@ -9783,7 +9780,7 @@
 . 2. Using the poster board and markers, draw outline templates of each item to be placed on the table, put them in the proper position on the practice table, and use the student's abilities to match sha pes (see prerequisite COG 20) to assist in placing the items on the templates. This setup should be for four places
 . 3. Continue Step 2, slowly reducing the use of visual templates and replacing them with step - by - step verbal prompting
 . 4. Continue Step 3, modifying the step - by - step verbal prompting to a total - task request for four settings
-. 5. Modify Step 4 to randomly request different numbers of settings at the table, from one to</t>
+. 5. Modify Step 4 to randomly request different numbers of settings at the table, from one to four.</t>
   </si>
   <si>
     <t>Lesson VOC 65</t>
@@ -9808,7 +9805,7 @@
 . 2. Review with the student the concepts used in cleaning a tub
 . 3. Modify Step 2 to use a toilet instead of a tub and physically guide the stu dent in the use of the toilet brush, the cloth, or the paper towels. Start by placing the cleaner in the water and use that to clean the interior of the toilet. Using the cloth, guide the student in cleaning and rinsing the exterior su faces of the toilet
 . 4. Continue Step 3, reducing physical guidance to step - by - step verbal cues
-. 5. Continue Step 4, reducing the step - by - step cues to a total - task request. Continue until the objective i</t>
+. 5. Continue Step 4, reducing the step - by - step cues to a total - task request. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson VOC 66</t>
@@ -9834,7 +9831,7 @@
 . 3. Find or create a holder that is in need of replacement and physically guide the student through the process of changing the roll
 . 4. Continue Step 3, adding the component of the student going to the storage location identified in Step 1, gathering a roll of toilet paper, and then proceed ing back to the rest room that has been determined to need paper replacement
 . 5. Set up multiple examples where the toilet paper needs changing
-. 6. All prompting should be reduced to a total - task verbal request and should then be applied to a real or potential work se</t>
+. 6. All prompting should be reduced to a total - task verbal request and should then be applied to a real or potential work setting.</t>
   </si>
   <si>
     <t>Lesson VOC 67</t>
@@ -9856,7 +9853,7 @@
 . 2. Demonstrate to the student how to determine whether or not the towels need to be replaced or refilled. Set up some examples and prompt the student to identify which examples indicate the need for action. Continue this step until the student can independently identify which examples need refilling
 . 3. Demonstrate the process and physical action involved in actually changing the paper towels. Guide the student in performing the task and reduce prompting as his or her skill improves
 . 4. Review with the student the process of discarding any wrapper or other waste that resulted during the process
-. 5. Combine the concepts of Steps 1 through 4 into one action and continue until the objective is met. 46 3 ; - J - l.</t>
+. 5. Combine the concepts of Steps 1 through 4 into one action and continue until the objective is met. 46</t>
   </si>
   <si>
     <t>Lesson VOC 68</t>
@@ -9882,7 +9879,7 @@
 . 3. Go with the student to each location that has a trash can that is a part of the simulated or real work area
 . 4. Continue Step 3, adding the actual action of emptying the trash cans into the plastic bags. At leas t three trash cans should be involved in this process
 . 5. Go with the student to the designated dumpster that should receive the trash and demonstrate how to discard the bag
-. 6. Combine the concepts of Steps 2 through 5, reducing all prompting until the student can perform the entire task with just a verbal re</t>
+. 6. Combine the concepts of Steps 2 through 5, reducing all prompting until the student can perform the entire task with just a verbal request.</t>
   </si>
   <si>
     <t>Lesson VOC 69</t>
@@ -9934,7 +9931,7 @@
 . 4. Continue Step 3, adding a forward pulling motion after the soil has been broken up
 . 5. Verbally guide the student in retrieving a weed that has been dug up and placing it in a plastic trash bag
 . 6. Continue Step 5 for an identified area. Demonstrate and then prompt the student to discard the plastic trash bag with the weeds in an appropriate receptacle
-. 7. Combine the concepts of Steps 1 through 6 into one total - task verbal re</t>
+. 7. Combine the concepts of Steps 1 through 6 into one total - task verbal request.</t>
   </si>
   <si>
     <t>Lesson VOC 71</t>
@@ -9957,7 +9954,7 @@
 . 3. Using motor imitation, have the student mimic your action in getting a shovel full of dirt and placing the dirt into a cart or wheelbarrow. Caution should be used to avoid having the cart or wheelbarrow turn over during this activity
 . 4. Continue Step 3, reducing prompting until only verbal cues are needed
 . 5. Continue Step 4, reducing prompting until onl y one verbal request is needed for at least 20 full shovels of dirt to be moved
-. 6. Combine the concepts of Steps 1, 2, and 5 into one total - task verbal request and add the returning of the shovel to its storage loc</t>
+. 6. Combine the concepts of Steps 1, 2, and 5 into one total - task verbal request and add the returning of the shovel to its storage location.</t>
   </si>
   <si>
     <t>Lesson VOC 72</t>
@@ -9983,7 +9980,7 @@
 . 3. Using motor - im itation skills, guide the student in the process of washing down the wall and rinsing the cloth out without the use of a stepladder
 . 4. Continue Step 3, adding the use of a stepladder. Maintain direct supervision during this step
 . 5. Combine the concepts of Steps 1 through 4 into one action and reduce prompting to a total - task verbal request
-. 6. Continue Step 5, adding the return of the materials to their original loc</t>
+. 6. Continue Step 5, adding the return of the materials to their original location.</t>
   </si>
   <si>
     <t>Lesson VOC 73</t>
@@ -10008,7 +10005,7 @@
 . 2. Using the prerequisite skills of using a faucet and regulating temperature, ve bally prompt the student to fill the bucket halfway with warm water (about 1 gallon) and add approximately ¼ cup of ammonia to the water
 . 3. Using the solution created in Step 2 and having the student wear rubber gloves, verbally direct the student to wash all of the window surface areas of one window by using a washcloth that has been placed in the solution and wrung out. (Note. This should no t be done in direct sunlight.) The cloth should periodically be rinsed in the solution
 . 4. Allow the window from Step 3 to dry and then verbally direct the student to use paper towels and window cleaner for the entire surface area again
-. 5. Combine Steps 1 through 4 into a total - task verbal request and increase the number of windows involved to four. Prompt the student to return the mate rials to their original location. (Note. Initially only use windows that can be easily and safely reached . Add the use of a small stepladder only after mastery of this skill with reachable windo</t>
+. 5. Combine Steps 1 through 4 into a total - task verbal request and increase the number of windows involved to four. Prompt the student to return the mate rials to their original location. (Note. Initially only use windows that can be easily and safely reached . Add the use of a small stepladder only after mastery of this skill with reachable windows.)</t>
   </si>
   <si>
     <t>Lesson VOC 74</t>
@@ -10032,7 +10029,7 @@
     <t>1. Collect a number of sample applications and use role playing to practice with the student the statements needed to request an application. More detailed aspects such as appropriate dress and eye contact should also be emphasized
 . 2. Modify Step 1 by taking th e student to work sites where the manager or other representatives have agreed to assist in this learning process. In this particular step, stand with the student and verbally prompt him or her when necessary. Continue this step until verbal prompting is n o longer needed
 . 3. Modify Step 2 by going to a work site where the manager is unaware of the learning task. Point out the person or office to which the student should go and assist the student in going to the manager and asking for an application. Discuss wh at happened after each effort
-. 4. Continue Step 3, adding the component where the student independently asks for the manager or the appropriate person and then requests an applica tion, as</t>
+. 4. Continue Step 3, adding the component where the student independently asks for the manager or the appropriate person and then requests an applica tion, as well.</t>
   </si>
   <si>
     <t>Lesson VOC 75</t>
@@ -10055,7 +10052,7 @@
   <si>
     <t>1. Take pictures of real or potential fellow employees and use the student's dis crimination skills (see prerequisite ADT 5) to identify which picture repre sents the supervisor
 . 2. Go to the actual or potential worksite and identify the office or place where the supervisor is located. Continue this process until the student can perform this task independently
-. 3. Assemble a group of employees and their supervisor and prompt the student to point to or otherwise identify the supervisor. (Note. This may have to be done through role playing.) 4. Modify the skill from Step 3 to having the student imitate a wave or other in dicator to which the supervisor can respond. Reduce the imitation component until the student will perform that function upon initially seeing the supervisor when arriving or leaving. Continue until the objective i</t>
+. 3. Assemble a group of employees and their supervisor and prompt the student to point to or otherwise identify the supervisor. (Note. This may have to be done through role playing.) 4. Modify the skill from Step 3 to having the student imitate a wave or other in dicator to which the supervisor can respond. Reduce the imitation component until the student will perform that function upon initially seeing the supervisor when arriving or leaving. Continue until the objective is met.</t>
   </si>
   <si>
     <t>Lesson VOC 76</t>
@@ -10080,7 +10077,7 @@
 . 2. Make a number of sample time cards but only one should contain the stu dent's name. Some of the other sample cards should have names similar to the student's. Prompt the student to pick up his or her own card. Continue this step until the student can perform it with 100% accuracy
 . 3. Verbally guide t he student through the process of selecting his or her card and using the time clock
 . 4. Prompt the student to perform Step 3 at the specific times that are appropriate
-. 5. Continue Step 4, reducing verbal prompting until the student will perform the task independently. For every example of independent behavior, provide a lot of verbal praise. If the student forgets, provide gentle reminders until independence is ach</t>
+. 5. Continue Step 4, reducing verbal prompting until the student will perform the task independently. For every example of independent behavior, provide a lot of verbal praise. If the student forgets, provide gentle reminders until independence is achieved.</t>
   </si>
   <si>
     <t>Lesson VOC 77</t>
@@ -10101,11 +10098,11 @@
     <t>Paper, markers, and a map of the local area.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Draw a simple map that shows the student's current room location but also shows another nearby location. Escort the student to the nearby location. During this step, use a lot of verbal explanation to illustrate that the map is a symbol for different locations
+    <t>1. Draw a simple map that shows the student's current room location but also shows another nearby location. Escort the student to the nearby location. During this step, use a lot of verbal explanation to illustrate that the map is a symbol for different locations
 . 2. Modify Step 1 by creating a map of a larger area within the building or home that the student is in. Use both symbols and written words to describe each location
 . 3. Modify Step 2 by creating a map that shows different nearby buildings
 . 4. Using a commercially prepared map, mark the current location and another location within walking or a short travel distance. Prompt the student to provide verbal responses regarding a destination and how to get there. Actual compass references are not needed
-. 5. Expand the concept of Step 4 to reference a specific location (preferably a real or potential worksite). Escort the student to the identified location, allowing the student to guide the trip by using the map. 473 </t>
+. 5. Expand the concept of Step 4 to reference a specific location (preferably a real or potential worksite). Escort the student to the identified location, allowing the student to guide the trip by using the map.</t>
   </si>
   <si>
     <t>Lesson VOC 78</t>
@@ -10129,7 +10126,7 @@
     <t>1. Contact various employers who offer positions that are within the student's skills and may be of interest to the student. During this contact, request that the student be allowed to visit and observe the work activities
 . 2. Escort the student to at least three employers arranged through the efforts from Step 1. Immediately after each visit, discuss with the student what he or she saw and attempt to determine if the student would enjoy that type of work
 . 3. At a time at least 1 day af ter the activities of Step 2, ask the student about the activities he or she observed. Verbally prompt the student with answers as needed and ask open - ended questions so that the student will give more detailed answers
-. 4. Continue Step 3, reducing the verbal prompting until none is n</t>
+. 4. Continue Step 3, reducing the verbal prompting until none is needed.</t>
   </si>
   <si>
     <t>Lesson VOC 79</t>
@@ -10155,7 +10152,7 @@
 . 3. Continue Step 2, adding verbal prompts to fill out the rest of the application, including the cursive signing of the student's name
 . 4. Reduce prompting to more general directions for each section of the application
 . 5. Continue Step 4, reducing verbal prompts until only the total - task request is needed
-. 6. Modify Step 4 to include different types of applica</t>
+. 6. Modify Step 4 to include different types of applications.</t>
   </si>
   <si>
     <t>Lesson VOC 80</t>
@@ -10180,7 +10177,7 @@
 . 2. Modify Step 1 by joining the student in a mock interview setting that uses a person who is not well known to the student. This step should be performed at least 10 times or until the student appears comfortable
 . 3. Modify Step 2 by having the student participate without your presence
 . 4. Modify Step 3 to a setting arranged for practice purposes with a local employe r
-. 5. Modify Step 4 by arranging for an actual interview. Meet with the student immediately afterward to provide feedback. Continue until the objective i</t>
+. 5. Modify Step 4 by arranging for an actual interview. Meet with the student immediately afterward to provide feedback. Continue until the objective is met.</t>
   </si>
 </sst>
 </file>
